--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7788617F-1744-4CAA-9C50-4F7E2BA8B59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F506D9-2F79-41BE-9F71-09D4C5B42F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
@@ -1573,19 +1573,9 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2009,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAAD69-D526-4C28-B49C-ADB47BD472D4}">
   <dimension ref="B2:S263"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G60" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2021,7 +2011,7 @@
     <col min="5" max="5" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" customWidth="1"/>
@@ -5017,17 +5007,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N5:N88">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10 I49 I72:I73 I90 I128 I161 I166 I232">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F506D9-2F79-41BE-9F71-09D4C5B42F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6254420-CF5C-4A87-BF0D-60E3847859CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="495">
   <si>
     <t>Tipo Prod BD</t>
   </si>
@@ -930,9 +930,6 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>Territorio</t>
-  </si>
-  <si>
     <t>Territorio Británico en África</t>
   </si>
   <si>
@@ -1516,6 +1513,12 @@
   </si>
   <si>
     <t>Exportación SS calificados por Aduanas</t>
+  </si>
+  <si>
+    <t>Bielorusia</t>
+  </si>
+  <si>
+    <t>Europa</t>
   </si>
 </sst>
 </file>
@@ -1573,10 +1576,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1618,14 +1618,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1663,8 +1656,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E41AF41-F8FC-4B26-AF78-273739958C0D}" name="Países" displayName="Países" ref="H4:K263" totalsRowShown="0">
-  <autoFilter ref="H4:K263" xr:uid="{48C490CF-810B-4B9A-A48C-F659E709F7DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E41AF41-F8FC-4B26-AF78-273739958C0D}" name="Países" displayName="Países" ref="H4:K262" totalsRowShown="0">
+  <autoFilter ref="H4:K262" xr:uid="{48C490CF-810B-4B9A-A48C-F659E709F7DD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{18EFC429-FC32-416B-9D85-B3AA4E41A311}" name="País BD"/>
     <tableColumn id="2" xr3:uid="{35A83415-B243-4143-9EC2-916FB2E6AF24}" name="País Homologado"/>
@@ -1694,7 +1687,7 @@
   <autoFilter ref="B17:C29" xr:uid="{A6A8F6B9-DD1A-4B64-A6A8-A1BAF98BDF6A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7B1F957-FD31-43DE-8EFC-269CDC471193}" name="Mes"/>
-    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1997,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAAD69-D526-4C28-B49C-ADB47BD472D4}">
-  <dimension ref="B2:S263"/>
+  <dimension ref="B2:S262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G60" workbookViewId="0">
-      <selection activeCell="O82" sqref="O82"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,15 +2005,15 @@
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="2.44140625" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
     <col min="12" max="12" width="2.77734375" customWidth="1"/>
     <col min="13" max="13" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.44140625" customWidth="1"/>
     <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
     <col min="18" max="18" width="4.44140625" customWidth="1"/>
     <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -2033,15 +2026,15 @@
         <v>71</v>
       </c>
       <c r="H2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M2" t="s">
         <v>476</v>
-      </c>
-      <c r="M2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="S3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -2058,34 +2051,34 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" t="s">
         <v>330</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>331</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>332</v>
       </c>
-      <c r="K4" t="s">
-        <v>333</v>
-      </c>
       <c r="M4" t="s">
+        <v>464</v>
+      </c>
+      <c r="N4" t="s">
         <v>465</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>469</v>
+      </c>
+      <c r="P4" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>471</v>
+      </c>
+      <c r="S4" t="s">
         <v>466</v>
-      </c>
-      <c r="O4" t="s">
-        <v>470</v>
-      </c>
-      <c r="P4" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>472</v>
-      </c>
-      <c r="S4" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
@@ -2093,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -2105,13 +2098,16 @@
         <v>72</v>
       </c>
       <c r="M5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5" t="s">
         <v>334</v>
       </c>
-      <c r="N5" t="s">
-        <v>335</v>
+      <c r="O5" t="s">
+        <v>466</v>
       </c>
       <c r="S5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -2131,13 +2127,13 @@
         <v>73</v>
       </c>
       <c r="M6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
@@ -2156,11 +2152,14 @@
       <c r="I7" t="s">
         <v>74</v>
       </c>
+      <c r="K7" t="s">
+        <v>494</v>
+      </c>
       <c r="M7" t="s">
+        <v>336</v>
+      </c>
+      <c r="N7" t="s">
         <v>337</v>
-      </c>
-      <c r="N7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
@@ -2180,10 +2179,10 @@
         <v>75</v>
       </c>
       <c r="M8" t="s">
+        <v>338</v>
+      </c>
+      <c r="N8" t="s">
         <v>339</v>
-      </c>
-      <c r="N8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
@@ -2203,10 +2202,10 @@
         <v>76</v>
       </c>
       <c r="M9" t="s">
+        <v>340</v>
+      </c>
+      <c r="N9" t="s">
         <v>341</v>
-      </c>
-      <c r="N9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
@@ -2223,13 +2222,13 @@
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M10" t="s">
+        <v>342</v>
+      </c>
+      <c r="N10" t="s">
         <v>343</v>
-      </c>
-      <c r="N10" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
@@ -2249,10 +2248,10 @@
         <v>79</v>
       </c>
       <c r="M11" t="s">
+        <v>344</v>
+      </c>
+      <c r="N11" t="s">
         <v>345</v>
-      </c>
-      <c r="N11" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
@@ -2272,10 +2271,10 @@
         <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
@@ -2292,13 +2291,13 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
@@ -2315,13 +2314,13 @@
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
@@ -2335,15 +2334,15 @@
         <v>83</v>
       </c>
       <c r="M15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -2355,18 +2354,18 @@
         <v>83</v>
       </c>
       <c r="M16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" t="s">
         <v>478</v>
-      </c>
-      <c r="C17" t="s">
-        <v>479</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -2378,15 +2377,15 @@
         <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2401,15 +2400,15 @@
         <v>85</v>
       </c>
       <c r="M18" t="s">
+        <v>351</v>
+      </c>
+      <c r="N18" t="s">
         <v>352</v>
-      </c>
-      <c r="N18" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -2424,15 +2423,15 @@
         <v>86</v>
       </c>
       <c r="M19" t="s">
+        <v>353</v>
+      </c>
+      <c r="N19" t="s">
         <v>354</v>
-      </c>
-      <c r="N19" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -2447,15 +2446,15 @@
         <v>87</v>
       </c>
       <c r="M20" t="s">
+        <v>355</v>
+      </c>
+      <c r="N20" t="s">
         <v>356</v>
-      </c>
-      <c r="N20" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
@@ -2470,15 +2469,15 @@
         <v>88</v>
       </c>
       <c r="M21" t="s">
+        <v>357</v>
+      </c>
+      <c r="N21" t="s">
         <v>358</v>
-      </c>
-      <c r="N21" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -2493,15 +2492,15 @@
         <v>89</v>
       </c>
       <c r="M22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -2516,15 +2515,15 @@
         <v>90</v>
       </c>
       <c r="M23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -2539,15 +2538,15 @@
         <v>91</v>
       </c>
       <c r="M24" t="s">
+        <v>361</v>
+      </c>
+      <c r="N24" t="s">
         <v>362</v>
-      </c>
-      <c r="N24" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -2562,15 +2561,15 @@
         <v>92</v>
       </c>
       <c r="M25" t="s">
+        <v>363</v>
+      </c>
+      <c r="N25" t="s">
         <v>364</v>
-      </c>
-      <c r="N25" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C26" s="2">
         <v>9</v>
@@ -2585,15 +2584,15 @@
         <v>93</v>
       </c>
       <c r="M26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
@@ -2608,15 +2607,15 @@
         <v>94</v>
       </c>
       <c r="M27" t="s">
+        <v>366</v>
+      </c>
+      <c r="N27" t="s">
         <v>367</v>
-      </c>
-      <c r="N27" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
@@ -2624,22 +2623,22 @@
       <c r="E28" t="s">
         <v>36</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I28" t="s">
-        <v>95</v>
+      <c r="I28" s="1" t="s">
+        <v>493</v>
       </c>
       <c r="M28" t="s">
+        <v>368</v>
+      </c>
+      <c r="N28" t="s">
         <v>369</v>
-      </c>
-      <c r="N28" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
@@ -2654,10 +2653,10 @@
         <v>96</v>
       </c>
       <c r="M29" t="s">
+        <v>370</v>
+      </c>
+      <c r="N29" t="s">
         <v>371</v>
-      </c>
-      <c r="N29" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -2671,10 +2670,10 @@
         <v>97</v>
       </c>
       <c r="M30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
@@ -2688,10 +2687,10 @@
         <v>98</v>
       </c>
       <c r="M31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -2705,10 +2704,10 @@
         <v>99</v>
       </c>
       <c r="M32" t="s">
+        <v>374</v>
+      </c>
+      <c r="N32" t="s">
         <v>375</v>
-      </c>
-      <c r="N32" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.3">
@@ -2722,10 +2721,10 @@
         <v>100</v>
       </c>
       <c r="M33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.3">
@@ -2739,10 +2738,10 @@
         <v>102</v>
       </c>
       <c r="M34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N34" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="5:14" x14ac:dyDescent="0.3">
@@ -2756,10 +2755,10 @@
         <v>102</v>
       </c>
       <c r="M35" t="s">
+        <v>378</v>
+      </c>
+      <c r="N35" t="s">
         <v>379</v>
-      </c>
-      <c r="N35" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="36" spans="5:14" x14ac:dyDescent="0.3">
@@ -2773,10 +2772,10 @@
         <v>103</v>
       </c>
       <c r="M36" t="s">
+        <v>380</v>
+      </c>
+      <c r="N36" t="s">
         <v>381</v>
-      </c>
-      <c r="N36" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="37" spans="5:14" x14ac:dyDescent="0.3">
@@ -2790,10 +2789,10 @@
         <v>104</v>
       </c>
       <c r="M37" t="s">
+        <v>382</v>
+      </c>
+      <c r="N37" t="s">
         <v>383</v>
-      </c>
-      <c r="N37" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.3">
@@ -2807,10 +2806,10 @@
         <v>105</v>
       </c>
       <c r="M38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="5:14" x14ac:dyDescent="0.3">
@@ -2824,10 +2823,10 @@
         <v>106</v>
       </c>
       <c r="M39" t="s">
+        <v>385</v>
+      </c>
+      <c r="N39" t="s">
         <v>386</v>
-      </c>
-      <c r="N39" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="40" spans="5:14" x14ac:dyDescent="0.3">
@@ -2841,10 +2840,10 @@
         <v>108</v>
       </c>
       <c r="M40" t="s">
+        <v>387</v>
+      </c>
+      <c r="N40" t="s">
         <v>388</v>
-      </c>
-      <c r="N40" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="41" spans="5:14" x14ac:dyDescent="0.3">
@@ -2858,10 +2857,10 @@
         <v>108</v>
       </c>
       <c r="M41" t="s">
+        <v>389</v>
+      </c>
+      <c r="N41" t="s">
         <v>390</v>
-      </c>
-      <c r="N41" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="42" spans="5:14" x14ac:dyDescent="0.3">
@@ -2875,10 +2874,10 @@
         <v>109</v>
       </c>
       <c r="M42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.3">
@@ -2892,10 +2891,10 @@
         <v>110</v>
       </c>
       <c r="M43" t="s">
+        <v>392</v>
+      </c>
+      <c r="N43" t="s">
         <v>393</v>
-      </c>
-      <c r="N43" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="44" spans="5:14" x14ac:dyDescent="0.3">
@@ -2909,10 +2908,10 @@
         <v>111</v>
       </c>
       <c r="M44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.3">
@@ -2926,10 +2925,10 @@
         <v>112</v>
       </c>
       <c r="M45" t="s">
+        <v>395</v>
+      </c>
+      <c r="N45" t="s">
         <v>396</v>
-      </c>
-      <c r="N45" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="46" spans="5:14" x14ac:dyDescent="0.3">
@@ -2943,10 +2942,10 @@
         <v>113</v>
       </c>
       <c r="M46" t="s">
+        <v>397</v>
+      </c>
+      <c r="N46" t="s">
         <v>398</v>
-      </c>
-      <c r="N46" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="47" spans="5:14" x14ac:dyDescent="0.3">
@@ -2960,10 +2959,10 @@
         <v>114</v>
       </c>
       <c r="M47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="5:14" x14ac:dyDescent="0.3">
@@ -2977,10 +2976,10 @@
         <v>115</v>
       </c>
       <c r="M48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="49" spans="5:14" x14ac:dyDescent="0.3">
@@ -2991,13 +2990,13 @@
         <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s">
+        <v>400</v>
+      </c>
+      <c r="N49" t="s">
         <v>401</v>
-      </c>
-      <c r="N49" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="50" spans="5:14" x14ac:dyDescent="0.3">
@@ -3011,10 +3010,10 @@
         <v>117</v>
       </c>
       <c r="M50" t="s">
+        <v>402</v>
+      </c>
+      <c r="N50" t="s">
         <v>403</v>
-      </c>
-      <c r="N50" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.3">
@@ -3028,10 +3027,10 @@
         <v>118</v>
       </c>
       <c r="M51" t="s">
+        <v>404</v>
+      </c>
+      <c r="N51" t="s">
         <v>405</v>
-      </c>
-      <c r="N51" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="52" spans="5:14" x14ac:dyDescent="0.3">
@@ -3045,10 +3044,10 @@
         <v>119</v>
       </c>
       <c r="M52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="5:14" x14ac:dyDescent="0.3">
@@ -3062,10 +3061,10 @@
         <v>121</v>
       </c>
       <c r="M53" t="s">
+        <v>407</v>
+      </c>
+      <c r="N53" t="s">
         <v>408</v>
-      </c>
-      <c r="N53" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="54" spans="5:14" x14ac:dyDescent="0.3">
@@ -3079,10 +3078,10 @@
         <v>121</v>
       </c>
       <c r="M54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="5:14" x14ac:dyDescent="0.3">
@@ -3096,10 +3095,10 @@
         <v>123</v>
       </c>
       <c r="M55" t="s">
+        <v>409</v>
+      </c>
+      <c r="N55" t="s">
         <v>410</v>
-      </c>
-      <c r="N55" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="56" spans="5:14" x14ac:dyDescent="0.3">
@@ -3113,10 +3112,10 @@
         <v>123</v>
       </c>
       <c r="M56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="5:14" x14ac:dyDescent="0.3">
@@ -3130,10 +3129,10 @@
         <v>124</v>
       </c>
       <c r="M57" t="s">
+        <v>412</v>
+      </c>
+      <c r="N57" t="s">
         <v>413</v>
-      </c>
-      <c r="N57" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="58" spans="5:14" x14ac:dyDescent="0.3">
@@ -3147,10 +3146,10 @@
         <v>125</v>
       </c>
       <c r="M58" t="s">
+        <v>414</v>
+      </c>
+      <c r="N58" t="s">
         <v>415</v>
-      </c>
-      <c r="N58" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="59" spans="5:14" x14ac:dyDescent="0.3">
@@ -3164,10 +3163,10 @@
         <v>126</v>
       </c>
       <c r="M59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="5:14" x14ac:dyDescent="0.3">
@@ -3181,10 +3180,10 @@
         <v>127</v>
       </c>
       <c r="M60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N60" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="5:14" x14ac:dyDescent="0.3">
@@ -3198,10 +3197,10 @@
         <v>128</v>
       </c>
       <c r="M61" t="s">
+        <v>418</v>
+      </c>
+      <c r="N61" t="s">
         <v>419</v>
-      </c>
-      <c r="N61" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="62" spans="5:14" x14ac:dyDescent="0.3">
@@ -3215,10 +3214,10 @@
         <v>129</v>
       </c>
       <c r="M62" t="s">
+        <v>420</v>
+      </c>
+      <c r="N62" t="s">
         <v>421</v>
-      </c>
-      <c r="N62" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="63" spans="5:14" x14ac:dyDescent="0.3">
@@ -3232,10 +3231,10 @@
         <v>130</v>
       </c>
       <c r="M63" t="s">
+        <v>422</v>
+      </c>
+      <c r="N63" t="s">
         <v>423</v>
-      </c>
-      <c r="N63" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="64" spans="5:14" x14ac:dyDescent="0.3">
@@ -3246,10 +3245,10 @@
         <v>131</v>
       </c>
       <c r="M64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="8:14" x14ac:dyDescent="0.3">
@@ -3262,10 +3261,10 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="M65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="8:14" x14ac:dyDescent="0.3">
@@ -3275,11 +3274,11 @@
       <c r="I66" t="s">
         <v>133</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N66" t="s">
         <v>426</v>
-      </c>
-      <c r="N66" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="67" spans="8:14" x14ac:dyDescent="0.3">
@@ -3289,11 +3288,11 @@
       <c r="I67" t="s">
         <v>135</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="N67" t="s">
         <v>428</v>
-      </c>
-      <c r="N67" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="68" spans="8:14" x14ac:dyDescent="0.3">
@@ -3304,10 +3303,10 @@
         <v>135</v>
       </c>
       <c r="M68" t="s">
+        <v>429</v>
+      </c>
+      <c r="N68" t="s">
         <v>430</v>
-      </c>
-      <c r="N68" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="69" spans="8:14" x14ac:dyDescent="0.3">
@@ -3318,10 +3317,10 @@
         <v>136</v>
       </c>
       <c r="M69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N69" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="8:14" x14ac:dyDescent="0.3">
@@ -3332,10 +3331,10 @@
         <v>137</v>
       </c>
       <c r="M70" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="8:14" x14ac:dyDescent="0.3">
@@ -3346,10 +3345,10 @@
         <v>138</v>
       </c>
       <c r="M71" t="s">
+        <v>433</v>
+      </c>
+      <c r="N71" t="s">
         <v>434</v>
-      </c>
-      <c r="N71" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="72" spans="8:14" x14ac:dyDescent="0.3">
@@ -3357,13 +3356,13 @@
         <v>139</v>
       </c>
       <c r="I72" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M72" t="s">
+        <v>435</v>
+      </c>
+      <c r="N72" t="s">
         <v>436</v>
-      </c>
-      <c r="N72" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="73" spans="8:14" x14ac:dyDescent="0.3">
@@ -3371,13 +3370,13 @@
         <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s">
+        <v>437</v>
+      </c>
+      <c r="N73" t="s">
         <v>438</v>
-      </c>
-      <c r="N73" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="74" spans="8:14" x14ac:dyDescent="0.3">
@@ -3388,10 +3387,10 @@
         <v>141</v>
       </c>
       <c r="M74" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="8:14" x14ac:dyDescent="0.3">
@@ -3402,10 +3401,10 @@
         <v>142</v>
       </c>
       <c r="M75" t="s">
+        <v>440</v>
+      </c>
+      <c r="N75" t="s">
         <v>441</v>
-      </c>
-      <c r="N75" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="76" spans="8:14" x14ac:dyDescent="0.3">
@@ -3416,10 +3415,10 @@
         <v>143</v>
       </c>
       <c r="M76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="8:14" x14ac:dyDescent="0.3">
@@ -3430,10 +3429,10 @@
         <v>144</v>
       </c>
       <c r="M77" t="s">
+        <v>443</v>
+      </c>
+      <c r="N77" t="s">
         <v>444</v>
-      </c>
-      <c r="N77" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="78" spans="8:14" x14ac:dyDescent="0.3">
@@ -3444,10 +3443,10 @@
         <v>145</v>
       </c>
       <c r="M78" t="s">
+        <v>445</v>
+      </c>
+      <c r="N78" t="s">
         <v>446</v>
-      </c>
-      <c r="N78" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="79" spans="8:14" x14ac:dyDescent="0.3">
@@ -3458,10 +3457,10 @@
         <v>146</v>
       </c>
       <c r="M79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="8:14" x14ac:dyDescent="0.3">
@@ -3472,10 +3471,10 @@
         <v>147</v>
       </c>
       <c r="M80" t="s">
+        <v>448</v>
+      </c>
+      <c r="N80" t="s">
         <v>449</v>
-      </c>
-      <c r="N80" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="81" spans="8:14" x14ac:dyDescent="0.3">
@@ -3486,10 +3485,10 @@
         <v>148</v>
       </c>
       <c r="M81" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N81" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="8:14" x14ac:dyDescent="0.3">
@@ -3500,10 +3499,10 @@
         <v>149</v>
       </c>
       <c r="M82" t="s">
+        <v>451</v>
+      </c>
+      <c r="N82" t="s">
         <v>452</v>
-      </c>
-      <c r="N82" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="83" spans="8:14" x14ac:dyDescent="0.3">
@@ -3514,10 +3513,10 @@
         <v>150</v>
       </c>
       <c r="M83" t="s">
+        <v>453</v>
+      </c>
+      <c r="N83" t="s">
         <v>454</v>
-      </c>
-      <c r="N83" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="84" spans="8:14" x14ac:dyDescent="0.3">
@@ -3528,10 +3527,10 @@
         <v>151</v>
       </c>
       <c r="M84" t="s">
+        <v>455</v>
+      </c>
+      <c r="N84" t="s">
         <v>456</v>
-      </c>
-      <c r="N84" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="85" spans="8:14" x14ac:dyDescent="0.3">
@@ -3542,10 +3541,10 @@
         <v>152</v>
       </c>
       <c r="M85" t="s">
+        <v>457</v>
+      </c>
+      <c r="N85" t="s">
         <v>458</v>
-      </c>
-      <c r="N85" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="86" spans="8:14" x14ac:dyDescent="0.3">
@@ -3556,10 +3555,10 @@
         <v>153</v>
       </c>
       <c r="M86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="8:14" x14ac:dyDescent="0.3">
@@ -3570,10 +3569,10 @@
         <v>154</v>
       </c>
       <c r="M87" t="s">
+        <v>460</v>
+      </c>
+      <c r="N87" t="s">
         <v>461</v>
-      </c>
-      <c r="N87" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="88" spans="8:14" x14ac:dyDescent="0.3">
@@ -3584,10 +3583,10 @@
         <v>155</v>
       </c>
       <c r="M88" t="s">
+        <v>462</v>
+      </c>
+      <c r="N88" t="s">
         <v>463</v>
-      </c>
-      <c r="N88" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="89" spans="8:14" x14ac:dyDescent="0.3">
@@ -3603,7 +3602,7 @@
         <v>157</v>
       </c>
       <c r="I90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="8:14" x14ac:dyDescent="0.3">
@@ -3669,7 +3668,7 @@
         <v>165</v>
       </c>
       <c r="I98" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="99" spans="8:11" x14ac:dyDescent="0.3">
@@ -3677,7 +3676,7 @@
         <v>166</v>
       </c>
       <c r="I99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="8:11" x14ac:dyDescent="0.3">
@@ -3913,7 +3912,7 @@
         <v>194</v>
       </c>
       <c r="I128" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" spans="8:9" x14ac:dyDescent="0.3">
@@ -4177,7 +4176,7 @@
         <v>227</v>
       </c>
       <c r="I161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="162" spans="8:11" x14ac:dyDescent="0.3">
@@ -4217,7 +4216,7 @@
         <v>232</v>
       </c>
       <c r="I166" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="8:11" x14ac:dyDescent="0.3">
@@ -4690,7 +4689,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="225" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H225" t="s">
         <v>291</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="226" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H226" t="s">
         <v>292</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="227" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H227" t="s">
         <v>293</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="228" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H228" t="s">
         <v>294</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="229" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H229" t="s">
         <v>295</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="230" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H230" t="s">
         <v>296</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="231" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H231" t="s">
         <v>297</v>
       </c>
@@ -4746,17 +4745,15 @@
         <v>297</v>
       </c>
     </row>
-    <row r="232" spans="8:11" x14ac:dyDescent="0.3">
-      <c r="H232" s="1" t="s">
+    <row r="232" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H232" t="s">
         <v>298</v>
       </c>
-      <c r="I232" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J232" s="1"/>
-      <c r="K232" s="1"/>
-    </row>
-    <row r="233" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="I232" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="233" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H233" t="s">
         <v>299</v>
       </c>
@@ -4764,7 +4761,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="234" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H234" t="s">
         <v>300</v>
       </c>
@@ -4772,7 +4769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="235" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H235" t="s">
         <v>301</v>
       </c>
@@ -4780,7 +4777,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="236" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H236" t="s">
         <v>302</v>
       </c>
@@ -4788,7 +4785,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="237" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H237" t="s">
         <v>303</v>
       </c>
@@ -4796,7 +4793,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="238" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H238" t="s">
         <v>304</v>
       </c>
@@ -4804,7 +4801,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="239" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H239" t="s">
         <v>305</v>
       </c>
@@ -4812,7 +4809,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="240" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H240" t="s">
         <v>306</v>
       </c>
@@ -4865,7 +4862,7 @@
         <v>312</v>
       </c>
       <c r="I246" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="8:9" x14ac:dyDescent="0.3">
@@ -4873,7 +4870,7 @@
         <v>313</v>
       </c>
       <c r="I247" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="8:9" x14ac:dyDescent="0.3">
@@ -4889,7 +4886,7 @@
         <v>315</v>
       </c>
       <c r="I249" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="250" spans="8:9" x14ac:dyDescent="0.3">
@@ -4897,7 +4894,7 @@
         <v>316</v>
       </c>
       <c r="I250" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="251" spans="8:9" x14ac:dyDescent="0.3">
@@ -4996,38 +4993,25 @@
         <v>328</v>
       </c>
     </row>
-    <row r="263" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H263" t="s">
-        <v>329</v>
-      </c>
-      <c r="I263" t="s">
-        <v>329</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N88">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="N5:N88 J5:K262">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I10 I49 I72:I73 I90 I128 I161 I166 I232">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="I5:I10 I49 I72:I73 I90 I161 I166">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F63">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Nunca se supo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K263">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6254420-CF5C-4A87-BF0D-60E3847859CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A561B5-8786-48B9-B8DD-BEFD36A8BD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="903">
   <si>
     <t>Tipo Prod BD</t>
   </si>
@@ -1519,6 +1520,1230 @@
   </si>
   <si>
     <t>Europa</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>AIA</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>ARE</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>ATA</t>
+  </si>
+  <si>
+    <t>ATF</t>
+  </si>
+  <si>
+    <t>ATG</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BHR</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BRB</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CCK</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>COK</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CXR</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FLK</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GGY</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GTM</t>
+  </si>
+  <si>
+    <t>GUF</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HMD</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HRV</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IMN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JEY</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>KNA</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MSR</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>MYT</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NFK</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PCN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>REU</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SGS</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
+    <t>SJM</t>
+  </si>
+  <si>
+    <t>SLB</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SLV</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>TKL</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>VCT</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VGB</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>WLF</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Id_ISO</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bolivia, Plurinational State of</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Congo, the Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Macedonia, the former Yugoslav Republic of</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Palestinian Territory, Occupied</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Taiwan, Province of China</t>
+  </si>
+  <si>
+    <t>Tanzania, United Republic of</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Venezuela, Bolivarian Republic of</t>
+  </si>
+  <si>
+    <t>Virgin Islands, British</t>
+  </si>
+  <si>
+    <t>Virgin Islands, U.S.</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Aland Islands</t>
+  </si>
+  <si>
+    <t>ZZZ</t>
+  </si>
+  <si>
+    <t>ISO 3166-1 alfa-3</t>
   </si>
 </sst>
 </file>
@@ -1656,11 +2881,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E41AF41-F8FC-4B26-AF78-273739958C0D}" name="Países" displayName="Países" ref="H4:K262" totalsRowShown="0">
-  <autoFilter ref="H4:K262" xr:uid="{48C490CF-810B-4B9A-A48C-F659E709F7DD}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E41AF41-F8FC-4B26-AF78-273739958C0D}" name="Países" displayName="Países" ref="H4:L262" totalsRowShown="0">
+  <autoFilter ref="H4:L262" xr:uid="{48C490CF-810B-4B9A-A48C-F659E709F7DD}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{18EFC429-FC32-416B-9D85-B3AA4E41A311}" name="País BD"/>
     <tableColumn id="2" xr3:uid="{35A83415-B243-4143-9EC2-916FB2E6AF24}" name="País Homologado"/>
+    <tableColumn id="5" xr3:uid="{5BDDF168-E4F5-4A5C-9C28-E606CACB9557}" name="ISO 3166-1 alfa-3"/>
     <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="Región"/>
     <tableColumn id="4" xr3:uid="{40E74168-2586-427C-9D43-513E9F4063C8}" name="Continente"/>
   </tableColumns>
@@ -1669,8 +2895,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02AB34A1-CEA4-4968-9D6F-FC2A8A234508}" name="Tabla4" displayName="Tabla4" ref="M4:Q88" totalsRowShown="0">
-  <autoFilter ref="M4:Q88" xr:uid="{6D883F0D-205C-4E2A-8E90-917B11B6486C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02AB34A1-CEA4-4968-9D6F-FC2A8A234508}" name="Tabla4" displayName="Tabla4" ref="O4:S88" totalsRowShown="0">
+  <autoFilter ref="O4:S88" xr:uid="{6D883F0D-205C-4E2A-8E90-917B11B6486C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D08BA0D1-81A3-4E80-B5F7-9C7264498A7F}" name="Lugar Salida/Ingreso BD"/>
     <tableColumn id="2" xr3:uid="{D936E8D8-7069-4EA7-8251-9D50743DEA4F}" name="Lugar Salida/Ingreso Homologado"/>
@@ -1990,10 +3216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAAD69-D526-4C28-B49C-ADB47BD472D4}">
-  <dimension ref="B2:S262"/>
+  <dimension ref="B2:U262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2004,21 +3230,23 @@
     <col min="5" max="5" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
-    <col min="13" max="13" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.44140625" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="4.44140625" customWidth="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" customWidth="1"/>
+    <col min="15" max="15" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5546875" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>70</v>
       </c>
@@ -2028,16 +3256,16 @@
       <c r="H2" t="s">
         <v>475</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S3" t="s">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -2057,31 +3285,34 @@
         <v>330</v>
       </c>
       <c r="J4" t="s">
+        <v>902</v>
+      </c>
+      <c r="K4" t="s">
         <v>331</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>332</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>464</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>465</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>469</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>470</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>471</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -2097,20 +3328,23 @@
       <c r="I5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="s">
+      <c r="J5" t="s">
+        <v>496</v>
+      </c>
+      <c r="O5" t="s">
         <v>333</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>334</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>466</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -2126,17 +3360,20 @@
       <c r="I6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="J6" t="s">
+        <v>500</v>
+      </c>
+      <c r="O6" t="s">
         <v>335</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>334</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -2152,17 +3389,20 @@
       <c r="I7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L7" t="s">
         <v>494</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>336</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -2178,14 +3418,17 @@
       <c r="I8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
+      <c r="J8" t="s">
+        <v>501</v>
+      </c>
+      <c r="O8" t="s">
         <v>338</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -2201,14 +3444,17 @@
       <c r="I9" t="s">
         <v>76</v>
       </c>
-      <c r="M9" t="s">
+      <c r="J9" t="s">
+        <v>497</v>
+      </c>
+      <c r="O9" t="s">
         <v>340</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -2222,16 +3468,19 @@
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>354</v>
-      </c>
-      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>498</v>
+      </c>
+      <c r="O10" t="s">
         <v>342</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -2247,14 +3496,17 @@
       <c r="I11" t="s">
         <v>79</v>
       </c>
-      <c r="M11" t="s">
+      <c r="J11" t="s">
+        <v>509</v>
+      </c>
+      <c r="O11" t="s">
         <v>344</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -2270,14 +3522,17 @@
       <c r="I12" t="s">
         <v>79</v>
       </c>
-      <c r="M12" t="s">
+      <c r="J12" t="s">
+        <v>509</v>
+      </c>
+      <c r="O12" t="s">
         <v>346</v>
       </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -2293,14 +3548,17 @@
       <c r="I13" t="s">
         <v>474</v>
       </c>
-      <c r="M13" t="s">
+      <c r="J13" t="s">
+        <v>502</v>
+      </c>
+      <c r="O13" t="s">
         <v>347</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -2316,14 +3574,17 @@
       <c r="I14" t="s">
         <v>474</v>
       </c>
-      <c r="M14" t="s">
+      <c r="J14" t="s">
+        <v>502</v>
+      </c>
+      <c r="O14" t="s">
         <v>339</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>24</v>
       </c>
@@ -2333,14 +3594,17 @@
       <c r="I15" t="s">
         <v>83</v>
       </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>685</v>
+      </c>
+      <c r="O15" t="s">
         <v>348</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>491</v>
       </c>
@@ -2353,14 +3617,17 @@
       <c r="I16" t="s">
         <v>83</v>
       </c>
-      <c r="M16" t="s">
+      <c r="J16" t="s">
+        <v>685</v>
+      </c>
+      <c r="O16" t="s">
         <v>349</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>477</v>
       </c>
@@ -2376,14 +3643,17 @@
       <c r="I17" t="s">
         <v>84</v>
       </c>
-      <c r="M17" t="s">
+      <c r="J17" t="s">
+        <v>558</v>
+      </c>
+      <c r="O17" t="s">
         <v>350</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>479</v>
       </c>
@@ -2399,14 +3669,17 @@
       <c r="I18" t="s">
         <v>85</v>
       </c>
-      <c r="M18" t="s">
+      <c r="J18" t="s">
+        <v>504</v>
+      </c>
+      <c r="O18" t="s">
         <v>351</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>480</v>
       </c>
@@ -2422,14 +3695,17 @@
       <c r="I19" t="s">
         <v>86</v>
       </c>
-      <c r="M19" t="s">
+      <c r="J19" t="s">
+        <v>505</v>
+      </c>
+      <c r="O19" t="s">
         <v>353</v>
       </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>481</v>
       </c>
@@ -2445,14 +3721,17 @@
       <c r="I20" t="s">
         <v>87</v>
       </c>
-      <c r="M20" t="s">
+      <c r="J20" t="s">
+        <v>495</v>
+      </c>
+      <c r="O20" t="s">
         <v>355</v>
       </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>482</v>
       </c>
@@ -2468,14 +3747,17 @@
       <c r="I21" t="s">
         <v>88</v>
       </c>
-      <c r="M21" t="s">
+      <c r="J21" t="s">
+        <v>510</v>
+      </c>
+      <c r="O21" t="s">
         <v>357</v>
       </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>483</v>
       </c>
@@ -2491,14 +3773,17 @@
       <c r="I22" t="s">
         <v>89</v>
       </c>
-      <c r="M22" t="s">
+      <c r="J22" t="s">
+        <v>511</v>
+      </c>
+      <c r="O22" t="s">
         <v>359</v>
       </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>484</v>
       </c>
@@ -2514,14 +3799,17 @@
       <c r="I23" t="s">
         <v>90</v>
       </c>
-      <c r="M23" t="s">
+      <c r="J23" t="s">
+        <v>512</v>
+      </c>
+      <c r="O23" t="s">
         <v>360</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>485</v>
       </c>
@@ -2537,14 +3825,17 @@
       <c r="I24" t="s">
         <v>91</v>
       </c>
-      <c r="M24" t="s">
+      <c r="J24" t="s">
+        <v>520</v>
+      </c>
+      <c r="O24" t="s">
         <v>361</v>
       </c>
-      <c r="N24" t="s">
+      <c r="P24" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>486</v>
       </c>
@@ -2560,14 +3851,17 @@
       <c r="I25" t="s">
         <v>92</v>
       </c>
-      <c r="M25" t="s">
+      <c r="J25" t="s">
+        <v>519</v>
+      </c>
+      <c r="O25" t="s">
         <v>363</v>
       </c>
-      <c r="N25" t="s">
+      <c r="P25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>487</v>
       </c>
@@ -2583,14 +3877,17 @@
       <c r="I26" t="s">
         <v>93</v>
       </c>
-      <c r="M26" t="s">
+      <c r="J26" t="s">
+        <v>517</v>
+      </c>
+      <c r="O26" t="s">
         <v>365</v>
       </c>
-      <c r="N26" t="s">
+      <c r="P26" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>488</v>
       </c>
@@ -2606,14 +3903,17 @@
       <c r="I27" t="s">
         <v>94</v>
       </c>
-      <c r="M27" t="s">
+      <c r="J27" t="s">
+        <v>528</v>
+      </c>
+      <c r="O27" t="s">
         <v>366</v>
       </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>489</v>
       </c>
@@ -2629,14 +3929,17 @@
       <c r="I28" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="M28" t="s">
+      <c r="J28" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="O28" t="s">
         <v>368</v>
       </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>490</v>
       </c>
@@ -2652,14 +3955,17 @@
       <c r="I29" t="s">
         <v>96</v>
       </c>
-      <c r="M29" t="s">
+      <c r="J29" t="s">
+        <v>514</v>
+      </c>
+      <c r="O29" t="s">
         <v>370</v>
       </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>38</v>
       </c>
@@ -2669,14 +3975,17 @@
       <c r="I30" t="s">
         <v>97</v>
       </c>
-      <c r="M30" t="s">
+      <c r="J30" t="s">
+        <v>524</v>
+      </c>
+      <c r="O30" t="s">
         <v>372</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>39</v>
       </c>
@@ -2686,14 +3995,17 @@
       <c r="I31" t="s">
         <v>98</v>
       </c>
-      <c r="M31" t="s">
+      <c r="J31" t="s">
+        <v>515</v>
+      </c>
+      <c r="O31" t="s">
         <v>373</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>40</v>
       </c>
@@ -2703,14 +4015,17 @@
       <c r="I32" t="s">
         <v>99</v>
       </c>
-      <c r="M32" t="s">
+      <c r="J32" t="s">
+        <v>525</v>
+      </c>
+      <c r="O32" t="s">
         <v>374</v>
       </c>
-      <c r="N32" t="s">
+      <c r="P32" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>41</v>
       </c>
@@ -2720,14 +4035,17 @@
       <c r="I33" t="s">
         <v>100</v>
       </c>
-      <c r="M33" t="s">
+      <c r="J33" t="s">
+        <v>526</v>
+      </c>
+      <c r="O33" t="s">
         <v>376</v>
       </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>42</v>
       </c>
@@ -2737,14 +4055,17 @@
       <c r="I34" t="s">
         <v>102</v>
       </c>
-      <c r="M34" t="s">
+      <c r="J34" t="s">
+        <v>521</v>
+      </c>
+      <c r="O34" t="s">
         <v>377</v>
       </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>43</v>
       </c>
@@ -2754,14 +4075,17 @@
       <c r="I35" t="s">
         <v>102</v>
       </c>
-      <c r="M35" t="s">
+      <c r="J35" t="s">
+        <v>521</v>
+      </c>
+      <c r="O35" t="s">
         <v>378</v>
       </c>
-      <c r="N35" t="s">
+      <c r="P35" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>44</v>
       </c>
@@ -2771,14 +4095,17 @@
       <c r="I36" t="s">
         <v>103</v>
       </c>
-      <c r="M36" t="s">
+      <c r="J36" t="s">
+        <v>532</v>
+      </c>
+      <c r="O36" t="s">
         <v>380</v>
       </c>
-      <c r="N36" t="s">
+      <c r="P36" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>45</v>
       </c>
@@ -2788,14 +4115,17 @@
       <c r="I37" t="s">
         <v>104</v>
       </c>
-      <c r="M37" t="s">
+      <c r="J37" t="s">
+        <v>527</v>
+      </c>
+      <c r="O37" t="s">
         <v>382</v>
       </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>46</v>
       </c>
@@ -2805,14 +4135,17 @@
       <c r="I38" t="s">
         <v>105</v>
       </c>
-      <c r="M38" t="s">
+      <c r="J38" t="s">
+        <v>529</v>
+      </c>
+      <c r="O38" t="s">
         <v>384</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>47</v>
       </c>
@@ -2822,14 +4155,17 @@
       <c r="I39" t="s">
         <v>106</v>
       </c>
-      <c r="M39" t="s">
+      <c r="J39" t="s">
+        <v>518</v>
+      </c>
+      <c r="O39" t="s">
         <v>385</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>48</v>
       </c>
@@ -2839,14 +4175,17 @@
       <c r="I40" t="s">
         <v>108</v>
       </c>
-      <c r="M40" t="s">
+      <c r="J40" t="s">
+        <v>516</v>
+      </c>
+      <c r="O40" t="s">
         <v>387</v>
       </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>49</v>
       </c>
@@ -2856,14 +4195,17 @@
       <c r="I41" t="s">
         <v>108</v>
       </c>
-      <c r="M41" t="s">
+      <c r="J41" t="s">
+        <v>516</v>
+      </c>
+      <c r="O41" t="s">
         <v>389</v>
       </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>50</v>
       </c>
@@ -2873,14 +4215,17 @@
       <c r="I42" t="s">
         <v>109</v>
       </c>
-      <c r="M42" t="s">
+      <c r="J42" t="s">
+        <v>546</v>
+      </c>
+      <c r="O42" t="s">
         <v>391</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>51</v>
       </c>
@@ -2890,14 +4235,17 @@
       <c r="I43" t="s">
         <v>110</v>
       </c>
-      <c r="M43" t="s">
+      <c r="J43" t="s">
+        <v>613</v>
+      </c>
+      <c r="O43" t="s">
         <v>392</v>
       </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>52</v>
       </c>
@@ -2907,14 +4255,17 @@
       <c r="I44" t="s">
         <v>111</v>
       </c>
-      <c r="M44" t="s">
+      <c r="J44" t="s">
+        <v>540</v>
+      </c>
+      <c r="O44" t="s">
         <v>394</v>
       </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>53</v>
       </c>
@@ -2924,14 +4275,17 @@
       <c r="I45" t="s">
         <v>112</v>
       </c>
-      <c r="M45" t="s">
+      <c r="J45" t="s">
+        <v>534</v>
+      </c>
+      <c r="O45" t="s">
         <v>395</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>54</v>
       </c>
@@ -2941,14 +4295,17 @@
       <c r="I46" t="s">
         <v>113</v>
       </c>
-      <c r="M46" t="s">
+      <c r="J46" t="s">
+        <v>708</v>
+      </c>
+      <c r="O46" t="s">
         <v>397</v>
       </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>55</v>
       </c>
@@ -2958,14 +4315,17 @@
       <c r="I47" t="s">
         <v>114</v>
       </c>
-      <c r="M47" t="s">
+      <c r="J47" t="s">
+        <v>538</v>
+      </c>
+      <c r="O47" t="s">
         <v>398</v>
       </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>56</v>
       </c>
@@ -2975,14 +4335,17 @@
       <c r="I48" t="s">
         <v>115</v>
       </c>
-      <c r="M48" t="s">
+      <c r="J48" t="s">
+        <v>551</v>
+      </c>
+      <c r="O48" t="s">
         <v>399</v>
       </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="49" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>57</v>
       </c>
@@ -2990,16 +4353,19 @@
         <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>354</v>
-      </c>
-      <c r="M49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s">
+        <v>737</v>
+      </c>
+      <c r="O49" t="s">
         <v>400</v>
       </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="50" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>18</v>
       </c>
@@ -3009,14 +4375,17 @@
       <c r="I50" t="s">
         <v>117</v>
       </c>
-      <c r="M50" t="s">
+      <c r="J50" t="s">
+        <v>544</v>
+      </c>
+      <c r="O50" t="s">
         <v>402</v>
       </c>
-      <c r="N50" t="s">
+      <c r="P50" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -3026,14 +4395,17 @@
       <c r="I51" t="s">
         <v>118</v>
       </c>
-      <c r="M51" t="s">
+      <c r="J51" t="s">
+        <v>545</v>
+      </c>
+      <c r="O51" t="s">
         <v>404</v>
       </c>
-      <c r="N51" t="s">
+      <c r="P51" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>59</v>
       </c>
@@ -3043,14 +4415,17 @@
       <c r="I52" t="s">
         <v>119</v>
       </c>
-      <c r="M52" t="s">
+      <c r="J52" t="s">
+        <v>542</v>
+      </c>
+      <c r="O52" t="s">
         <v>406</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>60</v>
       </c>
@@ -3060,14 +4435,17 @@
       <c r="I53" t="s">
         <v>121</v>
       </c>
-      <c r="M53" t="s">
+      <c r="J53" t="s">
+        <v>616</v>
+      </c>
+      <c r="O53" t="s">
         <v>407</v>
       </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>20</v>
       </c>
@@ -3077,14 +4455,17 @@
       <c r="I54" t="s">
         <v>121</v>
       </c>
-      <c r="M54" t="s">
+      <c r="J54" t="s">
+        <v>616</v>
+      </c>
+      <c r="O54" t="s">
         <v>393</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="55" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>61</v>
       </c>
@@ -3094,14 +4475,17 @@
       <c r="I55" t="s">
         <v>123</v>
       </c>
-      <c r="M55" t="s">
+      <c r="J55" t="s">
+        <v>539</v>
+      </c>
+      <c r="O55" t="s">
         <v>409</v>
       </c>
-      <c r="N55" t="s">
+      <c r="P55" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>62</v>
       </c>
@@ -3111,14 +4495,17 @@
       <c r="I56" t="s">
         <v>123</v>
       </c>
-      <c r="M56" t="s">
+      <c r="J56" t="s">
+        <v>539</v>
+      </c>
+      <c r="O56" t="s">
         <v>411</v>
       </c>
-      <c r="N56" t="s">
+      <c r="P56" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="57" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>63</v>
       </c>
@@ -3128,14 +4515,17 @@
       <c r="I57" t="s">
         <v>124</v>
       </c>
-      <c r="M57" t="s">
+      <c r="J57" t="s">
+        <v>547</v>
+      </c>
+      <c r="O57" t="s">
         <v>412</v>
       </c>
-      <c r="N57" t="s">
+      <c r="P57" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>64</v>
       </c>
@@ -3145,14 +4535,17 @@
       <c r="I58" t="s">
         <v>125</v>
       </c>
-      <c r="M58" t="s">
+      <c r="J58" t="s">
+        <v>593</v>
+      </c>
+      <c r="O58" t="s">
         <v>414</v>
       </c>
-      <c r="N58" t="s">
+      <c r="P58" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>65</v>
       </c>
@@ -3162,14 +4555,17 @@
       <c r="I59" t="s">
         <v>126</v>
       </c>
-      <c r="M59" t="s">
+      <c r="J59" t="s">
+        <v>548</v>
+      </c>
+      <c r="O59" t="s">
         <v>416</v>
       </c>
-      <c r="N59" t="s">
+      <c r="P59" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>66</v>
       </c>
@@ -3179,14 +4575,17 @@
       <c r="I60" t="s">
         <v>127</v>
       </c>
-      <c r="M60" t="s">
+      <c r="J60" t="s">
+        <v>556</v>
+      </c>
+      <c r="O60" t="s">
         <v>417</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>67</v>
       </c>
@@ -3196,14 +4595,17 @@
       <c r="I61" t="s">
         <v>128</v>
       </c>
-      <c r="M61" t="s">
+      <c r="J61" t="s">
+        <v>554</v>
+      </c>
+      <c r="O61" t="s">
         <v>418</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P61" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="62" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>68</v>
       </c>
@@ -3213,14 +4615,17 @@
       <c r="I62" t="s">
         <v>129</v>
       </c>
-      <c r="M62" t="s">
+      <c r="J62" t="s">
+        <v>555</v>
+      </c>
+      <c r="O62" t="s">
         <v>420</v>
       </c>
-      <c r="N62" t="s">
+      <c r="P62" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>69</v>
       </c>
@@ -3230,1782 +4635,2389 @@
       <c r="I63" t="s">
         <v>130</v>
       </c>
-      <c r="M63" t="s">
+      <c r="J63" t="s">
+        <v>559</v>
+      </c>
+      <c r="O63" t="s">
         <v>422</v>
       </c>
-      <c r="N63" t="s">
+      <c r="P63" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="64" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
       <c r="H64" t="s">
         <v>131</v>
       </c>
       <c r="I64" t="s">
         <v>131</v>
       </c>
-      <c r="M64" t="s">
+      <c r="J64" t="s">
+        <v>560</v>
+      </c>
+      <c r="O64" t="s">
         <v>424</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="65" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H65" s="1" t="s">
         <v>132</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="J65" s="1"/>
+      <c r="J65" s="1" t="s">
+        <v>694</v>
+      </c>
       <c r="K65" s="1"/>
-      <c r="M65" t="s">
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="O65" t="s">
         <v>405</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="66" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H66" t="s">
         <v>133</v>
       </c>
       <c r="I66" t="s">
         <v>133</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="J66" t="s">
+        <v>694</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="N66" t="s">
+      <c r="P66" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="67" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H67" t="s">
         <v>134</v>
       </c>
       <c r="I67" t="s">
         <v>135</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="J67" t="s">
+        <v>503</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P67" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="68" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H68" t="s">
         <v>135</v>
       </c>
       <c r="I68" t="s">
         <v>135</v>
       </c>
-      <c r="M68" t="s">
+      <c r="J68" t="s">
+        <v>503</v>
+      </c>
+      <c r="O68" t="s">
         <v>429</v>
       </c>
-      <c r="N68" t="s">
+      <c r="P68" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H69" t="s">
         <v>136</v>
       </c>
       <c r="I69" t="s">
         <v>136</v>
       </c>
-      <c r="M69" t="s">
+      <c r="J69" t="s">
+        <v>561</v>
+      </c>
+      <c r="O69" t="s">
         <v>431</v>
       </c>
-      <c r="N69" t="s">
+      <c r="P69" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="70" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H70" t="s">
         <v>137</v>
       </c>
       <c r="I70" t="s">
         <v>137</v>
       </c>
-      <c r="M70" t="s">
+      <c r="J70" t="s">
+        <v>702</v>
+      </c>
+      <c r="O70" t="s">
         <v>432</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H71" t="s">
         <v>138</v>
       </c>
       <c r="I71" t="s">
         <v>138</v>
       </c>
-      <c r="M71" t="s">
+      <c r="J71" t="s">
+        <v>563</v>
+      </c>
+      <c r="O71" t="s">
         <v>433</v>
       </c>
-      <c r="N71" t="s">
+      <c r="P71" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H72" t="s">
         <v>139</v>
       </c>
       <c r="I72" t="s">
         <v>472</v>
       </c>
-      <c r="M72" t="s">
+      <c r="J72" t="s">
+        <v>472</v>
+      </c>
+      <c r="O72" t="s">
         <v>435</v>
       </c>
-      <c r="N72" t="s">
+      <c r="P72" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="73" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>140</v>
       </c>
       <c r="I73" t="s">
         <v>472</v>
       </c>
-      <c r="M73" t="s">
+      <c r="J73" t="s">
+        <v>472</v>
+      </c>
+      <c r="O73" t="s">
         <v>437</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>141</v>
       </c>
       <c r="I74" t="s">
         <v>141</v>
       </c>
-      <c r="M74" t="s">
+      <c r="J74" t="s">
+        <v>564</v>
+      </c>
+      <c r="O74" t="s">
         <v>439</v>
       </c>
-      <c r="N74" t="s">
+      <c r="P74" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>142</v>
       </c>
       <c r="I75" t="s">
         <v>142</v>
       </c>
-      <c r="M75" t="s">
+      <c r="J75" t="s">
+        <v>565</v>
+      </c>
+      <c r="O75" t="s">
         <v>440</v>
       </c>
-      <c r="N75" t="s">
+      <c r="P75" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="76" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
         <v>143</v>
       </c>
       <c r="I76" t="s">
         <v>143</v>
       </c>
-      <c r="M76" t="s">
+      <c r="J76" t="s">
+        <v>567</v>
+      </c>
+      <c r="O76" t="s">
         <v>442</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="77" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H77" t="s">
         <v>144</v>
       </c>
       <c r="I77" t="s">
         <v>144</v>
       </c>
-      <c r="M77" t="s">
+      <c r="J77" t="s">
+        <v>670</v>
+      </c>
+      <c r="O77" t="s">
         <v>443</v>
       </c>
-      <c r="N77" t="s">
+      <c r="P77" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H78" t="s">
         <v>145</v>
       </c>
       <c r="I78" t="s">
         <v>145</v>
       </c>
-      <c r="M78" t="s">
+      <c r="J78" t="s">
+        <v>566</v>
+      </c>
+      <c r="O78" t="s">
         <v>445</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
         <v>146</v>
       </c>
       <c r="I79" t="s">
         <v>146</v>
       </c>
-      <c r="M79" t="s">
+      <c r="J79" t="s">
+        <v>569</v>
+      </c>
+      <c r="O79" t="s">
         <v>447</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
         <v>147</v>
       </c>
       <c r="I80" t="s">
         <v>147</v>
       </c>
-      <c r="M80" t="s">
+      <c r="J80" t="s">
+        <v>572</v>
+      </c>
+      <c r="O80" t="s">
         <v>448</v>
       </c>
-      <c r="N80" t="s">
+      <c r="P80" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="81" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
         <v>148</v>
       </c>
       <c r="I81" t="s">
         <v>148</v>
       </c>
-      <c r="M81" t="s">
+      <c r="J81" t="s">
+        <v>580</v>
+      </c>
+      <c r="O81" t="s">
         <v>450</v>
       </c>
-      <c r="N81" t="s">
+      <c r="P81" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
         <v>149</v>
       </c>
       <c r="I82" t="s">
         <v>149</v>
       </c>
-      <c r="M82" t="s">
+      <c r="J82" t="s">
+        <v>574</v>
+      </c>
+      <c r="O82" t="s">
         <v>451</v>
       </c>
-      <c r="N82" t="s">
+      <c r="P82" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="83" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H83" t="s">
         <v>150</v>
       </c>
       <c r="I83" t="s">
         <v>150</v>
       </c>
-      <c r="M83" t="s">
+      <c r="J83" t="s">
+        <v>576</v>
+      </c>
+      <c r="O83" t="s">
         <v>453</v>
       </c>
-      <c r="N83" t="s">
+      <c r="P83" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
         <v>151</v>
       </c>
       <c r="I84" t="s">
         <v>151</v>
       </c>
-      <c r="M84" t="s">
+      <c r="J84" t="s">
+        <v>577</v>
+      </c>
+      <c r="O84" t="s">
         <v>455</v>
       </c>
-      <c r="N84" t="s">
+      <c r="P84" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="85" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
         <v>152</v>
       </c>
       <c r="I85" t="s">
         <v>152</v>
       </c>
-      <c r="M85" t="s">
+      <c r="J85" t="s">
+        <v>584</v>
+      </c>
+      <c r="O85" t="s">
         <v>457</v>
       </c>
-      <c r="N85" t="s">
+      <c r="P85" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="86" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H86" t="s">
         <v>153</v>
       </c>
       <c r="I86" t="s">
         <v>153</v>
       </c>
-      <c r="M86" t="s">
+      <c r="J86" t="s">
+        <v>583</v>
+      </c>
+      <c r="O86" t="s">
         <v>459</v>
       </c>
-      <c r="N86" t="s">
+      <c r="P86" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="87" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H87" t="s">
         <v>154</v>
       </c>
       <c r="I87" t="s">
         <v>154</v>
       </c>
-      <c r="M87" t="s">
+      <c r="J87" t="s">
+        <v>585</v>
+      </c>
+      <c r="O87" t="s">
         <v>460</v>
       </c>
-      <c r="N87" t="s">
+      <c r="P87" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="88" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H88" t="s">
         <v>155</v>
       </c>
       <c r="I88" t="s">
         <v>155</v>
       </c>
-      <c r="M88" t="s">
+      <c r="J88" t="s">
+        <v>588</v>
+      </c>
+      <c r="O88" t="s">
         <v>462</v>
       </c>
-      <c r="N88" t="s">
+      <c r="P88" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="89" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H89" t="s">
         <v>156</v>
       </c>
       <c r="I89" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="90" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J89" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H90" t="s">
         <v>157</v>
       </c>
       <c r="I90" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="91" spans="8:14" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="J90" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H91" s="1" t="s">
         <v>158</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J91" s="1"/>
+      <c r="J91" s="1" t="s">
+        <v>581</v>
+      </c>
       <c r="K91" s="1"/>
-    </row>
-    <row r="92" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H92" t="s">
         <v>159</v>
       </c>
       <c r="I92" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="93" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J92" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="93" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H93" t="s">
         <v>160</v>
       </c>
       <c r="I93" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="94" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J93" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H94" t="s">
         <v>161</v>
       </c>
       <c r="I94" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="95" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J94" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="95" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H95" t="s">
         <v>162</v>
       </c>
       <c r="I95" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="96" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="96" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
       <c r="I96" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="97" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H97" t="s">
         <v>164</v>
       </c>
       <c r="I97" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="98" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J97" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H98" t="s">
         <v>165</v>
       </c>
       <c r="I98" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="99" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J98" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H99" t="s">
         <v>166</v>
       </c>
       <c r="I99" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="100" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J99" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="100" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H100" t="s">
         <v>167</v>
       </c>
       <c r="I100" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="101" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J100" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H101" t="s">
         <v>168</v>
       </c>
       <c r="I101" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="102" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J101" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>169</v>
       </c>
       <c r="I102" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="103" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H103" t="s">
         <v>170</v>
       </c>
       <c r="I103" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="104" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H104" t="s">
         <v>33</v>
       </c>
       <c r="I104" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="105" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>171</v>
       </c>
       <c r="I105" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="106" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J105" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H106" s="1" t="s">
         <v>172</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="J106" s="1"/>
+      <c r="J106" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="K106" s="1"/>
-    </row>
-    <row r="107" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H107" t="s">
         <v>173</v>
       </c>
       <c r="I107" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="108" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J107" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="108" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H108" t="s">
         <v>174</v>
       </c>
       <c r="I108" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="109" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J108" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="109" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>175</v>
       </c>
       <c r="I109" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="110" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J109" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="110" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H110" s="1" t="s">
         <v>176</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J110" s="1"/>
+      <c r="J110" s="1" t="s">
+        <v>550</v>
+      </c>
       <c r="K110" s="1"/>
-    </row>
-    <row r="111" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H111" t="s">
         <v>177</v>
       </c>
       <c r="I111" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="112" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J111" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="112" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H112" t="s">
         <v>178</v>
       </c>
       <c r="I112" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J112" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H113" t="s">
         <v>179</v>
       </c>
       <c r="I113" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J113" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H114" t="s">
         <v>180</v>
       </c>
       <c r="I114" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J114" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H115" t="s">
         <v>181</v>
       </c>
       <c r="I115" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J115" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H116" t="s">
         <v>182</v>
       </c>
       <c r="I116" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J116" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H117" t="s">
         <v>183</v>
       </c>
       <c r="I117" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J117" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H118" t="s">
         <v>184</v>
       </c>
       <c r="I118" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J118" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H119" t="s">
         <v>185</v>
       </c>
       <c r="I119" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J119" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H120" t="s">
         <v>186</v>
       </c>
       <c r="I120" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J120" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H121" t="s">
         <v>187</v>
       </c>
       <c r="I121" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J121" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H122" t="s">
         <v>188</v>
       </c>
       <c r="I122" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="123" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H123" t="s">
         <v>189</v>
       </c>
       <c r="I123" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J123" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="124" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H124" t="s">
         <v>190</v>
       </c>
       <c r="I124" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J124" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="125" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H125" t="s">
         <v>191</v>
       </c>
       <c r="I125" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J125" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="126" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H126" t="s">
         <v>192</v>
       </c>
       <c r="I126" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J126" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="127" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H127" t="s">
         <v>193</v>
       </c>
       <c r="I127" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J127" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="128" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H128" t="s">
         <v>194</v>
       </c>
       <c r="I128" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J128" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H129" t="s">
         <v>195</v>
       </c>
       <c r="I129" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J129" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H130" t="s">
         <v>196</v>
       </c>
       <c r="I130" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J130" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H131" t="s">
         <v>197</v>
       </c>
       <c r="I131" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J131" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H132" t="s">
         <v>198</v>
       </c>
       <c r="I132" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J132" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H133" t="s">
         <v>199</v>
       </c>
       <c r="I133" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J133" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H134" t="s">
         <v>200</v>
       </c>
       <c r="I134" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J134" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H135" t="s">
         <v>201</v>
       </c>
       <c r="I135" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J135" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H136" t="s">
         <v>202</v>
       </c>
       <c r="I136" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J136" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H137" t="s">
         <v>203</v>
       </c>
       <c r="I137" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J137" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H138" t="s">
         <v>204</v>
       </c>
       <c r="I138" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J138" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H139" t="s">
         <v>205</v>
       </c>
       <c r="I139" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J139" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H140" t="s">
         <v>206</v>
       </c>
       <c r="I140" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J140" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H141" t="s">
         <v>207</v>
       </c>
       <c r="I141" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J141" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H142" t="s">
         <v>208</v>
       </c>
       <c r="I142" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J142" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H143" t="s">
         <v>209</v>
       </c>
       <c r="I143" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J143" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H144" t="s">
         <v>210</v>
       </c>
       <c r="I144" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J144" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H145" t="s">
         <v>211</v>
       </c>
       <c r="I145" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J145" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H146" t="s">
         <v>212</v>
       </c>
       <c r="I146" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J146" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H147" t="s">
         <v>213</v>
       </c>
       <c r="I147" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J147" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H148" t="s">
         <v>214</v>
       </c>
       <c r="I148" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J148" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H149" t="s">
         <v>215</v>
       </c>
       <c r="I149" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J149" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H150" t="s">
         <v>216</v>
       </c>
       <c r="I150" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J150" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H151" t="s">
         <v>217</v>
       </c>
       <c r="I151" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J151" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H152" t="s">
         <v>218</v>
       </c>
       <c r="I152" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J152" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H153" t="s">
         <v>219</v>
       </c>
       <c r="I153" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J153" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H154" t="s">
         <v>220</v>
       </c>
       <c r="I154" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J154" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H155" t="s">
         <v>221</v>
       </c>
       <c r="I155" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J155" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H156" t="s">
         <v>222</v>
       </c>
       <c r="I156" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J156" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H157" t="s">
         <v>223</v>
       </c>
       <c r="I157" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J157" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H158" t="s">
         <v>224</v>
       </c>
       <c r="I158" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J158" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H159" t="s">
         <v>225</v>
       </c>
       <c r="I159" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J159" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H160" t="s">
         <v>226</v>
       </c>
       <c r="I160" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="161" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J160" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="161" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H161" t="s">
         <v>227</v>
       </c>
       <c r="I161" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="162" spans="8:11" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="J161" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="162" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H162" t="s">
         <v>228</v>
       </c>
       <c r="I162" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="163" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J162" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="163" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H163" t="s">
         <v>229</v>
       </c>
       <c r="I163" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="164" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J163" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="164" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H164" t="s">
         <v>230</v>
       </c>
       <c r="I164" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="165" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J164" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="165" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H165" t="s">
         <v>231</v>
       </c>
       <c r="I165" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="166" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J165" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="166" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H166" t="s">
         <v>232</v>
       </c>
       <c r="I166" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="167" spans="8:11" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="J166" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="167" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H167" t="s">
         <v>233</v>
       </c>
       <c r="I167" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="168" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J167" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="168" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H168" s="1" t="s">
         <v>234</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J168" s="1"/>
+      <c r="J168" s="1" t="s">
+        <v>654</v>
+      </c>
       <c r="K168" s="1"/>
-    </row>
-    <row r="169" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H169" t="s">
         <v>235</v>
       </c>
       <c r="I169" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="170" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J169" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="170" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H170" t="s">
         <v>236</v>
       </c>
       <c r="I170" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="171" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J170" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="171" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H171" t="s">
         <v>237</v>
       </c>
       <c r="I171" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="172" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J171" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="172" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H172" t="s">
         <v>238</v>
       </c>
       <c r="I172" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="173" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J172" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="173" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H173" t="s">
         <v>239</v>
       </c>
       <c r="I173" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="174" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J173" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="174" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H174" t="s">
         <v>240</v>
       </c>
       <c r="I174" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="175" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J174" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="175" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H175" t="s">
         <v>241</v>
       </c>
       <c r="I175" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="176" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J175" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="176" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H176" t="s">
         <v>242</v>
       </c>
       <c r="I176" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="177" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J176" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="177" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H177" t="s">
         <v>243</v>
       </c>
       <c r="I177" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="178" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J177" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="178" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H178" t="s">
         <v>244</v>
       </c>
       <c r="I178" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="179" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J178" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="179" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H179" t="s">
         <v>245</v>
       </c>
       <c r="I179" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="180" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J179" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="180" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H180" t="s">
         <v>246</v>
       </c>
       <c r="I180" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="181" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J180" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="181" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H181" t="s">
         <v>247</v>
       </c>
       <c r="I181" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="182" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J181" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="182" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H182" t="s">
         <v>248</v>
       </c>
       <c r="I182" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="183" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J182" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="183" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H183" t="s">
         <v>249</v>
       </c>
       <c r="I183" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="184" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J183" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="184" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H184" t="s">
         <v>250</v>
       </c>
       <c r="I184" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="185" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J184" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="185" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H185" t="s">
         <v>251</v>
       </c>
       <c r="I185" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="186" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J185" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="186" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H186" t="s">
         <v>252</v>
       </c>
       <c r="I186" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="187" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J186" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="187" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H187" t="s">
         <v>253</v>
       </c>
       <c r="I187" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="188" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J187" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="188" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H188" t="s">
         <v>254</v>
       </c>
       <c r="I188" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="189" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J188" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="189" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H189" t="s">
         <v>255</v>
       </c>
       <c r="I189" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="190" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J189" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="190" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H190" s="1" t="s">
         <v>256</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="J190" s="1"/>
+      <c r="J190" s="1" t="s">
+        <v>533</v>
+      </c>
       <c r="K190" s="1"/>
-    </row>
-    <row r="191" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H191" t="s">
         <v>257</v>
       </c>
       <c r="I191" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="192" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J191" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="192" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H192" t="s">
         <v>258</v>
       </c>
       <c r="I192" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="193" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J192" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="193" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H193" t="s">
         <v>259</v>
       </c>
       <c r="I193" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="194" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J193" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="194" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H194" t="s">
         <v>260</v>
       </c>
       <c r="I194" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="195" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J194" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="195" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H195" t="s">
         <v>261</v>
       </c>
       <c r="I195" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="196" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J195" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="196" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H196" t="s">
         <v>262</v>
       </c>
       <c r="I196" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="197" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J196" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="197" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H197" t="s">
         <v>263</v>
       </c>
       <c r="I197" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="198" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J197" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="198" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H198" t="s">
         <v>264</v>
       </c>
       <c r="I198" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="199" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J198" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="199" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H199" t="s">
         <v>265</v>
       </c>
       <c r="I199" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="200" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J199" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="200" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H200" t="s">
         <v>266</v>
       </c>
       <c r="I200" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="201" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J200" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="201" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H201" t="s">
         <v>267</v>
       </c>
       <c r="I201" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="202" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J201" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="202" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H202" t="s">
         <v>268</v>
       </c>
       <c r="I202" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="203" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J202" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="203" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H203" t="s">
         <v>269</v>
       </c>
       <c r="I203" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="204" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J203" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="204" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H204" s="1" t="s">
         <v>270</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J204" s="1"/>
+      <c r="J204" s="1" t="s">
+        <v>695</v>
+      </c>
       <c r="K204" s="1"/>
-    </row>
-    <row r="205" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+    </row>
+    <row r="205" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H205" t="s">
         <v>271</v>
       </c>
       <c r="I205" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="206" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J205" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="206" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H206" t="s">
         <v>272</v>
       </c>
       <c r="I206" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="207" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J206" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="207" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H207" t="s">
         <v>273</v>
       </c>
       <c r="I207" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="208" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J207" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="8:13" x14ac:dyDescent="0.3">
       <c r="H208" t="s">
         <v>274</v>
       </c>
       <c r="I208" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J208" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H209" t="s">
         <v>275</v>
       </c>
       <c r="I209" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J209" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H210" t="s">
         <v>276</v>
       </c>
       <c r="I210" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J210" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H211" t="s">
         <v>277</v>
       </c>
       <c r="I211" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J211" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H212" t="s">
         <v>278</v>
       </c>
       <c r="I212" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J212" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H213" t="s">
         <v>279</v>
       </c>
       <c r="I213" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J213" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H214" t="s">
         <v>280</v>
       </c>
       <c r="I214" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J214" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H215" t="s">
         <v>281</v>
       </c>
       <c r="I215" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J215" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H216" t="s">
         <v>282</v>
       </c>
       <c r="I216" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J216" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H217" t="s">
         <v>283</v>
       </c>
       <c r="I217" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J217" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H218" t="s">
         <v>284</v>
       </c>
       <c r="I218" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J218" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H219" t="s">
         <v>285</v>
       </c>
       <c r="I219" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J219" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H220" t="s">
         <v>286</v>
       </c>
       <c r="I220" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J220" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H221" t="s">
         <v>287</v>
       </c>
       <c r="I221" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J221" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H222" t="s">
         <v>288</v>
       </c>
       <c r="I222" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J222" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H223" t="s">
         <v>289</v>
       </c>
       <c r="I223" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J223" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H224" t="s">
         <v>290</v>
       </c>
       <c r="I224" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="225" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J224" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="225" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H225" t="s">
         <v>291</v>
       </c>
       <c r="I225" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="226" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J225" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="226" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H226" t="s">
         <v>292</v>
       </c>
       <c r="I226" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="227" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J226" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="227" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H227" t="s">
         <v>293</v>
       </c>
       <c r="I227" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="228" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J227" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="228" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H228" t="s">
         <v>294</v>
       </c>
       <c r="I228" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="229" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J228" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="229" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H229" t="s">
         <v>295</v>
       </c>
       <c r="I229" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="230" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J229" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="230" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H230" t="s">
         <v>296</v>
       </c>
       <c r="I230" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="231" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J230" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="231" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H231" t="s">
         <v>297</v>
       </c>
       <c r="I231" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="232" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J231" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="232" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H232" t="s">
         <v>298</v>
       </c>
       <c r="I232" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="233" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J232" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="233" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H233" t="s">
         <v>299</v>
       </c>
       <c r="I233" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="234" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J233" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="234" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H234" t="s">
         <v>300</v>
       </c>
       <c r="I234" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="235" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J234" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="235" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H235" t="s">
         <v>301</v>
       </c>
       <c r="I235" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="236" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J235" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="236" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H236" t="s">
         <v>302</v>
       </c>
       <c r="I236" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="237" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J236" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="237" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H237" t="s">
         <v>303</v>
       </c>
       <c r="I237" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="238" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J237" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="238" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H238" t="s">
         <v>304</v>
       </c>
       <c r="I238" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="239" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J238" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="239" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H239" t="s">
         <v>305</v>
       </c>
       <c r="I239" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="240" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J239" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="240" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H240" t="s">
         <v>306</v>
       </c>
       <c r="I240" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="241" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J240" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="241" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H241" t="s">
         <v>307</v>
       </c>
       <c r="I241" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="242" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J241" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="242" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H242" t="s">
         <v>308</v>
       </c>
       <c r="I242" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="243" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J242" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="243" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H243" t="s">
         <v>309</v>
       </c>
       <c r="I243" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="244" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J243" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="244" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H244" t="s">
         <v>310</v>
       </c>
       <c r="I244" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="245" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J244" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="245" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H245" t="s">
         <v>311</v>
       </c>
       <c r="I245" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="246" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J245" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="246" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H246" t="s">
         <v>312</v>
       </c>
       <c r="I246" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="247" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J246" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="247" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H247" t="s">
         <v>313</v>
       </c>
       <c r="I247" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="248" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J247" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="248" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H248" t="s">
         <v>314</v>
       </c>
       <c r="I248" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="249" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J248" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="249" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H249" t="s">
         <v>315</v>
       </c>
       <c r="I249" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="250" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J249" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="250" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H250" t="s">
         <v>316</v>
       </c>
       <c r="I250" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="251" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J250" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="251" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H251" t="s">
         <v>317</v>
       </c>
       <c r="I251" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="252" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J251" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="252" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H252" t="s">
         <v>318</v>
       </c>
       <c r="I252" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="253" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J252" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="253" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H253" t="s">
         <v>319</v>
       </c>
       <c r="I253" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="254" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J253" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="254" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H254" t="s">
         <v>320</v>
       </c>
       <c r="I254" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="255" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J254" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="255" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H255" t="s">
         <v>321</v>
       </c>
       <c r="I255" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="256" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J255" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="256" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H256" t="s">
         <v>322</v>
       </c>
       <c r="I256" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="257" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J256" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="257" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H257" t="s">
         <v>323</v>
       </c>
       <c r="I257" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="258" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J257" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="258" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H258" t="s">
         <v>324</v>
       </c>
       <c r="I258" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="259" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J258" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="259" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H259" t="s">
         <v>325</v>
       </c>
       <c r="I259" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="260" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J259" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="260" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H260" t="s">
         <v>326</v>
       </c>
       <c r="I260" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="261" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J260" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="261" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H261" t="s">
         <v>327</v>
       </c>
       <c r="I261" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="262" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="J261" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="262" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H262" t="s">
         <v>328</v>
       </c>
       <c r="I262" t="s">
         <v>328</v>
       </c>
+      <c r="J262" t="s">
+        <v>739</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N5:N88 J5:K262">
+  <conditionalFormatting sqref="P5:P88 K5:M262">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I10 I49 I72:I73 I90 I161 I166">
+  <conditionalFormatting sqref="I5:J9 J49 I72:J73 J90 J161 J166 J10">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
@@ -5024,4 +7036,2001 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E56E02-7EF7-482C-966E-DD3F459F0729}">
+  <dimension ref="C2:D248"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>742</v>
+      </c>
+      <c r="D3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>900</v>
+      </c>
+      <c r="D4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>781</v>
+      </c>
+      <c r="D6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>747</v>
+      </c>
+      <c r="D11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>749</v>
+      </c>
+      <c r="D12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>750</v>
+      </c>
+      <c r="D18" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>752</v>
+      </c>
+      <c r="D24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>756</v>
+      </c>
+      <c r="D25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>757</v>
+      </c>
+      <c r="D27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>761</v>
+      </c>
+      <c r="D28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>758</v>
+      </c>
+      <c r="D29" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>754</v>
+      </c>
+      <c r="D30" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>762</v>
+      </c>
+      <c r="D32" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>759</v>
+      </c>
+      <c r="D33" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>806</v>
+      </c>
+      <c r="D34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>760</v>
+      </c>
+      <c r="D35" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>751</v>
+      </c>
+      <c r="D38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>769</v>
+      </c>
+      <c r="D40" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>764</v>
+      </c>
+      <c r="D41" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>773</v>
+      </c>
+      <c r="D42" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>775</v>
+      </c>
+      <c r="D43" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>763</v>
+      </c>
+      <c r="D44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>767</v>
+      </c>
+      <c r="D46" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>774</v>
+      </c>
+      <c r="D48" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>765</v>
+      </c>
+      <c r="D49" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>772</v>
+      </c>
+      <c r="D51" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>770</v>
+      </c>
+      <c r="D53" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>771</v>
+      </c>
+      <c r="D54" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>768</v>
+      </c>
+      <c r="D56" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>802</v>
+      </c>
+      <c r="D57" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>776</v>
+      </c>
+      <c r="D59" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>777</v>
+      </c>
+      <c r="D60" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>779</v>
+      </c>
+      <c r="D61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>780</v>
+      </c>
+      <c r="D64" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>782</v>
+      </c>
+      <c r="D66" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>795</v>
+      </c>
+      <c r="D68" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>785</v>
+      </c>
+      <c r="D71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>787</v>
+      </c>
+      <c r="D72" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>789</v>
+      </c>
+      <c r="D73" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>786</v>
+      </c>
+      <c r="D75" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>788</v>
+      </c>
+      <c r="D76" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>799</v>
+      </c>
+      <c r="D77" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>855</v>
+      </c>
+      <c r="D78" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>748</v>
+      </c>
+      <c r="D79" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>791</v>
+      </c>
+      <c r="D80" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>778</v>
+      </c>
+      <c r="D83" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>796</v>
+      </c>
+      <c r="D86" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>798</v>
+      </c>
+      <c r="D87" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>797</v>
+      </c>
+      <c r="D88" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>793</v>
+      </c>
+      <c r="D89" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>155</v>
+      </c>
+      <c r="D90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>157</v>
+      </c>
+      <c r="D92" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+      <c r="D93" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>794</v>
+      </c>
+      <c r="D94" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>803</v>
+      </c>
+      <c r="D96" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>801</v>
+      </c>
+      <c r="D97" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>891</v>
+      </c>
+      <c r="D98" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>800</v>
+      </c>
+      <c r="D100" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>804</v>
+      </c>
+      <c r="D101" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>809</v>
+      </c>
+      <c r="D102" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>808</v>
+      </c>
+      <c r="D105" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>807</v>
+      </c>
+      <c r="D107" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>805</v>
+      </c>
+      <c r="D108" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>185</v>
+      </c>
+      <c r="D109" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>810</v>
+      </c>
+      <c r="D110" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>187</v>
+      </c>
+      <c r="D111" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>812</v>
+      </c>
+      <c r="D112" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>811</v>
+      </c>
+      <c r="D114" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>813</v>
+      </c>
+      <c r="D115" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>814</v>
+      </c>
+      <c r="D116" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>194</v>
+      </c>
+      <c r="D117" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>853</v>
+      </c>
+      <c r="D118" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>817</v>
+      </c>
+      <c r="D119" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>815</v>
+      </c>
+      <c r="D121" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>818</v>
+      </c>
+      <c r="D122" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>824</v>
+      </c>
+      <c r="D123" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>819</v>
+      </c>
+      <c r="D124" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>197</v>
+      </c>
+      <c r="D125" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>200</v>
+      </c>
+      <c r="D126" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>820</v>
+      </c>
+      <c r="D127" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>202</v>
+      </c>
+      <c r="D128" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>822</v>
+      </c>
+      <c r="D129" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>823</v>
+      </c>
+      <c r="D130" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>832</v>
+      </c>
+      <c r="D132" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>209</v>
+      </c>
+      <c r="D134" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>837</v>
+      </c>
+      <c r="D135" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>829</v>
+      </c>
+      <c r="D136" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>210</v>
+      </c>
+      <c r="D137" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>211</v>
+      </c>
+      <c r="D138" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>831</v>
+      </c>
+      <c r="D139" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>835</v>
+      </c>
+      <c r="D140" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>215</v>
+      </c>
+      <c r="D141" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>836</v>
+      </c>
+      <c r="D142" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>838</v>
+      </c>
+      <c r="D143" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>830</v>
+      </c>
+      <c r="D144" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>790</v>
+      </c>
+      <c r="D145" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>828</v>
+      </c>
+      <c r="D146" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>827</v>
+      </c>
+      <c r="D147" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>220</v>
+      </c>
+      <c r="D148" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>834</v>
+      </c>
+      <c r="D150" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>826</v>
+      </c>
+      <c r="D151" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>223</v>
+      </c>
+      <c r="D152" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>224</v>
+      </c>
+      <c r="D153" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>226</v>
+      </c>
+      <c r="D154" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>228</v>
+      </c>
+      <c r="D156" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>841</v>
+      </c>
+      <c r="D157" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>744</v>
+      </c>
+      <c r="D158" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>839</v>
+      </c>
+      <c r="D159" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>843</v>
+      </c>
+      <c r="D160" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>229</v>
+      </c>
+      <c r="D161" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>230</v>
+      </c>
+      <c r="D162" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>231</v>
+      </c>
+      <c r="D163" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>232</v>
+      </c>
+      <c r="D164" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>840</v>
+      </c>
+      <c r="D165" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>833</v>
+      </c>
+      <c r="D166" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>842</v>
+      </c>
+      <c r="D167" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>844</v>
+      </c>
+      <c r="D168" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>845</v>
+      </c>
+      <c r="D169" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>850</v>
+      </c>
+      <c r="D170" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>854</v>
+      </c>
+      <c r="D171" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>846</v>
+      </c>
+      <c r="D172" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>851</v>
+      </c>
+      <c r="D173" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>245</v>
+      </c>
+      <c r="D174" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>848</v>
+      </c>
+      <c r="D175" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>849</v>
+      </c>
+      <c r="D176" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>847</v>
+      </c>
+      <c r="D177" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>852</v>
+      </c>
+      <c r="D178" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>250</v>
+      </c>
+      <c r="D179" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>252</v>
+      </c>
+      <c r="D180" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>253</v>
+      </c>
+      <c r="D181" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>856</v>
+      </c>
+      <c r="D182" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>857</v>
+      </c>
+      <c r="D183" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>858</v>
+      </c>
+      <c r="D184" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>265</v>
+      </c>
+      <c r="D185" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>755</v>
+      </c>
+      <c r="D186" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>863</v>
+      </c>
+      <c r="D187" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>816</v>
+      </c>
+      <c r="D188" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>821</v>
+      </c>
+      <c r="D189" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>825</v>
+      </c>
+      <c r="D190" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>867</v>
+      </c>
+      <c r="D191" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>892</v>
+      </c>
+      <c r="D192" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>268</v>
+      </c>
+      <c r="D193" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>271</v>
+      </c>
+      <c r="D194" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>869</v>
+      </c>
+      <c r="D195" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>859</v>
+      </c>
+      <c r="D196" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>278</v>
+      </c>
+      <c r="D197" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>868</v>
+      </c>
+      <c r="D198" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>279</v>
+      </c>
+      <c r="D199" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>866</v>
+      </c>
+      <c r="D200" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>861</v>
+      </c>
+      <c r="D201" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>871</v>
+      </c>
+      <c r="D202" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>872</v>
+      </c>
+      <c r="D203" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>865</v>
+      </c>
+      <c r="D204" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>284</v>
+      </c>
+      <c r="D205" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>899</v>
+      </c>
+      <c r="D206" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>862</v>
+      </c>
+      <c r="D207" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>784</v>
+      </c>
+      <c r="D208" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>286</v>
+      </c>
+      <c r="D209" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>860</v>
+      </c>
+      <c r="D210" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>870</v>
+      </c>
+      <c r="D211" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>864</v>
+      </c>
+      <c r="D212" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>874</v>
+      </c>
+      <c r="D213" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>873</v>
+      </c>
+      <c r="D214" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>766</v>
+      </c>
+      <c r="D215" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>875</v>
+      </c>
+      <c r="D216" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>885</v>
+      </c>
+      <c r="D217" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>878</v>
+      </c>
+      <c r="D218" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>886</v>
+      </c>
+      <c r="D219" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>877</v>
+      </c>
+      <c r="D220" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>880</v>
+      </c>
+      <c r="D221" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>311</v>
+      </c>
+      <c r="D222" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>879</v>
+      </c>
+      <c r="D223" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>881</v>
+      </c>
+      <c r="D224" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>882</v>
+      </c>
+      <c r="D225" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>883</v>
+      </c>
+      <c r="D226" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>884</v>
+      </c>
+      <c r="D227" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>317</v>
+      </c>
+      <c r="D228" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>876</v>
+      </c>
+      <c r="D229" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>319</v>
+      </c>
+      <c r="D230" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>321</v>
+      </c>
+      <c r="D231" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>887</v>
+      </c>
+      <c r="D232" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>745</v>
+      </c>
+      <c r="D233" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>792</v>
+      </c>
+      <c r="D234" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>889</v>
+      </c>
+      <c r="D235" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>888</v>
+      </c>
+      <c r="D236" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>322</v>
+      </c>
+      <c r="D237" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>890</v>
+      </c>
+      <c r="D238" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>324</v>
+      </c>
+      <c r="D239" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>893</v>
+      </c>
+      <c r="D240" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>896</v>
+      </c>
+      <c r="D241" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>894</v>
+      </c>
+      <c r="D242" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>895</v>
+      </c>
+      <c r="D243" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>897</v>
+      </c>
+      <c r="D244" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>783</v>
+      </c>
+      <c r="D245" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>898</v>
+      </c>
+      <c r="D246" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>327</v>
+      </c>
+      <c r="D247" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>328</v>
+      </c>
+      <c r="D248" t="s">
+        <v>739</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D248">
+    <sortCondition ref="C3:C248"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A561B5-8786-48B9-B8DD-BEFD36A8BD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863604A2-BB30-4B9F-9373-E13D71AB2F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="903">
   <si>
     <t>Tipo Prod BD</t>
   </si>
@@ -1030,9 +1030,6 @@
     <t>País Homologado</t>
   </si>
   <si>
-    <t>Región</t>
-  </si>
-  <si>
     <t>Continente</t>
   </si>
   <si>
@@ -2744,6 +2741,9 @@
   </si>
   <si>
     <t>ISO 3166-1 alfa-3</t>
+  </si>
+  <si>
+    <t>name_en</t>
   </si>
 </sst>
 </file>
@@ -2801,7 +2801,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2841,9 +2847,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2887,7 +2890,9 @@
     <tableColumn id="1" xr3:uid="{18EFC429-FC32-416B-9D85-B3AA4E41A311}" name="País BD"/>
     <tableColumn id="2" xr3:uid="{35A83415-B243-4143-9EC2-916FB2E6AF24}" name="País Homologado"/>
     <tableColumn id="5" xr3:uid="{5BDDF168-E4F5-4A5C-9C28-E606CACB9557}" name="ISO 3166-1 alfa-3"/>
-    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="name_en" dataDxfId="0">
+      <calculatedColumnFormula>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{40E74168-2586-427C-9D43-513E9F4063C8}" name="Continente"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2913,7 +2918,7 @@
   <autoFilter ref="B17:C29" xr:uid="{A6A8F6B9-DD1A-4B64-A6A8-A1BAF98BDF6A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7B1F957-FD31-43DE-8EFC-269CDC471193}" name="Mes"/>
-    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3219,7 +3224,7 @@
   <dimension ref="B2:U262"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K5" sqref="K5:K262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3254,15 +3259,15 @@
         <v>71</v>
       </c>
       <c r="H2" t="s">
+        <v>474</v>
+      </c>
+      <c r="O2" t="s">
         <v>475</v>
-      </c>
-      <c r="O2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
@@ -3285,31 +3290,31 @@
         <v>330</v>
       </c>
       <c r="J4" t="s">
+        <v>901</v>
+      </c>
+      <c r="K4" t="s">
         <v>902</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>331</v>
       </c>
-      <c r="L4" t="s">
-        <v>332</v>
-      </c>
       <c r="O4" t="s">
+        <v>463</v>
+      </c>
+      <c r="P4" t="s">
         <v>464</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
+        <v>468</v>
+      </c>
+      <c r="R4" t="s">
+        <v>469</v>
+      </c>
+      <c r="S4" t="s">
+        <v>470</v>
+      </c>
+      <c r="U4" t="s">
         <v>465</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>469</v>
-      </c>
-      <c r="R4" t="s">
-        <v>470</v>
-      </c>
-      <c r="S4" t="s">
-        <v>471</v>
-      </c>
-      <c r="U4" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
@@ -3317,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3329,19 +3334,23 @@
         <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>496</v>
+        <v>495</v>
+      </c>
+      <c r="K5" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Afghanistan</v>
       </c>
       <c r="O5" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" t="s">
         <v>333</v>
       </c>
-      <c r="P5" t="s">
-        <v>334</v>
-      </c>
       <c r="Q5" t="s">
+        <v>465</v>
+      </c>
+      <c r="U5" t="s">
         <v>466</v>
-      </c>
-      <c r="U5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
@@ -3361,16 +3370,20 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>500</v>
+        <v>499</v>
+      </c>
+      <c r="K6" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Albania</v>
       </c>
       <c r="O6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
@@ -3390,16 +3403,20 @@
         <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="K7" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Germany</v>
       </c>
       <c r="L7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P7" t="s">
         <v>336</v>
-      </c>
-      <c r="P7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
@@ -3419,13 +3436,17 @@
         <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>501</v>
+        <v>500</v>
+      </c>
+      <c r="K8" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Andorra</v>
       </c>
       <c r="O8" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" t="s">
         <v>338</v>
-      </c>
-      <c r="P8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
@@ -3445,13 +3466,17 @@
         <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>497</v>
+        <v>496</v>
+      </c>
+      <c r="K9" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Angola</v>
       </c>
       <c r="O9" t="s">
+        <v>339</v>
+      </c>
+      <c r="P9" t="s">
         <v>340</v>
-      </c>
-      <c r="P9" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
@@ -3471,13 +3496,17 @@
         <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>498</v>
+        <v>497</v>
+      </c>
+      <c r="K10" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Anguilla</v>
       </c>
       <c r="O10" t="s">
+        <v>341</v>
+      </c>
+      <c r="P10" t="s">
         <v>342</v>
-      </c>
-      <c r="P10" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
@@ -3497,13 +3526,17 @@
         <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+      <c r="K11" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Antigua and Barbuda</v>
       </c>
       <c r="O11" t="s">
+        <v>343</v>
+      </c>
+      <c r="P11" t="s">
         <v>344</v>
-      </c>
-      <c r="P11" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
@@ -3523,13 +3556,17 @@
         <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>509</v>
+        <v>508</v>
+      </c>
+      <c r="K12" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Antigua and Barbuda</v>
       </c>
       <c r="O12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
@@ -3546,16 +3583,20 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J13" t="s">
-        <v>502</v>
+        <v>501</v>
+      </c>
+      <c r="K13" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Netherlands Antilles</v>
       </c>
       <c r="O13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
@@ -3572,16 +3613,20 @@
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J14" t="s">
-        <v>502</v>
+        <v>501</v>
+      </c>
+      <c r="K14" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Netherlands Antilles</v>
       </c>
       <c r="O14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
@@ -3595,18 +3640,22 @@
         <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="K15" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Saudi Arabia</v>
       </c>
       <c r="O15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -3618,21 +3667,25 @@
         <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>685</v>
+        <v>684</v>
+      </c>
+      <c r="K16" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Saudi Arabia</v>
       </c>
       <c r="O16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" t="s">
         <v>477</v>
-      </c>
-      <c r="C17" t="s">
-        <v>478</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -3644,18 +3697,22 @@
         <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>558</v>
+        <v>557</v>
+      </c>
+      <c r="K17" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Algeria</v>
       </c>
       <c r="O17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -3670,18 +3727,22 @@
         <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>504</v>
+        <v>503</v>
+      </c>
+      <c r="K18" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Argentina</v>
       </c>
       <c r="O18" t="s">
+        <v>350</v>
+      </c>
+      <c r="P18" t="s">
         <v>351</v>
-      </c>
-      <c r="P18" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -3696,18 +3757,22 @@
         <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>505</v>
+        <v>504</v>
+      </c>
+      <c r="K19" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Armenia</v>
       </c>
       <c r="O19" t="s">
+        <v>352</v>
+      </c>
+      <c r="P19" t="s">
         <v>353</v>
-      </c>
-      <c r="P19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -3722,18 +3787,22 @@
         <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>495</v>
+        <v>494</v>
+      </c>
+      <c r="K20" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Aruba</v>
       </c>
       <c r="O20" t="s">
+        <v>354</v>
+      </c>
+      <c r="P20" t="s">
         <v>355</v>
-      </c>
-      <c r="P20" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
@@ -3748,18 +3817,22 @@
         <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>510</v>
+        <v>509</v>
+      </c>
+      <c r="K21" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Australia</v>
       </c>
       <c r="O21" t="s">
+        <v>356</v>
+      </c>
+      <c r="P21" t="s">
         <v>357</v>
-      </c>
-      <c r="P21" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -3774,18 +3847,22 @@
         <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>511</v>
+        <v>510</v>
+      </c>
+      <c r="K22" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Austria</v>
       </c>
       <c r="O22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -3800,18 +3877,22 @@
         <v>90</v>
       </c>
       <c r="J23" t="s">
-        <v>512</v>
+        <v>511</v>
+      </c>
+      <c r="K23" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Azerbaijan</v>
       </c>
       <c r="O23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -3826,18 +3907,22 @@
         <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>520</v>
+        <v>519</v>
+      </c>
+      <c r="K24" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bahamas</v>
       </c>
       <c r="O24" t="s">
+        <v>360</v>
+      </c>
+      <c r="P24" t="s">
         <v>361</v>
-      </c>
-      <c r="P24" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -3852,18 +3937,22 @@
         <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="K25" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bahrain</v>
       </c>
       <c r="O25" t="s">
+        <v>362</v>
+      </c>
+      <c r="P25" t="s">
         <v>363</v>
-      </c>
-      <c r="P25" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C26" s="2">
         <v>9</v>
@@ -3878,18 +3967,22 @@
         <v>93</v>
       </c>
       <c r="J26" t="s">
-        <v>517</v>
+        <v>516</v>
+      </c>
+      <c r="K26" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bangladesh</v>
       </c>
       <c r="O26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
@@ -3904,18 +3997,22 @@
         <v>94</v>
       </c>
       <c r="J27" t="s">
-        <v>528</v>
+        <v>527</v>
+      </c>
+      <c r="K27" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Barbados</v>
       </c>
       <c r="O27" t="s">
+        <v>365</v>
+      </c>
+      <c r="P27" t="s">
         <v>366</v>
-      </c>
-      <c r="P27" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
@@ -3927,21 +4024,25 @@
         <v>95</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
+      </c>
+      <c r="K28" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Belarus</v>
       </c>
       <c r="O28" t="s">
+        <v>367</v>
+      </c>
+      <c r="P28" t="s">
         <v>368</v>
-      </c>
-      <c r="P28" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
@@ -3956,13 +4057,17 @@
         <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>514</v>
+        <v>513</v>
+      </c>
+      <c r="K29" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Belgium</v>
       </c>
       <c r="O29" t="s">
+        <v>369</v>
+      </c>
+      <c r="P29" t="s">
         <v>370</v>
-      </c>
-      <c r="P29" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
@@ -3976,13 +4081,17 @@
         <v>97</v>
       </c>
       <c r="J30" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="K30" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Belize</v>
       </c>
       <c r="O30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
@@ -3996,13 +4105,17 @@
         <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>515</v>
+        <v>514</v>
+      </c>
+      <c r="K31" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Benin</v>
       </c>
       <c r="O31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
@@ -4016,13 +4129,17 @@
         <v>99</v>
       </c>
       <c r="J32" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="K32" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bermuda</v>
       </c>
       <c r="O32" t="s">
+        <v>373</v>
+      </c>
+      <c r="P32" t="s">
         <v>374</v>
-      </c>
-      <c r="P32" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
@@ -4036,13 +4153,17 @@
         <v>100</v>
       </c>
       <c r="J33" t="s">
-        <v>526</v>
+        <v>525</v>
+      </c>
+      <c r="K33" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bolivia, Plurinational State of</v>
       </c>
       <c r="O33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
@@ -4056,13 +4177,17 @@
         <v>102</v>
       </c>
       <c r="J34" t="s">
-        <v>521</v>
+        <v>520</v>
+      </c>
+      <c r="K34" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bosnia and Herzegovina</v>
       </c>
       <c r="O34" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
@@ -4076,13 +4201,17 @@
         <v>102</v>
       </c>
       <c r="J35" t="s">
-        <v>521</v>
+        <v>520</v>
+      </c>
+      <c r="K35" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bosnia and Herzegovina</v>
       </c>
       <c r="O35" t="s">
+        <v>377</v>
+      </c>
+      <c r="P35" t="s">
         <v>378</v>
-      </c>
-      <c r="P35" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
@@ -4096,13 +4225,17 @@
         <v>103</v>
       </c>
       <c r="J36" t="s">
-        <v>532</v>
+        <v>531</v>
+      </c>
+      <c r="K36" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Botswana</v>
       </c>
       <c r="O36" t="s">
+        <v>379</v>
+      </c>
+      <c r="P36" t="s">
         <v>380</v>
-      </c>
-      <c r="P36" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
@@ -4116,13 +4249,17 @@
         <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>527</v>
+        <v>526</v>
+      </c>
+      <c r="K37" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Brazil</v>
       </c>
       <c r="O37" t="s">
+        <v>381</v>
+      </c>
+      <c r="P37" t="s">
         <v>382</v>
-      </c>
-      <c r="P37" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
@@ -4136,13 +4273,17 @@
         <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>529</v>
+        <v>528</v>
+      </c>
+      <c r="K38" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Brunei Darussalam</v>
       </c>
       <c r="O38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
@@ -4156,13 +4297,17 @@
         <v>106</v>
       </c>
       <c r="J39" t="s">
-        <v>518</v>
+        <v>517</v>
+      </c>
+      <c r="K39" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Bulgaria</v>
       </c>
       <c r="O39" t="s">
+        <v>384</v>
+      </c>
+      <c r="P39" t="s">
         <v>385</v>
-      </c>
-      <c r="P39" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
@@ -4176,13 +4321,17 @@
         <v>108</v>
       </c>
       <c r="J40" t="s">
-        <v>516</v>
+        <v>515</v>
+      </c>
+      <c r="K40" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Burkina Faso</v>
       </c>
       <c r="O40" t="s">
+        <v>386</v>
+      </c>
+      <c r="P40" t="s">
         <v>387</v>
-      </c>
-      <c r="P40" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
@@ -4196,13 +4345,17 @@
         <v>108</v>
       </c>
       <c r="J41" t="s">
-        <v>516</v>
+        <v>515</v>
+      </c>
+      <c r="K41" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Burkina Faso</v>
       </c>
       <c r="O41" t="s">
+        <v>388</v>
+      </c>
+      <c r="P41" t="s">
         <v>389</v>
-      </c>
-      <c r="P41" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
@@ -4216,13 +4369,17 @@
         <v>109</v>
       </c>
       <c r="J42" t="s">
-        <v>546</v>
+        <v>545</v>
+      </c>
+      <c r="K42" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cape Verde</v>
       </c>
       <c r="O42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
@@ -4236,13 +4393,17 @@
         <v>110</v>
       </c>
       <c r="J43" t="s">
-        <v>613</v>
+        <v>612</v>
+      </c>
+      <c r="K43" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cambodia</v>
       </c>
       <c r="O43" t="s">
+        <v>391</v>
+      </c>
+      <c r="P43" t="s">
         <v>392</v>
-      </c>
-      <c r="P43" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
@@ -4256,13 +4417,17 @@
         <v>111</v>
       </c>
       <c r="J44" t="s">
-        <v>540</v>
+        <v>539</v>
+      </c>
+      <c r="K44" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cameroon</v>
       </c>
       <c r="O44" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.3">
@@ -4276,13 +4441,17 @@
         <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>534</v>
+        <v>533</v>
+      </c>
+      <c r="K45" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Canada</v>
       </c>
       <c r="O45" t="s">
+        <v>394</v>
+      </c>
+      <c r="P45" t="s">
         <v>395</v>
-      </c>
-      <c r="P45" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.3">
@@ -4296,13 +4465,17 @@
         <v>113</v>
       </c>
       <c r="J46" t="s">
-        <v>708</v>
+        <v>707</v>
+      </c>
+      <c r="K46" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Chad</v>
       </c>
       <c r="O46" t="s">
+        <v>396</v>
+      </c>
+      <c r="P46" t="s">
         <v>397</v>
-      </c>
-      <c r="P46" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.3">
@@ -4316,13 +4489,17 @@
         <v>114</v>
       </c>
       <c r="J47" t="s">
-        <v>538</v>
+        <v>537</v>
+      </c>
+      <c r="K47" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>China</v>
       </c>
       <c r="O47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P47" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.3">
@@ -4336,13 +4513,17 @@
         <v>115</v>
       </c>
       <c r="J48" t="s">
-        <v>551</v>
+        <v>550</v>
+      </c>
+      <c r="K48" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cyprus</v>
       </c>
       <c r="O48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.3">
@@ -4356,13 +4537,17 @@
         <v>287</v>
       </c>
       <c r="J49" t="s">
-        <v>737</v>
+        <v>736</v>
+      </c>
+      <c r="K49" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>South Africa</v>
       </c>
       <c r="O49" t="s">
+        <v>399</v>
+      </c>
+      <c r="P49" t="s">
         <v>400</v>
-      </c>
-      <c r="P49" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.3">
@@ -4376,13 +4561,17 @@
         <v>117</v>
       </c>
       <c r="J50" t="s">
-        <v>544</v>
+        <v>543</v>
+      </c>
+      <c r="K50" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Colombia</v>
       </c>
       <c r="O50" t="s">
+        <v>401</v>
+      </c>
+      <c r="P50" t="s">
         <v>402</v>
-      </c>
-      <c r="P50" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.3">
@@ -4396,13 +4585,17 @@
         <v>118</v>
       </c>
       <c r="J51" t="s">
-        <v>545</v>
+        <v>544</v>
+      </c>
+      <c r="K51" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Comoros</v>
       </c>
       <c r="O51" t="s">
+        <v>403</v>
+      </c>
+      <c r="P51" t="s">
         <v>404</v>
-      </c>
-      <c r="P51" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.3">
@@ -4416,13 +4609,17 @@
         <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>542</v>
+        <v>541</v>
+      </c>
+      <c r="K52" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Congo</v>
       </c>
       <c r="O52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.3">
@@ -4436,13 +4633,17 @@
         <v>121</v>
       </c>
       <c r="J53" t="s">
-        <v>616</v>
+        <v>615</v>
+      </c>
+      <c r="K53" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Korea, Republic of</v>
       </c>
       <c r="O53" t="s">
+        <v>406</v>
+      </c>
+      <c r="P53" t="s">
         <v>407</v>
-      </c>
-      <c r="P53" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="54" spans="5:16" x14ac:dyDescent="0.3">
@@ -4456,13 +4657,17 @@
         <v>121</v>
       </c>
       <c r="J54" t="s">
-        <v>616</v>
+        <v>615</v>
+      </c>
+      <c r="K54" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Korea, Republic of</v>
       </c>
       <c r="O54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="5:16" x14ac:dyDescent="0.3">
@@ -4476,13 +4681,17 @@
         <v>123</v>
       </c>
       <c r="J55" t="s">
-        <v>539</v>
+        <v>538</v>
+      </c>
+      <c r="K55" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Côte d'Ivoire</v>
       </c>
       <c r="O55" t="s">
+        <v>408</v>
+      </c>
+      <c r="P55" t="s">
         <v>409</v>
-      </c>
-      <c r="P55" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="56" spans="5:16" x14ac:dyDescent="0.3">
@@ -4496,13 +4705,17 @@
         <v>123</v>
       </c>
       <c r="J56" t="s">
-        <v>539</v>
+        <v>538</v>
+      </c>
+      <c r="K56" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Côte d'Ivoire</v>
       </c>
       <c r="O56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="5:16" x14ac:dyDescent="0.3">
@@ -4516,13 +4729,17 @@
         <v>124</v>
       </c>
       <c r="J57" t="s">
-        <v>547</v>
+        <v>546</v>
+      </c>
+      <c r="K57" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Costa Rica</v>
       </c>
       <c r="O57" t="s">
+        <v>411</v>
+      </c>
+      <c r="P57" t="s">
         <v>412</v>
-      </c>
-      <c r="P57" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="58" spans="5:16" x14ac:dyDescent="0.3">
@@ -4536,13 +4753,17 @@
         <v>125</v>
       </c>
       <c r="J58" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+      <c r="K58" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Croatia</v>
       </c>
       <c r="O58" t="s">
+        <v>413</v>
+      </c>
+      <c r="P58" t="s">
         <v>414</v>
-      </c>
-      <c r="P58" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="59" spans="5:16" x14ac:dyDescent="0.3">
@@ -4556,13 +4777,17 @@
         <v>126</v>
       </c>
       <c r="J59" t="s">
-        <v>548</v>
+        <v>547</v>
+      </c>
+      <c r="K59" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cuba</v>
       </c>
       <c r="O59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="5:16" x14ac:dyDescent="0.3">
@@ -4576,13 +4801,17 @@
         <v>127</v>
       </c>
       <c r="J60" t="s">
-        <v>556</v>
+        <v>555</v>
+      </c>
+      <c r="K60" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Denmark</v>
       </c>
       <c r="O60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="5:16" x14ac:dyDescent="0.3">
@@ -4596,13 +4825,17 @@
         <v>128</v>
       </c>
       <c r="J61" t="s">
-        <v>554</v>
+        <v>553</v>
+      </c>
+      <c r="K61" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Djibouti</v>
       </c>
       <c r="O61" t="s">
+        <v>417</v>
+      </c>
+      <c r="P61" t="s">
         <v>418</v>
-      </c>
-      <c r="P61" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="62" spans="5:16" x14ac:dyDescent="0.3">
@@ -4616,13 +4849,17 @@
         <v>129</v>
       </c>
       <c r="J62" t="s">
-        <v>555</v>
+        <v>554</v>
+      </c>
+      <c r="K62" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Dominica</v>
       </c>
       <c r="O62" t="s">
+        <v>419</v>
+      </c>
+      <c r="P62" t="s">
         <v>420</v>
-      </c>
-      <c r="P62" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="63" spans="5:16" x14ac:dyDescent="0.3">
@@ -4636,13 +4873,17 @@
         <v>130</v>
       </c>
       <c r="J63" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+      <c r="K63" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Ecuador</v>
       </c>
       <c r="O63" t="s">
+        <v>421</v>
+      </c>
+      <c r="P63" t="s">
         <v>422</v>
-      </c>
-      <c r="P63" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="64" spans="5:16" x14ac:dyDescent="0.3">
@@ -4653,13 +4894,17 @@
         <v>131</v>
       </c>
       <c r="J64" t="s">
-        <v>560</v>
+        <v>559</v>
+      </c>
+      <c r="K64" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Egypt</v>
       </c>
       <c r="O64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="8:16" x14ac:dyDescent="0.3">
@@ -4670,16 +4915,19 @@
         <v>133</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="K65" s="1"/>
+        <v>693</v>
+      </c>
+      <c r="K65" s="1" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>El Salvador</v>
+      </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="O65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="8:16" x14ac:dyDescent="0.3">
@@ -4690,13 +4938,17 @@
         <v>133</v>
       </c>
       <c r="J66" t="s">
-        <v>694</v>
+        <v>693</v>
+      </c>
+      <c r="K66" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>El Salvador</v>
       </c>
       <c r="O66" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P66" t="s">
         <v>425</v>
-      </c>
-      <c r="P66" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="67" spans="8:16" x14ac:dyDescent="0.3">
@@ -4707,13 +4959,17 @@
         <v>135</v>
       </c>
       <c r="J67" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="K67" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United Arab Emirates</v>
       </c>
       <c r="O67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P67" t="s">
         <v>427</v>
-      </c>
-      <c r="P67" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="68" spans="8:16" x14ac:dyDescent="0.3">
@@ -4724,13 +4980,17 @@
         <v>135</v>
       </c>
       <c r="J68" t="s">
-        <v>503</v>
+        <v>502</v>
+      </c>
+      <c r="K68" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United Arab Emirates</v>
       </c>
       <c r="O68" t="s">
+        <v>428</v>
+      </c>
+      <c r="P68" t="s">
         <v>429</v>
-      </c>
-      <c r="P68" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="69" spans="8:16" x14ac:dyDescent="0.3">
@@ -4741,13 +5001,17 @@
         <v>136</v>
       </c>
       <c r="J69" t="s">
-        <v>561</v>
+        <v>560</v>
+      </c>
+      <c r="K69" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Eritrea</v>
       </c>
       <c r="O69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="8:16" x14ac:dyDescent="0.3">
@@ -4758,13 +5022,17 @@
         <v>137</v>
       </c>
       <c r="J70" t="s">
-        <v>702</v>
+        <v>701</v>
+      </c>
+      <c r="K70" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Slovenia</v>
       </c>
       <c r="O70" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="8:16" x14ac:dyDescent="0.3">
@@ -4775,13 +5043,17 @@
         <v>138</v>
       </c>
       <c r="J71" t="s">
-        <v>563</v>
+        <v>562</v>
+      </c>
+      <c r="K71" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Spain</v>
       </c>
       <c r="O71" t="s">
+        <v>432</v>
+      </c>
+      <c r="P71" t="s">
         <v>433</v>
-      </c>
-      <c r="P71" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="72" spans="8:16" x14ac:dyDescent="0.3">
@@ -4789,16 +5061,20 @@
         <v>139</v>
       </c>
       <c r="I72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J72" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="K72" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United States</v>
       </c>
       <c r="O72" t="s">
+        <v>434</v>
+      </c>
+      <c r="P72" t="s">
         <v>435</v>
-      </c>
-      <c r="P72" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="73" spans="8:16" x14ac:dyDescent="0.3">
@@ -4806,16 +5082,20 @@
         <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J73" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="K73" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United States</v>
       </c>
       <c r="O73" t="s">
+        <v>436</v>
+      </c>
+      <c r="P73" t="s">
         <v>437</v>
-      </c>
-      <c r="P73" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="74" spans="8:16" x14ac:dyDescent="0.3">
@@ -4826,13 +5106,17 @@
         <v>141</v>
       </c>
       <c r="J74" t="s">
-        <v>564</v>
+        <v>563</v>
+      </c>
+      <c r="K74" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Estonia</v>
       </c>
       <c r="O74" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="8:16" x14ac:dyDescent="0.3">
@@ -4843,13 +5127,17 @@
         <v>142</v>
       </c>
       <c r="J75" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+      <c r="K75" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Ethiopia</v>
       </c>
       <c r="O75" t="s">
+        <v>439</v>
+      </c>
+      <c r="P75" t="s">
         <v>440</v>
-      </c>
-      <c r="P75" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="76" spans="8:16" x14ac:dyDescent="0.3">
@@ -4860,13 +5148,17 @@
         <v>143</v>
       </c>
       <c r="J76" t="s">
-        <v>567</v>
+        <v>566</v>
+      </c>
+      <c r="K76" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Fiji</v>
       </c>
       <c r="O76" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="8:16" x14ac:dyDescent="0.3">
@@ -4877,13 +5169,17 @@
         <v>144</v>
       </c>
       <c r="J77" t="s">
-        <v>670</v>
+        <v>669</v>
+      </c>
+      <c r="K77" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Philippines</v>
       </c>
       <c r="O77" t="s">
+        <v>442</v>
+      </c>
+      <c r="P77" t="s">
         <v>443</v>
-      </c>
-      <c r="P77" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="78" spans="8:16" x14ac:dyDescent="0.3">
@@ -4894,13 +5190,17 @@
         <v>145</v>
       </c>
       <c r="J78" t="s">
-        <v>566</v>
+        <v>565</v>
+      </c>
+      <c r="K78" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Finland</v>
       </c>
       <c r="O78" t="s">
+        <v>444</v>
+      </c>
+      <c r="P78" t="s">
         <v>445</v>
-      </c>
-      <c r="P78" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="79" spans="8:16" x14ac:dyDescent="0.3">
@@ -4911,13 +5211,17 @@
         <v>146</v>
       </c>
       <c r="J79" t="s">
-        <v>569</v>
+        <v>568</v>
+      </c>
+      <c r="K79" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>France</v>
       </c>
       <c r="O79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="8:16" x14ac:dyDescent="0.3">
@@ -4928,13 +5232,17 @@
         <v>147</v>
       </c>
       <c r="J80" t="s">
-        <v>572</v>
+        <v>571</v>
+      </c>
+      <c r="K80" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Gabon</v>
       </c>
       <c r="O80" t="s">
+        <v>447</v>
+      </c>
+      <c r="P80" t="s">
         <v>448</v>
-      </c>
-      <c r="P80" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="81" spans="8:16" x14ac:dyDescent="0.3">
@@ -4945,13 +5253,17 @@
         <v>148</v>
       </c>
       <c r="J81" t="s">
-        <v>580</v>
+        <v>579</v>
+      </c>
+      <c r="K81" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Gambia</v>
       </c>
       <c r="O81" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P81" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="82" spans="8:16" x14ac:dyDescent="0.3">
@@ -4962,13 +5274,17 @@
         <v>149</v>
       </c>
       <c r="J82" t="s">
-        <v>574</v>
+        <v>573</v>
+      </c>
+      <c r="K82" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Georgia</v>
       </c>
       <c r="O82" t="s">
+        <v>450</v>
+      </c>
+      <c r="P82" t="s">
         <v>451</v>
-      </c>
-      <c r="P82" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="83" spans="8:16" x14ac:dyDescent="0.3">
@@ -4979,13 +5295,17 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+      <c r="K83" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Ghana</v>
       </c>
       <c r="O83" t="s">
+        <v>452</v>
+      </c>
+      <c r="P83" t="s">
         <v>453</v>
-      </c>
-      <c r="P83" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="84" spans="8:16" x14ac:dyDescent="0.3">
@@ -4996,13 +5316,17 @@
         <v>151</v>
       </c>
       <c r="J84" t="s">
-        <v>577</v>
+        <v>576</v>
+      </c>
+      <c r="K84" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Gibraltar</v>
       </c>
       <c r="O84" t="s">
+        <v>454</v>
+      </c>
+      <c r="P84" t="s">
         <v>455</v>
-      </c>
-      <c r="P84" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="85" spans="8:16" x14ac:dyDescent="0.3">
@@ -5013,13 +5337,17 @@
         <v>152</v>
       </c>
       <c r="J85" t="s">
-        <v>584</v>
+        <v>583</v>
+      </c>
+      <c r="K85" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Grenada</v>
       </c>
       <c r="O85" t="s">
+        <v>456</v>
+      </c>
+      <c r="P85" t="s">
         <v>457</v>
-      </c>
-      <c r="P85" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="86" spans="8:16" x14ac:dyDescent="0.3">
@@ -5030,13 +5358,17 @@
         <v>153</v>
       </c>
       <c r="J86" t="s">
-        <v>583</v>
+        <v>582</v>
+      </c>
+      <c r="K86" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Greece</v>
       </c>
       <c r="O86" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87" spans="8:16" x14ac:dyDescent="0.3">
@@ -5047,13 +5379,17 @@
         <v>154</v>
       </c>
       <c r="J87" t="s">
-        <v>585</v>
+        <v>584</v>
+      </c>
+      <c r="K87" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Greenland</v>
       </c>
       <c r="O87" t="s">
+        <v>459</v>
+      </c>
+      <c r="P87" t="s">
         <v>460</v>
-      </c>
-      <c r="P87" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="88" spans="8:16" x14ac:dyDescent="0.3">
@@ -5064,13 +5400,17 @@
         <v>155</v>
       </c>
       <c r="J88" t="s">
-        <v>588</v>
+        <v>587</v>
+      </c>
+      <c r="K88" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Guam</v>
       </c>
       <c r="O88" t="s">
+        <v>461</v>
+      </c>
+      <c r="P88" t="s">
         <v>462</v>
-      </c>
-      <c r="P88" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="89" spans="8:16" x14ac:dyDescent="0.3">
@@ -5081,7 +5421,11 @@
         <v>156</v>
       </c>
       <c r="J89" t="s">
-        <v>586</v>
+        <v>585</v>
+      </c>
+      <c r="K89" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Guatemala</v>
       </c>
     </row>
     <row r="90" spans="8:16" x14ac:dyDescent="0.3">
@@ -5092,7 +5436,11 @@
         <v>157</v>
       </c>
       <c r="J90" t="s">
-        <v>575</v>
+        <v>574</v>
+      </c>
+      <c r="K90" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Guernsey</v>
       </c>
     </row>
     <row r="91" spans="8:16" x14ac:dyDescent="0.3">
@@ -5103,9 +5451,12 @@
         <v>159</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="K91" s="1"/>
+        <v>580</v>
+      </c>
+      <c r="K91" s="1" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Guinea-Bissau</v>
+      </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
@@ -5117,7 +5468,11 @@
         <v>159</v>
       </c>
       <c r="J92" t="s">
-        <v>581</v>
+        <v>580</v>
+      </c>
+      <c r="K92" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Guinea-Bissau</v>
       </c>
     </row>
     <row r="93" spans="8:16" x14ac:dyDescent="0.3">
@@ -5128,7 +5483,11 @@
         <v>160</v>
       </c>
       <c r="J93" t="s">
-        <v>582</v>
+        <v>581</v>
+      </c>
+      <c r="K93" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Equatorial Guinea</v>
       </c>
     </row>
     <row r="94" spans="8:16" x14ac:dyDescent="0.3">
@@ -5139,7 +5498,11 @@
         <v>161</v>
       </c>
       <c r="J94" t="s">
-        <v>589</v>
+        <v>588</v>
+      </c>
+      <c r="K94" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Guyana</v>
       </c>
     </row>
     <row r="95" spans="8:16" x14ac:dyDescent="0.3">
@@ -5150,7 +5513,11 @@
         <v>162</v>
       </c>
       <c r="J95" t="s">
-        <v>594</v>
+        <v>593</v>
+      </c>
+      <c r="K95" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Haiti</v>
       </c>
     </row>
     <row r="96" spans="8:16" x14ac:dyDescent="0.3">
@@ -5161,7 +5528,11 @@
         <v>163</v>
       </c>
       <c r="J96" t="s">
-        <v>660</v>
+        <v>659</v>
+      </c>
+      <c r="K96" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Netherlands</v>
       </c>
     </row>
     <row r="97" spans="8:13" x14ac:dyDescent="0.3">
@@ -5172,7 +5543,11 @@
         <v>164</v>
       </c>
       <c r="J97" t="s">
-        <v>592</v>
+        <v>591</v>
+      </c>
+      <c r="K97" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Honduras</v>
       </c>
     </row>
     <row r="98" spans="8:13" x14ac:dyDescent="0.3">
@@ -5180,10 +5555,14 @@
         <v>165</v>
       </c>
       <c r="I98" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J98" t="s">
-        <v>590</v>
+        <v>589</v>
+      </c>
+      <c r="K98" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Hong Kong</v>
       </c>
     </row>
     <row r="99" spans="8:13" x14ac:dyDescent="0.3">
@@ -5191,10 +5570,14 @@
         <v>166</v>
       </c>
       <c r="I99" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J99" t="s">
-        <v>590</v>
+        <v>589</v>
+      </c>
+      <c r="K99" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Hong Kong</v>
       </c>
     </row>
     <row r="100" spans="8:13" x14ac:dyDescent="0.3">
@@ -5205,7 +5588,11 @@
         <v>167</v>
       </c>
       <c r="J100" t="s">
-        <v>595</v>
+        <v>594</v>
+      </c>
+      <c r="K100" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Hungary</v>
       </c>
     </row>
     <row r="101" spans="8:13" x14ac:dyDescent="0.3">
@@ -5216,7 +5603,11 @@
         <v>168</v>
       </c>
       <c r="J101" t="s">
-        <v>598</v>
+        <v>597</v>
+      </c>
+      <c r="K101" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>India</v>
       </c>
     </row>
     <row r="102" spans="8:13" x14ac:dyDescent="0.3">
@@ -5227,7 +5618,11 @@
         <v>169</v>
       </c>
       <c r="J102" t="s">
-        <v>596</v>
+        <v>595</v>
+      </c>
+      <c r="K102" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Indonesia</v>
       </c>
     </row>
     <row r="103" spans="8:13" x14ac:dyDescent="0.3">
@@ -5238,7 +5633,11 @@
         <v>170</v>
       </c>
       <c r="J103" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="K103" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Iran, Islamic Republic of</v>
       </c>
     </row>
     <row r="104" spans="8:13" x14ac:dyDescent="0.3">
@@ -5249,7 +5648,11 @@
         <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>602</v>
+        <v>601</v>
+      </c>
+      <c r="K104" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Iraq</v>
       </c>
     </row>
     <row r="105" spans="8:13" x14ac:dyDescent="0.3">
@@ -5260,7 +5663,11 @@
         <v>171</v>
       </c>
       <c r="J105" t="s">
-        <v>600</v>
+        <v>599</v>
+      </c>
+      <c r="K105" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Ireland</v>
       </c>
     </row>
     <row r="106" spans="8:13" x14ac:dyDescent="0.3">
@@ -5271,9 +5678,12 @@
         <v>173</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="K106" s="1"/>
+        <v>634</v>
+      </c>
+      <c r="K106" s="1" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Maldives</v>
+      </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
@@ -5285,7 +5695,11 @@
         <v>173</v>
       </c>
       <c r="J107" t="s">
-        <v>635</v>
+        <v>634</v>
+      </c>
+      <c r="K107" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Maldives</v>
       </c>
     </row>
     <row r="108" spans="8:13" x14ac:dyDescent="0.3">
@@ -5296,7 +5710,11 @@
         <v>174</v>
       </c>
       <c r="J108" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="K108" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Tonga</v>
       </c>
     </row>
     <row r="109" spans="8:13" x14ac:dyDescent="0.3">
@@ -5307,7 +5725,11 @@
         <v>175</v>
       </c>
       <c r="J109" t="s">
-        <v>603</v>
+        <v>602</v>
+      </c>
+      <c r="K109" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Iceland</v>
       </c>
     </row>
     <row r="110" spans="8:13" x14ac:dyDescent="0.3">
@@ -5318,9 +5740,12 @@
         <v>178</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="K110" s="1"/>
+        <v>549</v>
+      </c>
+      <c r="K110" s="1" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cayman Islands</v>
+      </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
@@ -5332,7 +5757,11 @@
         <v>178</v>
       </c>
       <c r="J111" t="s">
-        <v>550</v>
+        <v>549</v>
+      </c>
+      <c r="K111" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cayman Islands</v>
       </c>
     </row>
     <row r="112" spans="8:13" x14ac:dyDescent="0.3">
@@ -5343,10 +5772,14 @@
         <v>178</v>
       </c>
       <c r="J112" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="113" spans="8:10" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="K112" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cayman Islands</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H113" t="s">
         <v>179</v>
       </c>
@@ -5354,10 +5787,14 @@
         <v>179</v>
       </c>
       <c r="J113" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="114" spans="8:10" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="K113" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Cocos (Keeling) Islands</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H114" t="s">
         <v>180</v>
       </c>
@@ -5365,10 +5802,14 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="115" spans="8:10" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="K114" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Northern Mariana Islands</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H115" t="s">
         <v>181</v>
       </c>
@@ -5376,10 +5817,14 @@
         <v>181</v>
       </c>
       <c r="J115" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="116" spans="8:10" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+      <c r="K115" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Marshall Islands</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H116" t="s">
         <v>182</v>
       </c>
@@ -5387,10 +5832,14 @@
         <v>182</v>
       </c>
       <c r="J116" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="117" spans="8:10" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+      <c r="K116" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Solomon Islands</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H117" t="s">
         <v>183</v>
       </c>
@@ -5398,10 +5847,14 @@
         <v>183</v>
       </c>
       <c r="J117" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="118" spans="8:10" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+      <c r="K117" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Virgin Islands, U.S.</v>
+      </c>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H118" t="s">
         <v>184</v>
       </c>
@@ -5409,10 +5862,14 @@
         <v>184</v>
       </c>
       <c r="J118" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="119" spans="8:10" x14ac:dyDescent="0.3">
+        <v>729</v>
+      </c>
+      <c r="K118" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Virgin Islands, British</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H119" t="s">
         <v>185</v>
       </c>
@@ -5420,10 +5877,14 @@
         <v>185</v>
       </c>
       <c r="J119" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="120" spans="8:10" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+      <c r="K119" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H120" t="s">
         <v>186</v>
       </c>
@@ -5431,10 +5892,14 @@
         <v>186</v>
       </c>
       <c r="J120" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="121" spans="8:10" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+      <c r="K120" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H121" t="s">
         <v>187</v>
       </c>
@@ -5442,10 +5907,14 @@
         <v>187</v>
       </c>
       <c r="J121" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="122" spans="8:10" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="K121" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H122" t="s">
         <v>188</v>
       </c>
@@ -5453,10 +5922,14 @@
         <v>188</v>
       </c>
       <c r="J122" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="123" spans="8:10" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+      <c r="K122" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H123" t="s">
         <v>189</v>
       </c>
@@ -5464,10 +5937,14 @@
         <v>189</v>
       </c>
       <c r="J123" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="124" spans="8:10" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="K123" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Jersey</v>
+      </c>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H124" t="s">
         <v>190</v>
       </c>
@@ -5475,10 +5952,14 @@
         <v>190</v>
       </c>
       <c r="J124" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="125" spans="8:10" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+      <c r="K124" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H125" t="s">
         <v>191</v>
       </c>
@@ -5486,10 +5967,14 @@
         <v>191</v>
       </c>
       <c r="J125" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="126" spans="8:10" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="K125" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H126" t="s">
         <v>192</v>
       </c>
@@ -5497,10 +5982,14 @@
         <v>192</v>
       </c>
       <c r="J126" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="127" spans="8:10" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+      <c r="K126" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H127" t="s">
         <v>193</v>
       </c>
@@ -5508,10 +5997,14 @@
         <v>193</v>
       </c>
       <c r="J127" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="128" spans="8:10" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+      <c r="K127" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Kyrgyzstan</v>
+      </c>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H128" t="s">
         <v>194</v>
       </c>
@@ -5519,10 +6012,14 @@
         <v>194</v>
       </c>
       <c r="J128" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="129" spans="8:10" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="K128" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Kiribati</v>
+      </c>
+    </row>
+    <row r="129" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H129" t="s">
         <v>195</v>
       </c>
@@ -5530,10 +6027,14 @@
         <v>195</v>
       </c>
       <c r="J129" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="130" spans="8:10" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+      <c r="K129" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="130" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H130" t="s">
         <v>196</v>
       </c>
@@ -5541,10 +6042,14 @@
         <v>196</v>
       </c>
       <c r="J130" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="131" spans="8:10" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+      <c r="K130" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Lao People's Democratic Republic</v>
+      </c>
+    </row>
+    <row r="131" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H131" t="s">
         <v>197</v>
       </c>
@@ -5552,10 +6057,14 @@
         <v>197</v>
       </c>
       <c r="J131" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="132" spans="8:10" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+      <c r="K131" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Lesotho</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H132" t="s">
         <v>198</v>
       </c>
@@ -5563,10 +6072,14 @@
         <v>198</v>
       </c>
       <c r="J132" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="133" spans="8:10" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+      <c r="K132" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="133" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H133" t="s">
         <v>199</v>
       </c>
@@ -5574,10 +6087,14 @@
         <v>199</v>
       </c>
       <c r="J133" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="134" spans="8:10" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+      <c r="K133" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="134" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H134" t="s">
         <v>200</v>
       </c>
@@ -5585,10 +6102,14 @@
         <v>200</v>
       </c>
       <c r="J134" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="135" spans="8:10" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="K134" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="135" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H135" t="s">
         <v>201</v>
       </c>
@@ -5596,10 +6117,14 @@
         <v>201</v>
       </c>
       <c r="J135" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="136" spans="8:10" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+      <c r="K135" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Libyan Arab Jamahiriya</v>
+      </c>
+    </row>
+    <row r="136" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H136" t="s">
         <v>202</v>
       </c>
@@ -5607,10 +6132,14 @@
         <v>202</v>
       </c>
       <c r="J136" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="137" spans="8:10" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="K136" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Liechtenstein</v>
+      </c>
+    </row>
+    <row r="137" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H137" t="s">
         <v>203</v>
       </c>
@@ -5618,10 +6147,14 @@
         <v>203</v>
       </c>
       <c r="J137" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="138" spans="8:10" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+      <c r="K137" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="138" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H138" t="s">
         <v>204</v>
       </c>
@@ -5629,10 +6162,14 @@
         <v>204</v>
       </c>
       <c r="J138" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="139" spans="8:10" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+      <c r="K138" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="139" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H139" t="s">
         <v>205</v>
       </c>
@@ -5640,10 +6177,14 @@
         <v>205</v>
       </c>
       <c r="J139" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="140" spans="8:10" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="K139" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Macao</v>
+      </c>
+    </row>
+    <row r="140" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H140" t="s">
         <v>206</v>
       </c>
@@ -5651,10 +6192,14 @@
         <v>206</v>
       </c>
       <c r="J140" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="141" spans="8:10" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="K140" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Macedonia, the former Yugoslav Republic of</v>
+      </c>
+    </row>
+    <row r="141" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H141" t="s">
         <v>207</v>
       </c>
@@ -5662,10 +6207,14 @@
         <v>207</v>
       </c>
       <c r="J141" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="142" spans="8:10" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+      <c r="K141" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="142" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H142" t="s">
         <v>208</v>
       </c>
@@ -5673,10 +6222,14 @@
         <v>208</v>
       </c>
       <c r="J142" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="143" spans="8:10" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="K142" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="143" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H143" t="s">
         <v>209</v>
       </c>
@@ -5684,10 +6237,14 @@
         <v>209</v>
       </c>
       <c r="J143" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="144" spans="8:10" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+      <c r="K143" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="144" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H144" t="s">
         <v>210</v>
       </c>
@@ -5695,10 +6252,14 @@
         <v>210</v>
       </c>
       <c r="J144" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="145" spans="8:10" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="K144" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Mali</v>
+      </c>
+    </row>
+    <row r="145" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H145" t="s">
         <v>211</v>
       </c>
@@ -5706,10 +6267,14 @@
         <v>211</v>
       </c>
       <c r="J145" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="146" spans="8:10" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+      <c r="K145" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="146" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H146" t="s">
         <v>212</v>
       </c>
@@ -5717,10 +6282,14 @@
         <v>212</v>
       </c>
       <c r="J146" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="147" spans="8:10" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+      <c r="K146" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="147" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H147" t="s">
         <v>213</v>
       </c>
@@ -5728,10 +6297,14 @@
         <v>213</v>
       </c>
       <c r="J147" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="148" spans="8:10" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="K147" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Martinique</v>
+      </c>
+    </row>
+    <row r="148" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H148" t="s">
         <v>214</v>
       </c>
@@ -5739,10 +6312,14 @@
         <v>214</v>
       </c>
       <c r="J148" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="149" spans="8:10" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="K148" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="149" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H149" t="s">
         <v>215</v>
       </c>
@@ -5750,10 +6327,14 @@
         <v>215</v>
       </c>
       <c r="J149" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="150" spans="8:10" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="K149" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Mauritania</v>
+      </c>
+    </row>
+    <row r="150" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H150" t="s">
         <v>216</v>
       </c>
@@ -5761,10 +6342,14 @@
         <v>216</v>
       </c>
       <c r="J150" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="151" spans="8:10" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+      <c r="K150" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="151" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H151" t="s">
         <v>217</v>
       </c>
@@ -5772,10 +6357,14 @@
         <v>217</v>
       </c>
       <c r="J151" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="152" spans="8:10" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="K151" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Micronesia, Federated States of</v>
+      </c>
+    </row>
+    <row r="152" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H152" t="s">
         <v>218</v>
       </c>
@@ -5783,10 +6372,14 @@
         <v>218</v>
       </c>
       <c r="J152" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="153" spans="8:10" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+      <c r="K152" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Moldova, Republic of</v>
+      </c>
+    </row>
+    <row r="153" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H153" t="s">
         <v>219</v>
       </c>
@@ -5794,10 +6387,14 @@
         <v>219</v>
       </c>
       <c r="J153" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="154" spans="8:10" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="K153" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Monaco</v>
+      </c>
+    </row>
+    <row r="154" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H154" t="s">
         <v>220</v>
       </c>
@@ -5805,10 +6402,14 @@
         <v>220</v>
       </c>
       <c r="J154" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="155" spans="8:10" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+      <c r="K154" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="155" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H155" t="s">
         <v>221</v>
       </c>
@@ -5816,10 +6417,14 @@
         <v>221</v>
       </c>
       <c r="J155" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="156" spans="8:10" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="K155" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Montserrat</v>
+      </c>
+    </row>
+    <row r="156" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H156" t="s">
         <v>222</v>
       </c>
@@ -5827,10 +6432,14 @@
         <v>222</v>
       </c>
       <c r="J156" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="157" spans="8:10" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="K156" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="157" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H157" t="s">
         <v>223</v>
       </c>
@@ -5838,10 +6447,14 @@
         <v>223</v>
       </c>
       <c r="J157" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="158" spans="8:10" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+      <c r="K157" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="158" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H158" t="s">
         <v>224</v>
       </c>
@@ -5849,10 +6462,14 @@
         <v>224</v>
       </c>
       <c r="J158" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="159" spans="8:10" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+      <c r="K158" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="159" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H159" t="s">
         <v>225</v>
       </c>
@@ -5860,10 +6477,14 @@
         <v>224</v>
       </c>
       <c r="J159" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="160" spans="8:10" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+      <c r="K159" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="160" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H160" t="s">
         <v>226</v>
       </c>
@@ -5871,7 +6492,11 @@
         <v>226</v>
       </c>
       <c r="J160" t="s">
-        <v>653</v>
+        <v>652</v>
+      </c>
+      <c r="K160" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Namibia</v>
       </c>
     </row>
     <row r="161" spans="8:13" x14ac:dyDescent="0.3">
@@ -5882,7 +6507,11 @@
         <v>227</v>
       </c>
       <c r="J161" t="s">
-        <v>663</v>
+        <v>662</v>
+      </c>
+      <c r="K161" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Nauru</v>
       </c>
     </row>
     <row r="162" spans="8:13" x14ac:dyDescent="0.3">
@@ -5893,7 +6522,11 @@
         <v>228</v>
       </c>
       <c r="J162" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="K162" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Nepal</v>
       </c>
     </row>
     <row r="163" spans="8:13" x14ac:dyDescent="0.3">
@@ -5904,7 +6537,11 @@
         <v>229</v>
       </c>
       <c r="J163" t="s">
-        <v>658</v>
+        <v>657</v>
+      </c>
+      <c r="K163" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Nicaragua</v>
       </c>
     </row>
     <row r="164" spans="8:13" x14ac:dyDescent="0.3">
@@ -5915,7 +6552,11 @@
         <v>230</v>
       </c>
       <c r="J164" t="s">
-        <v>655</v>
+        <v>654</v>
+      </c>
+      <c r="K164" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Niger</v>
       </c>
     </row>
     <row r="165" spans="8:13" x14ac:dyDescent="0.3">
@@ -5926,7 +6567,11 @@
         <v>231</v>
       </c>
       <c r="J165" t="s">
-        <v>657</v>
+        <v>656</v>
+      </c>
+      <c r="K165" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Nigeria</v>
       </c>
     </row>
     <row r="166" spans="8:13" x14ac:dyDescent="0.3">
@@ -5937,7 +6582,11 @@
         <v>232</v>
       </c>
       <c r="J166" t="s">
-        <v>659</v>
+        <v>658</v>
+      </c>
+      <c r="K166" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Niue</v>
       </c>
     </row>
     <row r="167" spans="8:13" x14ac:dyDescent="0.3">
@@ -5948,7 +6597,11 @@
         <v>233</v>
       </c>
       <c r="J167" t="s">
-        <v>661</v>
+        <v>660</v>
+      </c>
+      <c r="K167" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Norway</v>
       </c>
     </row>
     <row r="168" spans="8:13" x14ac:dyDescent="0.3">
@@ -5959,9 +6612,12 @@
         <v>235</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="K168" s="1"/>
+        <v>653</v>
+      </c>
+      <c r="K168" s="1" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>New Caledonia</v>
+      </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
@@ -5973,7 +6629,11 @@
         <v>235</v>
       </c>
       <c r="J169" t="s">
-        <v>654</v>
+        <v>653</v>
+      </c>
+      <c r="K169" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>New Caledonia</v>
       </c>
     </row>
     <row r="170" spans="8:13" x14ac:dyDescent="0.3">
@@ -5984,7 +6644,11 @@
         <v>236</v>
       </c>
       <c r="J170" t="s">
-        <v>664</v>
+        <v>663</v>
+      </c>
+      <c r="K170" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>New Zealand</v>
       </c>
     </row>
     <row r="171" spans="8:13" x14ac:dyDescent="0.3">
@@ -5995,7 +6659,11 @@
         <v>237</v>
       </c>
       <c r="J171" t="s">
-        <v>665</v>
+        <v>664</v>
+      </c>
+      <c r="K171" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Oman</v>
       </c>
     </row>
     <row r="172" spans="8:13" x14ac:dyDescent="0.3">
@@ -6006,7 +6674,11 @@
         <v>239</v>
       </c>
       <c r="J172" t="s">
-        <v>901</v>
+        <v>900</v>
+      </c>
+      <c r="K172" t="e">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="8:13" x14ac:dyDescent="0.3">
@@ -6017,7 +6689,11 @@
         <v>239</v>
       </c>
       <c r="J173" t="s">
-        <v>901</v>
+        <v>900</v>
+      </c>
+      <c r="K173" t="e">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="174" spans="8:13" x14ac:dyDescent="0.3">
@@ -6028,7 +6704,11 @@
         <v>240</v>
       </c>
       <c r="J174" t="s">
-        <v>666</v>
+        <v>665</v>
+      </c>
+      <c r="K174" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Pakistan</v>
       </c>
     </row>
     <row r="175" spans="8:13" x14ac:dyDescent="0.3">
@@ -6039,7 +6719,11 @@
         <v>241</v>
       </c>
       <c r="J175" t="s">
-        <v>678</v>
+        <v>677</v>
+      </c>
+      <c r="K175" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Palestinian Territory, Occupied</v>
       </c>
     </row>
     <row r="176" spans="8:13" x14ac:dyDescent="0.3">
@@ -6050,7 +6734,11 @@
         <v>242</v>
       </c>
       <c r="J176" t="s">
-        <v>667</v>
+        <v>666</v>
+      </c>
+      <c r="K176" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Panama</v>
       </c>
     </row>
     <row r="177" spans="8:13" x14ac:dyDescent="0.3">
@@ -6061,7 +6749,11 @@
         <v>244</v>
       </c>
       <c r="J177" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="K177" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Papua New Guinea</v>
       </c>
     </row>
     <row r="178" spans="8:13" x14ac:dyDescent="0.3">
@@ -6072,7 +6764,11 @@
         <v>244</v>
       </c>
       <c r="J178" t="s">
-        <v>672</v>
+        <v>671</v>
+      </c>
+      <c r="K178" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Papua New Guinea</v>
       </c>
     </row>
     <row r="179" spans="8:13" x14ac:dyDescent="0.3">
@@ -6083,7 +6779,11 @@
         <v>245</v>
       </c>
       <c r="J179" t="s">
-        <v>677</v>
+        <v>676</v>
+      </c>
+      <c r="K179" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Paraguay</v>
       </c>
     </row>
     <row r="180" spans="8:13" x14ac:dyDescent="0.3">
@@ -6094,7 +6794,11 @@
         <v>246</v>
       </c>
       <c r="J180" t="s">
-        <v>669</v>
+        <v>668</v>
+      </c>
+      <c r="K180" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Peru</v>
       </c>
     </row>
     <row r="181" spans="8:13" x14ac:dyDescent="0.3">
@@ -6105,7 +6809,11 @@
         <v>248</v>
       </c>
       <c r="J181" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+      <c r="K181" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>French Southern Territories</v>
       </c>
     </row>
     <row r="182" spans="8:13" x14ac:dyDescent="0.3">
@@ -6116,7 +6824,11 @@
         <v>248</v>
       </c>
       <c r="J182" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+      <c r="K182" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>French Southern Territories</v>
       </c>
     </row>
     <row r="183" spans="8:13" x14ac:dyDescent="0.3">
@@ -6127,7 +6839,11 @@
         <v>249</v>
       </c>
       <c r="J183" t="s">
-        <v>673</v>
+        <v>672</v>
+      </c>
+      <c r="K183" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Poland</v>
       </c>
     </row>
     <row r="184" spans="8:13" x14ac:dyDescent="0.3">
@@ -6138,7 +6854,11 @@
         <v>250</v>
       </c>
       <c r="J184" t="s">
-        <v>676</v>
+        <v>675</v>
+      </c>
+      <c r="K184" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Portugal</v>
       </c>
     </row>
     <row r="185" spans="8:13" x14ac:dyDescent="0.3">
@@ -6149,7 +6869,11 @@
         <v>252</v>
       </c>
       <c r="J185" t="s">
-        <v>674</v>
+        <v>673</v>
+      </c>
+      <c r="K185" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Puerto Rico</v>
       </c>
     </row>
     <row r="186" spans="8:13" x14ac:dyDescent="0.3">
@@ -6160,7 +6884,11 @@
         <v>252</v>
       </c>
       <c r="J186" t="s">
-        <v>674</v>
+        <v>673</v>
+      </c>
+      <c r="K186" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Puerto Rico</v>
       </c>
     </row>
     <row r="187" spans="8:13" x14ac:dyDescent="0.3">
@@ -6171,7 +6899,11 @@
         <v>253</v>
       </c>
       <c r="J187" t="s">
-        <v>680</v>
+        <v>679</v>
+      </c>
+      <c r="K187" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Qatar</v>
       </c>
     </row>
     <row r="188" spans="8:13" x14ac:dyDescent="0.3">
@@ -6182,7 +6914,11 @@
         <v>255</v>
       </c>
       <c r="J188" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+      <c r="K188" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United Kingdom</v>
       </c>
     </row>
     <row r="189" spans="8:13" x14ac:dyDescent="0.3">
@@ -6193,7 +6929,11 @@
         <v>255</v>
       </c>
       <c r="J189" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+      <c r="K189" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United Kingdom</v>
       </c>
     </row>
     <row r="190" spans="8:13" x14ac:dyDescent="0.3">
@@ -6204,9 +6944,12 @@
         <v>257</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="K190" s="1"/>
+        <v>532</v>
+      </c>
+      <c r="K190" s="1" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Central African Republic</v>
+      </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
     </row>
@@ -6218,7 +6961,11 @@
         <v>257</v>
       </c>
       <c r="J191" t="s">
-        <v>533</v>
+        <v>532</v>
+      </c>
+      <c r="K191" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Central African Republic</v>
       </c>
     </row>
     <row r="192" spans="8:13" x14ac:dyDescent="0.3">
@@ -6229,7 +6976,11 @@
         <v>258</v>
       </c>
       <c r="J192" t="s">
-        <v>552</v>
+        <v>551</v>
+      </c>
+      <c r="K192" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Czech Republic</v>
       </c>
     </row>
     <row r="193" spans="8:13" x14ac:dyDescent="0.3">
@@ -6240,7 +6991,11 @@
         <v>259</v>
       </c>
       <c r="J193" t="s">
-        <v>698</v>
+        <v>697</v>
+      </c>
+      <c r="K193" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Serbia</v>
       </c>
     </row>
     <row r="194" spans="8:13" x14ac:dyDescent="0.3">
@@ -6251,7 +7006,11 @@
         <v>260</v>
       </c>
       <c r="J194" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+      <c r="K194" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Congo, the Democratic Republic of the</v>
       </c>
     </row>
     <row r="195" spans="8:13" x14ac:dyDescent="0.3">
@@ -6262,7 +7021,11 @@
         <v>261</v>
       </c>
       <c r="J195" t="s">
-        <v>557</v>
+        <v>556</v>
+      </c>
+      <c r="K195" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Dominican Republic</v>
       </c>
     </row>
     <row r="196" spans="8:13" x14ac:dyDescent="0.3">
@@ -6273,7 +7036,11 @@
         <v>262</v>
       </c>
       <c r="J196" t="s">
-        <v>701</v>
+        <v>700</v>
+      </c>
+      <c r="K196" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Slovakia</v>
       </c>
     </row>
     <row r="197" spans="8:13" x14ac:dyDescent="0.3">
@@ -6284,7 +7051,11 @@
         <v>263</v>
       </c>
       <c r="J197" t="s">
-        <v>682</v>
+        <v>681</v>
+      </c>
+      <c r="K197" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Romania</v>
       </c>
     </row>
     <row r="198" spans="8:13" x14ac:dyDescent="0.3">
@@ -6295,7 +7066,11 @@
         <v>264</v>
       </c>
       <c r="J198" t="s">
-        <v>683</v>
+        <v>682</v>
+      </c>
+      <c r="K198" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Russian Federation</v>
       </c>
     </row>
     <row r="199" spans="8:13" x14ac:dyDescent="0.3">
@@ -6306,7 +7081,11 @@
         <v>265</v>
       </c>
       <c r="J199" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="K199" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Rwanda</v>
       </c>
     </row>
     <row r="200" spans="8:13" x14ac:dyDescent="0.3">
@@ -6317,7 +7096,11 @@
         <v>267</v>
       </c>
       <c r="J200" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="K200" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Saint Kitts and Nevis</v>
       </c>
     </row>
     <row r="201" spans="8:13" x14ac:dyDescent="0.3">
@@ -6328,7 +7111,11 @@
         <v>267</v>
       </c>
       <c r="J201" t="s">
-        <v>615</v>
+        <v>614</v>
+      </c>
+      <c r="K201" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Saint Kitts and Nevis</v>
       </c>
     </row>
     <row r="202" spans="8:13" x14ac:dyDescent="0.3">
@@ -6339,7 +7126,11 @@
         <v>269</v>
       </c>
       <c r="J202" t="s">
-        <v>735</v>
+        <v>734</v>
+      </c>
+      <c r="K202" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Samoa</v>
       </c>
     </row>
     <row r="203" spans="8:13" x14ac:dyDescent="0.3">
@@ -6350,7 +7141,11 @@
         <v>269</v>
       </c>
       <c r="J203" t="s">
-        <v>735</v>
+        <v>734</v>
+      </c>
+      <c r="K203" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Samoa</v>
       </c>
     </row>
     <row r="204" spans="8:13" x14ac:dyDescent="0.3">
@@ -6361,9 +7156,12 @@
         <v>271</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="K204" s="1"/>
+        <v>694</v>
+      </c>
+      <c r="K204" s="1" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>San Marino</v>
+      </c>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
     </row>
@@ -6375,7 +7173,11 @@
         <v>271</v>
       </c>
       <c r="J205" t="s">
-        <v>695</v>
+        <v>694</v>
+      </c>
+      <c r="K205" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>San Marino</v>
       </c>
     </row>
     <row r="206" spans="8:13" x14ac:dyDescent="0.3">
@@ -6386,7 +7188,11 @@
         <v>272</v>
       </c>
       <c r="J206" t="s">
-        <v>728</v>
+        <v>727</v>
+      </c>
+      <c r="K206" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
     <row r="207" spans="8:13" x14ac:dyDescent="0.3">
@@ -6397,7 +7203,11 @@
         <v>274</v>
       </c>
       <c r="J207" t="s">
-        <v>622</v>
+        <v>621</v>
+      </c>
+      <c r="K207" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Saint Lucia</v>
       </c>
     </row>
     <row r="208" spans="8:13" x14ac:dyDescent="0.3">
@@ -6408,10 +7218,14 @@
         <v>274</v>
       </c>
       <c r="J208" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="209" spans="8:10" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+      <c r="K208" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Saint Lucia</v>
+      </c>
+    </row>
+    <row r="209" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H209" t="s">
         <v>275</v>
       </c>
@@ -6419,10 +7233,14 @@
         <v>275</v>
       </c>
       <c r="J209" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="210" spans="8:10" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+      <c r="K209" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Holy See (Vatican City State)</v>
+      </c>
+    </row>
+    <row r="210" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H210" t="s">
         <v>276</v>
       </c>
@@ -6430,10 +7248,14 @@
         <v>277</v>
       </c>
       <c r="J210" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="211" spans="8:10" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+      <c r="K210" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sao Tome and Principe</v>
+      </c>
+    </row>
+    <row r="211" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H211" t="s">
         <v>277</v>
       </c>
@@ -6441,10 +7263,14 @@
         <v>277</v>
       </c>
       <c r="J211" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="212" spans="8:10" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+      <c r="K211" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sao Tome and Principe</v>
+      </c>
+    </row>
+    <row r="212" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H212" t="s">
         <v>278</v>
       </c>
@@ -6452,10 +7278,14 @@
         <v>278</v>
       </c>
       <c r="J212" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="213" spans="8:10" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="K212" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="213" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H213" t="s">
         <v>279</v>
       </c>
@@ -6463,10 +7293,14 @@
         <v>279</v>
       </c>
       <c r="J213" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="214" spans="8:10" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+      <c r="K213" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Seychelles</v>
+      </c>
+    </row>
+    <row r="214" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H214" t="s">
         <v>280</v>
       </c>
@@ -6474,10 +7308,14 @@
         <v>281</v>
       </c>
       <c r="J214" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="215" spans="8:10" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="K214" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="215" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H215" t="s">
         <v>281</v>
       </c>
@@ -6485,10 +7323,14 @@
         <v>281</v>
       </c>
       <c r="J215" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="216" spans="8:10" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="K215" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="216" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H216" t="s">
         <v>282</v>
       </c>
@@ -6496,10 +7338,14 @@
         <v>282</v>
       </c>
       <c r="J216" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="217" spans="8:10" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+      <c r="K216" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="217" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H217" t="s">
         <v>283</v>
       </c>
@@ -6507,10 +7353,14 @@
         <v>283</v>
       </c>
       <c r="J217" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="218" spans="8:10" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="K217" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Syrian Arab Republic</v>
+      </c>
+    </row>
+    <row r="218" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H218" t="s">
         <v>284</v>
       </c>
@@ -6518,10 +7368,14 @@
         <v>284</v>
       </c>
       <c r="J218" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="219" spans="8:10" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="K218" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="219" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H219" t="s">
         <v>285</v>
       </c>
@@ -6529,10 +7383,14 @@
         <v>286</v>
       </c>
       <c r="J219" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="220" spans="8:10" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+      <c r="K219" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="220" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H220" t="s">
         <v>286</v>
       </c>
@@ -6540,10 +7398,14 @@
         <v>286</v>
       </c>
       <c r="J220" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="221" spans="8:10" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+      <c r="K220" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="221" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H221" t="s">
         <v>287</v>
       </c>
@@ -6551,10 +7413,14 @@
         <v>287</v>
       </c>
       <c r="J221" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="222" spans="8:10" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+      <c r="K221" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="222" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H222" t="s">
         <v>288</v>
       </c>
@@ -6562,10 +7428,14 @@
         <v>288</v>
       </c>
       <c r="J222" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="223" spans="8:10" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="K222" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="223" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H223" t="s">
         <v>289</v>
       </c>
@@ -6573,10 +7443,14 @@
         <v>289</v>
       </c>
       <c r="J223" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="224" spans="8:10" x14ac:dyDescent="0.3">
+        <v>702</v>
+      </c>
+      <c r="K223" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="224" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H224" t="s">
         <v>290</v>
       </c>
@@ -6584,10 +7458,14 @@
         <v>290</v>
       </c>
       <c r="J224" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="225" spans="8:10" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="K224" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="225" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H225" t="s">
         <v>291</v>
       </c>
@@ -6595,10 +7473,14 @@
         <v>291</v>
       </c>
       <c r="J225" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="226" spans="8:10" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+      <c r="K225" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Suriname</v>
+      </c>
+    </row>
+    <row r="226" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H226" t="s">
         <v>292</v>
       </c>
@@ -6606,10 +7488,14 @@
         <v>292</v>
       </c>
       <c r="J226" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="227" spans="8:10" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+      <c r="K226" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Swaziland</v>
+      </c>
+    </row>
+    <row r="227" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H227" t="s">
         <v>293</v>
       </c>
@@ -6617,10 +7503,14 @@
         <v>293</v>
       </c>
       <c r="J227" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="228" spans="8:10" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+      <c r="K227" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Tajikistan</v>
+      </c>
+    </row>
+    <row r="228" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H228" t="s">
         <v>294</v>
       </c>
@@ -6628,10 +7518,14 @@
         <v>294</v>
       </c>
       <c r="J228" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="229" spans="8:10" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+      <c r="K228" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="229" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H229" t="s">
         <v>295</v>
       </c>
@@ -6639,10 +7533,14 @@
         <v>295</v>
       </c>
       <c r="J229" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="230" spans="8:10" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="K229" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Taiwan, Province of China</v>
+      </c>
+    </row>
+    <row r="230" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H230" t="s">
         <v>296</v>
       </c>
@@ -6650,10 +7548,14 @@
         <v>295</v>
       </c>
       <c r="J230" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="231" spans="8:10" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="K230" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Taiwan, Province of China</v>
+      </c>
+    </row>
+    <row r="231" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H231" t="s">
         <v>297</v>
       </c>
@@ -6661,10 +7563,14 @@
         <v>297</v>
       </c>
       <c r="J231" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="232" spans="8:10" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+      <c r="K231" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Tanzania, United Republic of</v>
+      </c>
+    </row>
+    <row r="232" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H232" t="s">
         <v>298</v>
       </c>
@@ -6672,10 +7578,14 @@
         <v>298</v>
       </c>
       <c r="J232" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="233" spans="8:10" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+      <c r="K232" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>British Indian Ocean Territory</v>
+      </c>
+    </row>
+    <row r="233" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H233" t="s">
         <v>299</v>
       </c>
@@ -6683,10 +7593,14 @@
         <v>299</v>
       </c>
       <c r="J233" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="234" spans="8:10" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="K233" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United Kingdom</v>
+      </c>
+    </row>
+    <row r="234" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H234" t="s">
         <v>300</v>
       </c>
@@ -6694,10 +7608,14 @@
         <v>300</v>
       </c>
       <c r="J234" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="235" spans="8:10" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="K234" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United Kingdom</v>
+      </c>
+    </row>
+    <row r="235" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H235" t="s">
         <v>301</v>
       </c>
@@ -6705,10 +7623,14 @@
         <v>301</v>
       </c>
       <c r="J235" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="236" spans="8:10" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="K235" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Faroe Islands</v>
+      </c>
+    </row>
+    <row r="236" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H236" t="s">
         <v>302</v>
       </c>
@@ -6716,10 +7638,14 @@
         <v>302</v>
       </c>
       <c r="J236" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="237" spans="8:10" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="K236" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="237" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H237" t="s">
         <v>303</v>
       </c>
@@ -6727,10 +7653,14 @@
         <v>303</v>
       </c>
       <c r="J237" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="238" spans="8:10" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="K237" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="238" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H238" t="s">
         <v>304</v>
       </c>
@@ -6738,10 +7668,14 @@
         <v>304</v>
       </c>
       <c r="J238" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="239" spans="8:10" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="K238" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="239" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H239" t="s">
         <v>305</v>
       </c>
@@ -6749,10 +7683,14 @@
         <v>305</v>
       </c>
       <c r="J239" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="240" spans="8:10" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="K239" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Netherlands Antilles</v>
+      </c>
+    </row>
+    <row r="240" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H240" t="s">
         <v>306</v>
       </c>
@@ -6760,10 +7698,14 @@
         <v>306</v>
       </c>
       <c r="J240" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="241" spans="8:10" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="K240" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Netherlands Antilles</v>
+      </c>
+    </row>
+    <row r="241" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H241" t="s">
         <v>307</v>
       </c>
@@ -6771,10 +7713,14 @@
         <v>307</v>
       </c>
       <c r="J241" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="242" spans="8:10" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+      <c r="K241" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>United States Minor Outlying Islands</v>
+      </c>
+    </row>
+    <row r="242" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H242" t="s">
         <v>308</v>
       </c>
@@ -6782,10 +7728,14 @@
         <v>308</v>
       </c>
       <c r="J242" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="243" spans="8:10" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+      <c r="K242" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="243" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H243" t="s">
         <v>309</v>
       </c>
@@ -6793,10 +7743,14 @@
         <v>309</v>
       </c>
       <c r="J243" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="244" spans="8:10" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+      <c r="K243" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="244" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H244" t="s">
         <v>310</v>
       </c>
@@ -6804,10 +7758,14 @@
         <v>310</v>
       </c>
       <c r="J244" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="245" spans="8:10" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="K244" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Timor-Leste</v>
+      </c>
+    </row>
+    <row r="245" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H245" t="s">
         <v>311</v>
       </c>
@@ -6815,10 +7773,14 @@
         <v>311</v>
       </c>
       <c r="J245" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="246" spans="8:10" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="K245" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="246" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H246" t="s">
         <v>312</v>
       </c>
@@ -6826,10 +7788,14 @@
         <v>313</v>
       </c>
       <c r="J246" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="247" spans="8:10" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+      <c r="K246" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="247" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H247" t="s">
         <v>313</v>
       </c>
@@ -6837,10 +7803,14 @@
         <v>313</v>
       </c>
       <c r="J247" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="248" spans="8:10" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+      <c r="K247" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="248" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H248" t="s">
         <v>314</v>
       </c>
@@ -6848,10 +7818,14 @@
         <v>314</v>
       </c>
       <c r="J248" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="249" spans="8:10" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+      <c r="K248" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="249" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H249" t="s">
         <v>315</v>
       </c>
@@ -6859,10 +7833,14 @@
         <v>316</v>
       </c>
       <c r="J249" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="250" spans="8:10" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+      <c r="K249" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Turks and Caicos Islands</v>
+      </c>
+    </row>
+    <row r="250" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H250" t="s">
         <v>316</v>
       </c>
@@ -6870,10 +7848,14 @@
         <v>316</v>
       </c>
       <c r="J250" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="251" spans="8:10" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+      <c r="K250" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Turks and Caicos Islands</v>
+      </c>
+    </row>
+    <row r="251" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H251" t="s">
         <v>317</v>
       </c>
@@ -6881,10 +7863,14 @@
         <v>317</v>
       </c>
       <c r="J251" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="252" spans="8:10" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+      <c r="K251" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Turkmenistan</v>
+      </c>
+    </row>
+    <row r="252" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H252" t="s">
         <v>318</v>
       </c>
@@ -6892,10 +7878,14 @@
         <v>318</v>
       </c>
       <c r="J252" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="253" spans="8:10" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="K252" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="253" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H253" t="s">
         <v>319</v>
       </c>
@@ -6903,10 +7893,14 @@
         <v>319</v>
       </c>
       <c r="J253" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="254" spans="8:10" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+      <c r="K253" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Tuvalu</v>
+      </c>
+    </row>
+    <row r="254" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H254" t="s">
         <v>320</v>
       </c>
@@ -6914,10 +7908,14 @@
         <v>320</v>
       </c>
       <c r="J254" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="255" spans="8:10" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+      <c r="K254" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="255" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H255" t="s">
         <v>321</v>
       </c>
@@ -6925,10 +7923,14 @@
         <v>321</v>
       </c>
       <c r="J255" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="256" spans="8:10" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+      <c r="K255" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="256" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H256" t="s">
         <v>322</v>
       </c>
@@ -6936,10 +7938,14 @@
         <v>322</v>
       </c>
       <c r="J256" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="257" spans="8:10" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+      <c r="K256" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="257" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H257" t="s">
         <v>323</v>
       </c>
@@ -6947,10 +7953,14 @@
         <v>323</v>
       </c>
       <c r="J257" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="258" spans="8:10" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+      <c r="K257" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Uzbekistan</v>
+      </c>
+    </row>
+    <row r="258" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H258" t="s">
         <v>324</v>
       </c>
@@ -6958,10 +7968,14 @@
         <v>324</v>
       </c>
       <c r="J258" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="259" spans="8:10" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+      <c r="K258" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Vanuatu</v>
+      </c>
+    </row>
+    <row r="259" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H259" t="s">
         <v>325</v>
       </c>
@@ -6969,10 +7983,14 @@
         <v>325</v>
       </c>
       <c r="J259" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="260" spans="8:10" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+      <c r="K259" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Venezuela, Bolivarian Republic of</v>
+      </c>
+    </row>
+    <row r="260" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H260" t="s">
         <v>326</v>
       </c>
@@ -6980,10 +7998,14 @@
         <v>326</v>
       </c>
       <c r="J260" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="261" spans="8:10" x14ac:dyDescent="0.3">
+        <v>731</v>
+      </c>
+      <c r="K260" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Viet Nam</v>
+      </c>
+    </row>
+    <row r="261" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H261" t="s">
         <v>327</v>
       </c>
@@ -6991,10 +8013,14 @@
         <v>327</v>
       </c>
       <c r="J261" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="262" spans="8:10" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="K261" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="262" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H262" t="s">
         <v>328</v>
       </c>
@@ -7002,28 +8028,32 @@
         <v>328</v>
       </c>
       <c r="J262" t="s">
-        <v>739</v>
+        <v>738</v>
+      </c>
+      <c r="K262" t="str">
+        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
+        <v>Zimbabwe</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P5:P88 K5:M262">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J9 J49 I72:J73 J90 J161 J166 J10">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F63">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7040,10 +8070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E56E02-7EF7-482C-966E-DD3F459F0729}">
-  <dimension ref="C2:D248"/>
+  <dimension ref="C2:E248"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7051,1980 +8081,2967 @@
     <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2" t="s">
         <v>740</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>742</v>
-      </c>
       <c r="D3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+      <c r="E3" t="str">
+        <f>+C3</f>
+        <v>Afghanistan</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D4" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E67" si="0">+C4</f>
+        <v>Aland Islands</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Albania</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D6" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Algeria</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D7" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>American Samoa</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Andorra</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>76</v>
       </c>
       <c r="D9" t="s">
+        <v>496</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Angola</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D10" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>743</v>
-      </c>
-      <c r="D10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Anguilla</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Antarctica</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D12" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Antigua and Barbuda</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Argentina</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Armenia</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Aruba</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>89</v>
       </c>
       <c r="D17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Austria</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>749</v>
+      </c>
+      <c r="D18" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>750</v>
-      </c>
-      <c r="D18" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Azerbaijan</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahamas</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D20" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Bahrain</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Bangladesh</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Barbados</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>95</v>
       </c>
       <c r="D23" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Belarus</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>751</v>
+      </c>
+      <c r="D24" t="s">
+        <v>513</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Belgium</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>755</v>
+      </c>
+      <c r="D25" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>752</v>
-      </c>
-      <c r="D24" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>756</v>
-      </c>
-      <c r="D25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Belize</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Benin</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
+        <v>756</v>
+      </c>
+      <c r="D27" t="s">
+        <v>524</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Bermuda</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>760</v>
+      </c>
+      <c r="D28" t="s">
+        <v>529</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Bhutan</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
         <v>757</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>761</v>
-      </c>
-      <c r="D28" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>758</v>
-      </c>
-      <c r="D29" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Bolivia, Plurinational State of</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D30" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Bosnia and Herzegovina</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Botswana</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D32" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Bouvet Island</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
+        <v>758</v>
+      </c>
+      <c r="D33" t="s">
+        <v>526</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Brazil</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>805</v>
+      </c>
+      <c r="D34" t="s">
+        <v>598</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>British Indian Ocean Territory</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
         <v>759</v>
       </c>
-      <c r="D33" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>806</v>
-      </c>
-      <c r="D34" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>760</v>
-      </c>
       <c r="D35" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Brunei Darussalam</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Bulgaria</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Burkina Faso</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D38" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Burundi</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Cambodia</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D40" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Cameroon</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D41" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D42" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Cape Verde</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D43" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Cayman Islands</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D44" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Central African Republic</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Chad</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D46" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Chile</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>China</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D48" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+        <v>548</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Christmas Island</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D49" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Cocos (Keeling) Islands</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>117</v>
       </c>
       <c r="D50" t="s">
+        <v>543</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Colombia</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>771</v>
+      </c>
+      <c r="D51" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>772</v>
-      </c>
-      <c r="D51" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Comoros</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>119</v>
       </c>
       <c r="D52" t="s">
+        <v>541</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Congo</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>769</v>
+      </c>
+      <c r="D53" t="s">
+        <v>540</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Congo, the Democratic Republic of the</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>770</v>
+      </c>
+      <c r="D54" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>770</v>
-      </c>
-      <c r="D53" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>771</v>
-      </c>
-      <c r="D54" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Cook Islands</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+        <v>546</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Costa Rica</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D56" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Côte d'Ivoire</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D57" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+        <v>592</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Croatia</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Cuba</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
+        <v>775</v>
+      </c>
+      <c r="D59" t="s">
+        <v>550</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Cyprus</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
         <v>776</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>777</v>
-      </c>
-      <c r="D60" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Czech Republic</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D61" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Denmark</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Djibouti</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Dominica</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D64" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Dominican Republic</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>130</v>
       </c>
       <c r="D65" t="s">
+        <v>558</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecuador</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>781</v>
+      </c>
+      <c r="D66" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>782</v>
-      </c>
-      <c r="D66" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Egypt</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" si="0"/>
+        <v>El Salvador</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D68" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ref="E68:E131" si="1">+C68</f>
+        <v>Equatorial Guinea</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+        <v>560</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>Eritrea</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>141</v>
       </c>
       <c r="D70" t="s">
+        <v>563</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>Estonia</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>784</v>
+      </c>
+      <c r="D71" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>785</v>
-      </c>
-      <c r="D71" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>Ethiopia</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D72" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>Falkland Islands (Malvinas)</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D73" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>Faroe Islands</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>Fiji</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D75" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>Finland</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D76" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>France</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D77" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>French Guiana</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D78" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>French Polynesia</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D79" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>French Southern Territories</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D80" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>Gabon</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>Gambia</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>Georgia</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D83" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>Ghana</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>151</v>
       </c>
       <c r="D85" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>Gibraltar</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
+        <v>795</v>
+      </c>
+      <c r="D86" t="s">
+        <v>582</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>Greece</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>797</v>
+      </c>
+      <c r="D87" t="s">
+        <v>584</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>Greenland</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>796</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>798</v>
-      </c>
-      <c r="D87" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>797</v>
-      </c>
-      <c r="D88" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>Grenada</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D89" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>Guadeloupe</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>Guam</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>Guatemala</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>Guernsey</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>158</v>
       </c>
       <c r="D93" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>Guinea</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D94" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>Guinea-Bissau</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>Guyana</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D96" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>Haiti</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D97" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>Heard Island and McDonald Islands</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D98" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>Holy See (Vatican City State)</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>164</v>
       </c>
       <c r="D99" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>Honduras</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D100" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>Hong Kong</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D101" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>Hungary</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D102" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>Iceland</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>India</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>169</v>
       </c>
       <c r="D104" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+        <v>595</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>Indonesia</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D105" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>Iran, Islamic Republic of</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>Iraq</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D107" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>Ireland</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D108" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>Isle of Man</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>185</v>
       </c>
       <c r="D109" t="s">
+        <v>603</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>Israel</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>809</v>
+      </c>
+      <c r="D110" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
-        <v>810</v>
-      </c>
-      <c r="D110" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>Italy</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>187</v>
       </c>
       <c r="D111" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>Jamaica</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D112" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>Japan</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>189</v>
       </c>
       <c r="D113" t="s">
+        <v>606</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>Jersey</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>810</v>
+      </c>
+      <c r="D114" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
-        <v>811</v>
-      </c>
-      <c r="D114" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>Jordan</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
+        <v>812</v>
+      </c>
+      <c r="D115" t="s">
+        <v>609</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>Kazakhstan</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
         <v>813</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C116" t="s">
-        <v>814</v>
-      </c>
-      <c r="D116" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>Kenya</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>194</v>
       </c>
       <c r="D117" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+        <v>613</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>Kiribati</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D118" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>Korea, Democratic People's Republic of</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D119" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>Korea, Republic of</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>195</v>
       </c>
       <c r="D120" t="s">
+        <v>616</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>Kuwait</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>814</v>
+      </c>
+      <c r="D121" t="s">
+        <v>611</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>Kyrgyzstan</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>817</v>
+      </c>
+      <c r="D122" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
-        <v>815</v>
-      </c>
-      <c r="D121" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>Lao People's Democratic Republic</v>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>823</v>
+      </c>
+      <c r="D123" t="s">
+        <v>627</v>
+      </c>
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>Latvia</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
         <v>818</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D124" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C123" t="s">
-        <v>824</v>
-      </c>
-      <c r="D123" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C124" t="s">
-        <v>819</v>
-      </c>
-      <c r="D124" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>Lebanon</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>197</v>
       </c>
       <c r="D125" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>Lesotho</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>200</v>
       </c>
       <c r="D126" t="s">
+        <v>619</v>
+      </c>
+      <c r="E126" t="str">
+        <f t="shared" si="1"/>
+        <v>Liberia</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>819</v>
+      </c>
+      <c r="D127" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C127" t="s">
-        <v>820</v>
-      </c>
-      <c r="D127" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="str">
+        <f t="shared" si="1"/>
+        <v>Libyan Arab Jamahiriya</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>202</v>
       </c>
       <c r="D128" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+      <c r="E128" t="str">
+        <f t="shared" si="1"/>
+        <v>Liechtenstein</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
+        <v>821</v>
+      </c>
+      <c r="D129" t="s">
+        <v>625</v>
+      </c>
+      <c r="E129" t="str">
+        <f t="shared" si="1"/>
+        <v>Lithuania</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
         <v>822</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C130" t="s">
-        <v>823</v>
-      </c>
-      <c r="D130" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="str">
+        <f t="shared" si="1"/>
+        <v>Luxembourg</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>205</v>
       </c>
       <c r="D131" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+      <c r="E131" t="str">
+        <f t="shared" si="1"/>
+        <v>Macao</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D132" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="E132" t="str">
+        <f t="shared" ref="E132:E195" si="2">+C132</f>
+        <v>Macedonia, the former Yugoslav Republic of</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>207</v>
       </c>
       <c r="D133" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+      <c r="E133" t="str">
+        <f t="shared" si="2"/>
+        <v>Madagascar</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C134" t="s">
         <v>209</v>
       </c>
       <c r="D134" t="s">
+        <v>649</v>
+      </c>
+      <c r="E134" t="str">
+        <f t="shared" si="2"/>
+        <v>Malawi</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>836</v>
+      </c>
+      <c r="D135" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
-        <v>837</v>
-      </c>
-      <c r="D135" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E135" t="str">
+        <f t="shared" si="2"/>
+        <v>Malaysia</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D136" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="E136" t="str">
+        <f t="shared" si="2"/>
+        <v>Maldives</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>210</v>
       </c>
       <c r="D137" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+      <c r="E137" t="str">
+        <f t="shared" si="2"/>
+        <v>Mali</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>211</v>
       </c>
       <c r="D138" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="2"/>
+        <v>Malta</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D139" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="2"/>
+        <v>Marshall Islands</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D140" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+      <c r="E140" t="str">
+        <f t="shared" si="2"/>
+        <v>Martinique</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="E141" t="str">
+        <f t="shared" si="2"/>
+        <v>Mauritania</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D142" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="2"/>
+        <v>Mauritius</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D143" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+      <c r="E143" t="str">
+        <f t="shared" si="2"/>
+        <v>Mayotte</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D144" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+      <c r="E144" t="str">
+        <f t="shared" si="2"/>
+        <v>Mexico</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D145" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="E145" t="str">
+        <f t="shared" si="2"/>
+        <v>Micronesia, Federated States of</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D146" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+      <c r="E146" t="str">
+        <f t="shared" si="2"/>
+        <v>Moldova, Republic of</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D147" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+      <c r="E147" t="str">
+        <f t="shared" si="2"/>
+        <v>Monaco</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>220</v>
       </c>
       <c r="D148" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+      <c r="E148" t="str">
+        <f t="shared" si="2"/>
+        <v>Mongolia</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>222</v>
       </c>
       <c r="D149" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+      <c r="E149" t="str">
+        <f t="shared" si="2"/>
+        <v>Montenegro</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D150" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="E150" t="str">
+        <f t="shared" si="2"/>
+        <v>Montserrat</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D151" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+      <c r="E151" t="str">
+        <f t="shared" si="2"/>
+        <v>Morocco</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>223</v>
       </c>
       <c r="D152" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+      <c r="E152" t="str">
+        <f t="shared" si="2"/>
+        <v>Mozambique</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>224</v>
       </c>
       <c r="D153" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+      <c r="E153" t="str">
+        <f t="shared" si="2"/>
+        <v>Myanmar</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>226</v>
       </c>
       <c r="D154" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+      <c r="E154" t="str">
+        <f t="shared" si="2"/>
+        <v>Namibia</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>227</v>
       </c>
       <c r="D155" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+      <c r="E155" t="str">
+        <f t="shared" si="2"/>
+        <v>Nauru</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>228</v>
       </c>
       <c r="D156" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+      <c r="E156" t="str">
+        <f t="shared" si="2"/>
+        <v>Nepal</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D157" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+      <c r="E157" t="str">
+        <f t="shared" si="2"/>
+        <v>Netherlands</v>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D158" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="2"/>
+        <v>Netherlands Antilles</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D159" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+      <c r="E159" t="str">
+        <f t="shared" si="2"/>
+        <v>New Caledonia</v>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D160" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+      <c r="E160" t="str">
+        <f t="shared" si="2"/>
+        <v>New Zealand</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>229</v>
       </c>
       <c r="D161" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+      <c r="E161" t="str">
+        <f t="shared" si="2"/>
+        <v>Nicaragua</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C162" t="s">
         <v>230</v>
       </c>
       <c r="D162" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+      <c r="E162" t="str">
+        <f t="shared" si="2"/>
+        <v>Niger</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C163" t="s">
         <v>231</v>
       </c>
       <c r="D163" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+      <c r="E163" t="str">
+        <f t="shared" si="2"/>
+        <v>Nigeria</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>232</v>
       </c>
       <c r="D164" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+      <c r="E164" t="str">
+        <f t="shared" si="2"/>
+        <v>Niue</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D165" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+      <c r="E165" t="str">
+        <f t="shared" si="2"/>
+        <v>Norfolk Island</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D166" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="E166" t="str">
+        <f t="shared" si="2"/>
+        <v>Northern Mariana Islands</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D167" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+      <c r="E167" t="str">
+        <f t="shared" si="2"/>
+        <v>Norway</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
+        <v>843</v>
+      </c>
+      <c r="D168" t="s">
+        <v>664</v>
+      </c>
+      <c r="E168" t="str">
+        <f t="shared" si="2"/>
+        <v>Oman</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
         <v>844</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D169" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+      <c r="E169" t="str">
+        <f t="shared" si="2"/>
+        <v>Pakistan</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>849</v>
+      </c>
+      <c r="D170" t="s">
+        <v>670</v>
+      </c>
+      <c r="E170" t="str">
+        <f t="shared" si="2"/>
+        <v>Palau</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>853</v>
+      </c>
+      <c r="D171" t="s">
+        <v>677</v>
+      </c>
+      <c r="E171" t="str">
+        <f t="shared" si="2"/>
+        <v>Palestinian Territory, Occupied</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
         <v>845</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D172" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C170" t="s">
+      <c r="E172" t="str">
+        <f t="shared" si="2"/>
+        <v>Panama</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
         <v>850</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D173" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
-        <v>854</v>
-      </c>
-      <c r="D171" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C172" t="s">
-        <v>846</v>
-      </c>
-      <c r="D172" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C173" t="s">
-        <v>851</v>
-      </c>
-      <c r="D173" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E173" t="str">
+        <f t="shared" si="2"/>
+        <v>Papua New Guinea</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>245</v>
       </c>
       <c r="D174" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.3">
+        <v>676</v>
+      </c>
+      <c r="E174" t="str">
+        <f t="shared" si="2"/>
+        <v>Paraguay</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
+        <v>847</v>
+      </c>
+      <c r="D175" t="s">
+        <v>668</v>
+      </c>
+      <c r="E175" t="str">
+        <f t="shared" si="2"/>
+        <v>Peru</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
         <v>848</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C176" t="s">
-        <v>849</v>
-      </c>
-      <c r="D176" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E176" t="str">
+        <f t="shared" si="2"/>
+        <v>Philippines</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D177" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="E177" t="str">
+        <f t="shared" si="2"/>
+        <v>Pitcairn</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D178" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+      <c r="E178" t="str">
+        <f t="shared" si="2"/>
+        <v>Poland</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>250</v>
       </c>
       <c r="D179" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+      <c r="E179" t="str">
+        <f t="shared" si="2"/>
+        <v>Portugal</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>252</v>
       </c>
       <c r="D180" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="E180" t="str">
+        <f t="shared" si="2"/>
+        <v>Puerto Rico</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>253</v>
       </c>
       <c r="D181" t="s">
+        <v>679</v>
+      </c>
+      <c r="E181" t="str">
+        <f t="shared" si="2"/>
+        <v>Qatar</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>855</v>
+      </c>
+      <c r="D182" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
+      <c r="E182" t="str">
+        <f t="shared" si="2"/>
+        <v>Réunion</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
         <v>856</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C183" t="s">
+      <c r="E183" t="str">
+        <f t="shared" si="2"/>
+        <v>Romania</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
         <v>857</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C184" t="s">
-        <v>858</v>
-      </c>
-      <c r="D184" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E184" t="str">
+        <f t="shared" si="2"/>
+        <v>Russian Federation</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>265</v>
       </c>
       <c r="D185" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.3">
+        <v>683</v>
+      </c>
+      <c r="E185" t="str">
+        <f t="shared" si="2"/>
+        <v>Rwanda</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D186" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+      <c r="E186" t="str">
+        <f t="shared" si="2"/>
+        <v>Saint Barthélemy</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D187" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+      <c r="E187" t="str">
+        <f t="shared" si="2"/>
+        <v>Saint Helena, Ascension and Tristan da Cunha</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D188" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+      <c r="E188" t="str">
+        <f t="shared" si="2"/>
+        <v>Saint Kitts and Nevis</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D189" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+      <c r="E189" t="str">
+        <f t="shared" si="2"/>
+        <v>Saint Lucia</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D190" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+      <c r="E190" t="str">
+        <f t="shared" si="2"/>
+        <v>Saint Martin (French part)</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D191" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+      <c r="E191" t="str">
+        <f t="shared" si="2"/>
+        <v>Saint Pierre and Miquelon</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D192" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+      <c r="E192" t="str">
+        <f t="shared" si="2"/>
+        <v>Saint Vincent and the Grenadines</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>268</v>
       </c>
       <c r="D193" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+      <c r="E193" t="str">
+        <f t="shared" si="2"/>
+        <v>Samoa</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>271</v>
       </c>
       <c r="D194" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="2"/>
+        <v>San Marino</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D195" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+      <c r="E195" t="str">
+        <f t="shared" si="2"/>
+        <v>Sao Tome and Principe</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D196" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.3">
+        <v>684</v>
+      </c>
+      <c r="E196" t="str">
+        <f t="shared" ref="E196:E248" si="3">+C196</f>
+        <v>Saudi Arabia</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>278</v>
       </c>
       <c r="D197" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+      <c r="E197" t="str">
+        <f t="shared" si="3"/>
+        <v>Senegal</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D198" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="E198" t="str">
+        <f t="shared" si="3"/>
+        <v>Serbia</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>279</v>
       </c>
       <c r="D199" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+      <c r="E199" t="str">
+        <f t="shared" si="3"/>
+        <v>Seychelles</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D200" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="E200" t="str">
+        <f t="shared" si="3"/>
+        <v>Sierra Leone</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D201" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+      <c r="E201" t="str">
+        <f t="shared" si="3"/>
+        <v>Singapore</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
+        <v>870</v>
+      </c>
+      <c r="D202" t="s">
+        <v>700</v>
+      </c>
+      <c r="E202" t="str">
+        <f t="shared" si="3"/>
+        <v>Slovakia</v>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
         <v>871</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C203" t="s">
-        <v>872</v>
-      </c>
-      <c r="D203" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E203" t="str">
+        <f t="shared" si="3"/>
+        <v>Slovenia</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D204" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+      <c r="E204" t="str">
+        <f t="shared" si="3"/>
+        <v>Solomon Islands</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C205" t="s">
         <v>284</v>
       </c>
       <c r="D205" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="E205" t="str">
+        <f t="shared" si="3"/>
+        <v>Somalia</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D206" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+      <c r="E206" t="str">
+        <f t="shared" si="3"/>
+        <v>South Africa</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D207" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+      <c r="E207" t="str">
+        <f t="shared" si="3"/>
+        <v>South Georgia and the South Sandwich Islands</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D208" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+      <c r="E208" t="str">
+        <f t="shared" si="3"/>
+        <v>Spain</v>
+      </c>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>286</v>
       </c>
       <c r="D209" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+      <c r="E209" t="str">
+        <f t="shared" si="3"/>
+        <v>Sri Lanka</v>
+      </c>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D210" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="E210" t="str">
+        <f t="shared" si="3"/>
+        <v>Sudan</v>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D211" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+      <c r="E211" t="str">
+        <f t="shared" si="3"/>
+        <v>Suriname</v>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D212" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+      <c r="E212" t="str">
+        <f t="shared" si="3"/>
+        <v>Svalbard and Jan Mayen</v>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
+        <v>873</v>
+      </c>
+      <c r="D213" t="s">
+        <v>703</v>
+      </c>
+      <c r="E213" t="str">
+        <f t="shared" si="3"/>
+        <v>Swaziland</v>
+      </c>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>872</v>
+      </c>
+      <c r="D214" t="s">
+        <v>702</v>
+      </c>
+      <c r="E214" t="str">
+        <f t="shared" si="3"/>
+        <v>Sweden</v>
+      </c>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>765</v>
+      </c>
+      <c r="D215" t="s">
+        <v>535</v>
+      </c>
+      <c r="E215" t="str">
+        <f t="shared" si="3"/>
+        <v>Switzerland</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
         <v>874</v>
       </c>
-      <c r="D213" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C214" t="s">
-        <v>873</v>
-      </c>
-      <c r="D214" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C215" t="s">
-        <v>766</v>
-      </c>
-      <c r="D215" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C216" t="s">
-        <v>875</v>
-      </c>
       <c r="D216" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+      <c r="E216" t="str">
+        <f t="shared" si="3"/>
+        <v>Syrian Arab Republic</v>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
+        <v>884</v>
+      </c>
+      <c r="D217" t="s">
+        <v>719</v>
+      </c>
+      <c r="E217" t="str">
+        <f t="shared" si="3"/>
+        <v>Taiwan, Province of China</v>
+      </c>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>877</v>
+      </c>
+      <c r="D218" t="s">
+        <v>710</v>
+      </c>
+      <c r="E218" t="str">
+        <f t="shared" si="3"/>
+        <v>Tajikistan</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
         <v>885</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D219" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C218" t="s">
-        <v>878</v>
-      </c>
-      <c r="D218" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C219" t="s">
-        <v>886</v>
-      </c>
-      <c r="D219" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E219" t="str">
+        <f t="shared" si="3"/>
+        <v>Tanzania, United Republic of</v>
+      </c>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D220" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+      <c r="E220" t="str">
+        <f t="shared" si="3"/>
+        <v>Thailand</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D221" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="E221" t="str">
+        <f t="shared" si="3"/>
+        <v>Timor-Leste</v>
+      </c>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>311</v>
       </c>
       <c r="D222" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="E222" t="str">
+        <f t="shared" si="3"/>
+        <v>Togo</v>
+      </c>
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D223" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.3">
+        <v>711</v>
+      </c>
+      <c r="E223" t="str">
+        <f t="shared" si="3"/>
+        <v>Tokelau</v>
+      </c>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
+        <v>880</v>
+      </c>
+      <c r="D224" t="s">
+        <v>714</v>
+      </c>
+      <c r="E224" t="str">
+        <f t="shared" si="3"/>
+        <v>Tonga</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
         <v>881</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D225" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C225" t="s">
+      <c r="E225" t="str">
+        <f t="shared" si="3"/>
+        <v>Trinidad and Tobago</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
         <v>882</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D226" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C226" t="s">
+      <c r="E226" t="str">
+        <f t="shared" si="3"/>
+        <v>Tunisia</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
         <v>883</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D227" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C227" t="s">
-        <v>884</v>
-      </c>
-      <c r="D227" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E227" t="str">
+        <f t="shared" si="3"/>
+        <v>Turkey</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>317</v>
       </c>
       <c r="D228" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+      <c r="E228" t="str">
+        <f t="shared" si="3"/>
+        <v>Turkmenistan</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D229" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+      <c r="E229" t="str">
+        <f t="shared" si="3"/>
+        <v>Turks and Caicos Islands</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>319</v>
       </c>
       <c r="D230" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+      <c r="E230" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuvalu</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C231" t="s">
         <v>321</v>
       </c>
       <c r="D231" t="s">
+        <v>721</v>
+      </c>
+      <c r="E231" t="str">
+        <f t="shared" si="3"/>
+        <v>Uganda</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>886</v>
+      </c>
+      <c r="D232" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C232" t="s">
+      <c r="E232" t="str">
+        <f t="shared" si="3"/>
+        <v>Ukraine</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>744</v>
+      </c>
+      <c r="D233" t="s">
+        <v>502</v>
+      </c>
+      <c r="E233" t="str">
+        <f t="shared" si="3"/>
+        <v>United Arab Emirates</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>791</v>
+      </c>
+      <c r="D234" t="s">
+        <v>572</v>
+      </c>
+      <c r="E234" t="str">
+        <f t="shared" si="3"/>
+        <v>United Kingdom</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>888</v>
+      </c>
+      <c r="D235" t="s">
+        <v>471</v>
+      </c>
+      <c r="E235" t="str">
+        <f t="shared" si="3"/>
+        <v>United States</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
         <v>887</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D236" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C233" t="s">
-        <v>745</v>
-      </c>
-      <c r="D233" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C234" t="s">
-        <v>792</v>
-      </c>
-      <c r="D234" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="235" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C235" t="s">
-        <v>889</v>
-      </c>
-      <c r="D235" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="236" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C236" t="s">
-        <v>888</v>
-      </c>
-      <c r="D236" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="237" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E236" t="str">
+        <f t="shared" si="3"/>
+        <v>United States Minor Outlying Islands</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>322</v>
       </c>
       <c r="D237" t="s">
+        <v>724</v>
+      </c>
+      <c r="E237" t="str">
+        <f t="shared" si="3"/>
+        <v>Uruguay</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>889</v>
+      </c>
+      <c r="D238" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="238" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C238" t="s">
-        <v>890</v>
-      </c>
-      <c r="D238" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="239" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E238" t="str">
+        <f t="shared" si="3"/>
+        <v>Uzbekistan</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>324</v>
       </c>
       <c r="D239" t="s">
+        <v>732</v>
+      </c>
+      <c r="E239" t="str">
+        <f t="shared" si="3"/>
+        <v>Vanuatu</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>892</v>
+      </c>
+      <c r="D240" t="s">
+        <v>728</v>
+      </c>
+      <c r="E240" t="str">
+        <f t="shared" si="3"/>
+        <v>Venezuela, Bolivarian Republic of</v>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>895</v>
+      </c>
+      <c r="D241" t="s">
+        <v>731</v>
+      </c>
+      <c r="E241" t="str">
+        <f t="shared" si="3"/>
+        <v>Viet Nam</v>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>893</v>
+      </c>
+      <c r="D242" t="s">
+        <v>729</v>
+      </c>
+      <c r="E242" t="str">
+        <f t="shared" si="3"/>
+        <v>Virgin Islands, British</v>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>894</v>
+      </c>
+      <c r="D243" t="s">
+        <v>730</v>
+      </c>
+      <c r="E243" t="str">
+        <f t="shared" si="3"/>
+        <v>Virgin Islands, U.S.</v>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>896</v>
+      </c>
+      <c r="D244" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="240" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C240" t="s">
-        <v>893</v>
-      </c>
-      <c r="D240" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C241" t="s">
-        <v>896</v>
-      </c>
-      <c r="D241" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C242" t="s">
-        <v>894</v>
-      </c>
-      <c r="D242" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C243" t="s">
-        <v>895</v>
-      </c>
-      <c r="D243" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C244" t="s">
+      <c r="E244" t="str">
+        <f t="shared" si="3"/>
+        <v>Wallis and Futuna</v>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>782</v>
+      </c>
+      <c r="D245" t="s">
+        <v>561</v>
+      </c>
+      <c r="E245" t="str">
+        <f t="shared" si="3"/>
+        <v>Western Sahara</v>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
         <v>897</v>
       </c>
-      <c r="D244" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C245" t="s">
-        <v>783</v>
-      </c>
-      <c r="D245" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C246" t="s">
-        <v>898</v>
-      </c>
       <c r="D246" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="247" spans="3:4" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+      <c r="E246" t="str">
+        <f t="shared" si="3"/>
+        <v>Yemen</v>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C247" t="s">
         <v>327</v>
       </c>
       <c r="D247" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="248" spans="3:4" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="E247" t="str">
+        <f t="shared" si="3"/>
+        <v>Zambia</v>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C248" t="s">
         <v>328</v>
       </c>
       <c r="D248" t="s">
-        <v>739</v>
+        <v>738</v>
+      </c>
+      <c r="E248" t="str">
+        <f t="shared" si="3"/>
+        <v>Zimbabwe</v>
       </c>
     </row>
   </sheetData>

--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863604A2-BB30-4B9F-9373-E13D71AB2F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D719B-BBD8-42E3-983C-5709C9096203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="904">
   <si>
     <t>Tipo Prod BD</t>
   </si>
@@ -2744,6 +2744,9 @@
   </si>
   <si>
     <t>name_en</t>
+  </si>
+  <si>
+    <t>Región</t>
   </si>
 </sst>
 </file>
@@ -2803,12 +2806,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2848,6 +2845,12 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2884,15 +2887,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E41AF41-F8FC-4B26-AF78-273739958C0D}" name="Países" displayName="Países" ref="H4:L262" totalsRowShown="0">
-  <autoFilter ref="H4:L262" xr:uid="{48C490CF-810B-4B9A-A48C-F659E709F7DD}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E41AF41-F8FC-4B26-AF78-273739958C0D}" name="Países" displayName="Países" ref="H4:M262" totalsRowShown="0">
+  <autoFilter ref="H4:M262" xr:uid="{48C490CF-810B-4B9A-A48C-F659E709F7DD}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{18EFC429-FC32-416B-9D85-B3AA4E41A311}" name="País BD"/>
     <tableColumn id="2" xr3:uid="{35A83415-B243-4143-9EC2-916FB2E6AF24}" name="País Homologado"/>
     <tableColumn id="5" xr3:uid="{5BDDF168-E4F5-4A5C-9C28-E606CACB9557}" name="ISO 3166-1 alfa-3"/>
-    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="name_en" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="name_en" dataDxfId="5">
       <calculatedColumnFormula>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="6" xr3:uid="{09CD7F3D-37C4-4585-AE8D-89B65A86F322}" name="Región"/>
     <tableColumn id="4" xr3:uid="{40E74168-2586-427C-9D43-513E9F4063C8}" name="Continente"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2900,8 +2904,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02AB34A1-CEA4-4968-9D6F-FC2A8A234508}" name="Tabla4" displayName="Tabla4" ref="O4:S88" totalsRowShown="0">
-  <autoFilter ref="O4:S88" xr:uid="{6D883F0D-205C-4E2A-8E90-917B11B6486C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02AB34A1-CEA4-4968-9D6F-FC2A8A234508}" name="Tabla4" displayName="Tabla4" ref="P4:T88" totalsRowShown="0">
+  <autoFilter ref="P4:T88" xr:uid="{6D883F0D-205C-4E2A-8E90-917B11B6486C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D08BA0D1-81A3-4E80-B5F7-9C7264498A7F}" name="Lugar Salida/Ingreso BD"/>
     <tableColumn id="2" xr3:uid="{D936E8D8-7069-4EA7-8251-9D50743DEA4F}" name="Lugar Salida/Ingreso Homologado"/>
@@ -2918,7 +2922,7 @@
   <autoFilter ref="B17:C29" xr:uid="{A6A8F6B9-DD1A-4B64-A6A8-A1BAF98BDF6A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7B1F957-FD31-43DE-8EFC-269CDC471193}" name="Mes"/>
-    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3221,10 +3225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAAD69-D526-4C28-B49C-ADB47BD472D4}">
-  <dimension ref="B2:U262"/>
+  <dimension ref="B2:V262"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:K262"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3238,20 +3242,20 @@
     <col min="8" max="8" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" customWidth="1"/>
-    <col min="15" max="15" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.44140625" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5546875" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" customWidth="1"/>
-    <col min="20" max="20" width="4.44140625" customWidth="1"/>
-    <col min="21" max="21" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.44140625" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.33203125" customWidth="1"/>
+    <col min="21" max="21" width="4.44140625" customWidth="1"/>
+    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>70</v>
       </c>
@@ -3261,16 +3265,16 @@
       <c r="H2" t="s">
         <v>474</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U3" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3296,28 +3300,31 @@
         <v>902</v>
       </c>
       <c r="L4" t="s">
+        <v>903</v>
+      </c>
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>463</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>464</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>468</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>469</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>470</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3340,20 +3347,20 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Afghanistan</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>332</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>333</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>465</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3376,17 +3383,17 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Albania</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>334</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>333</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -3409,17 +3416,17 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Germany</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>493</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>335</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -3442,14 +3449,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Andorra</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>337</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3472,14 +3479,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Angola</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>339</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -3502,14 +3509,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Anguilla</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>341</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -3532,14 +3539,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Antigua and Barbuda</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>343</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -3562,14 +3569,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Antigua and Barbuda</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>345</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -3592,14 +3599,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Netherlands Antilles</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>346</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -3622,14 +3629,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Netherlands Antilles</v>
       </c>
-      <c r="O14" t="s">
-        <v>338</v>
-      </c>
       <c r="P14" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="Q14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>24</v>
       </c>
@@ -3646,14 +3653,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>347</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>490</v>
       </c>
@@ -3673,14 +3680,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Saudi Arabia</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>348</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>476</v>
       </c>
@@ -3703,14 +3710,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Algeria</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>349</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>478</v>
       </c>
@@ -3733,14 +3740,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Argentina</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>350</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>479</v>
       </c>
@@ -3763,14 +3770,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Armenia</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>352</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>480</v>
       </c>
@@ -3793,14 +3800,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Aruba</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>354</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>481</v>
       </c>
@@ -3823,14 +3830,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Australia</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>356</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>482</v>
       </c>
@@ -3853,14 +3860,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Austria</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>358</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>483</v>
       </c>
@@ -3883,14 +3890,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Azerbaijan</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>359</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>484</v>
       </c>
@@ -3913,14 +3920,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bahamas</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>360</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>485</v>
       </c>
@@ -3943,14 +3950,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bahrain</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>362</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>486</v>
       </c>
@@ -3973,14 +3980,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bangladesh</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>364</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>487</v>
       </c>
@@ -4003,14 +4010,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Barbados</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>365</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>488</v>
       </c>
@@ -4033,14 +4040,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Belarus</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>367</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>489</v>
       </c>
@@ -4063,14 +4070,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Belgium</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>369</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>38</v>
       </c>
@@ -4087,14 +4094,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Belize</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>371</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>39</v>
       </c>
@@ -4111,14 +4118,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Benin</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>372</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>40</v>
       </c>
@@ -4135,14 +4142,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bermuda</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>373</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>41</v>
       </c>
@@ -4159,14 +4166,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bolivia, Plurinational State of</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>375</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>42</v>
       </c>
@@ -4183,14 +4190,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bosnia and Herzegovina</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>376</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>43</v>
       </c>
@@ -4207,14 +4214,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bosnia and Herzegovina</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>377</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>44</v>
       </c>
@@ -4231,14 +4238,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Botswana</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>379</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>45</v>
       </c>
@@ -4255,14 +4262,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Brazil</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>381</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>46</v>
       </c>
@@ -4279,14 +4286,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Brunei Darussalam</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>383</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>47</v>
       </c>
@@ -4303,14 +4310,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bulgaria</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>384</v>
       </c>
-      <c r="P39" t="s">
+      <c r="Q39" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>48</v>
       </c>
@@ -4327,14 +4334,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Burkina Faso</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>386</v>
       </c>
-      <c r="P40" t="s">
+      <c r="Q40" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>49</v>
       </c>
@@ -4351,14 +4358,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Burkina Faso</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>388</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>50</v>
       </c>
@@ -4375,14 +4382,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cape Verde</v>
       </c>
-      <c r="O42" t="s">
-        <v>390</v>
-      </c>
       <c r="P42" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="Q42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>51</v>
       </c>
@@ -4399,14 +4406,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cambodia</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>391</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>52</v>
       </c>
@@ -4423,14 +4430,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cameroon</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>393</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>53</v>
       </c>
@@ -4447,14 +4454,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Canada</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>394</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>54</v>
       </c>
@@ -4471,14 +4478,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Chad</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>396</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>55</v>
       </c>
@@ -4495,14 +4502,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>China</v>
       </c>
-      <c r="O47" t="s">
-        <v>397</v>
-      </c>
       <c r="P47" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="Q47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>56</v>
       </c>
@@ -4519,14 +4526,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cyprus</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>398</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>57</v>
       </c>
@@ -4543,14 +4550,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>South Africa</v>
       </c>
-      <c r="O49" t="s">
+      <c r="P49" t="s">
         <v>399</v>
       </c>
-      <c r="P49" t="s">
+      <c r="Q49" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>18</v>
       </c>
@@ -4567,14 +4574,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Colombia</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>401</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -4591,14 +4598,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Comoros</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>403</v>
       </c>
-      <c r="P51" t="s">
+      <c r="Q51" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>59</v>
       </c>
@@ -4615,14 +4622,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Congo</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>405</v>
       </c>
-      <c r="P52" t="s">
+      <c r="Q52" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>60</v>
       </c>
@@ -4639,14 +4646,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Korea, Republic of</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>406</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>20</v>
       </c>
@@ -4663,14 +4670,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Korea, Republic of</v>
       </c>
-      <c r="O54" t="s">
-        <v>392</v>
-      </c>
       <c r="P54" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="Q54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>61</v>
       </c>
@@ -4687,14 +4694,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Côte d'Ivoire</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>408</v>
       </c>
-      <c r="P55" t="s">
+      <c r="Q55" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>62</v>
       </c>
@@ -4711,14 +4718,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Côte d'Ivoire</v>
       </c>
-      <c r="O56" t="s">
-        <v>410</v>
-      </c>
       <c r="P56" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="Q56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>63</v>
       </c>
@@ -4735,14 +4742,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Costa Rica</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>411</v>
       </c>
-      <c r="P57" t="s">
+      <c r="Q57" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>64</v>
       </c>
@@ -4759,14 +4766,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Croatia</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>413</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>65</v>
       </c>
@@ -4783,14 +4790,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cuba</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>415</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>66</v>
       </c>
@@ -4807,14 +4814,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Denmark</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>416</v>
       </c>
-      <c r="P60" t="s">
+      <c r="Q60" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>67</v>
       </c>
@@ -4831,14 +4838,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Djibouti</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>417</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>68</v>
       </c>
@@ -4855,14 +4862,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Dominica</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>419</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:17" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>69</v>
       </c>
@@ -4879,14 +4886,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Ecuador</v>
       </c>
-      <c r="O63" t="s">
+      <c r="P63" t="s">
         <v>421</v>
       </c>
-      <c r="P63" t="s">
+      <c r="Q63" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:17" x14ac:dyDescent="0.3">
       <c r="H64" t="s">
         <v>131</v>
       </c>
@@ -4900,14 +4907,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Egypt</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>423</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H65" s="1" t="s">
         <v>132</v>
       </c>
@@ -4923,14 +4930,15 @@
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="O65" t="s">
-        <v>404</v>
-      </c>
+      <c r="N65" s="1"/>
       <c r="P65" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="Q65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H66" t="s">
         <v>133</v>
       </c>
@@ -4944,14 +4952,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>El Salvador</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H67" t="s">
         <v>134</v>
       </c>
@@ -4965,14 +4973,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United Arab Emirates</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H68" t="s">
         <v>135</v>
       </c>
@@ -4986,14 +4994,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United Arab Emirates</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>428</v>
       </c>
-      <c r="P68" t="s">
+      <c r="Q68" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H69" t="s">
         <v>136</v>
       </c>
@@ -5007,14 +5015,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Eritrea</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>430</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="70" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H70" t="s">
         <v>137</v>
       </c>
@@ -5028,14 +5036,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Slovenia</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>431</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="71" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H71" t="s">
         <v>138</v>
       </c>
@@ -5049,14 +5057,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Spain</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>432</v>
       </c>
-      <c r="P71" t="s">
+      <c r="Q71" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="72" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H72" t="s">
         <v>139</v>
       </c>
@@ -5070,14 +5078,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United States</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>434</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="73" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>140</v>
       </c>
@@ -5091,14 +5099,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United States</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>436</v>
       </c>
-      <c r="P73" t="s">
+      <c r="Q73" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>141</v>
       </c>
@@ -5112,14 +5120,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Estonia</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>438</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="75" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>142</v>
       </c>
@@ -5133,14 +5141,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Ethiopia</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>439</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
         <v>143</v>
       </c>
@@ -5154,14 +5162,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Fiji</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>441</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H77" t="s">
         <v>144</v>
       </c>
@@ -5175,14 +5183,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Philippines</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>442</v>
       </c>
-      <c r="P77" t="s">
+      <c r="Q77" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="78" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H78" t="s">
         <v>145</v>
       </c>
@@ -5196,14 +5204,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Finland</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>444</v>
       </c>
-      <c r="P78" t="s">
+      <c r="Q78" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
         <v>146</v>
       </c>
@@ -5217,14 +5225,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>France</v>
       </c>
-      <c r="O79" t="s">
-        <v>446</v>
-      </c>
       <c r="P79" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="80" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="Q79" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
         <v>147</v>
       </c>
@@ -5238,14 +5246,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Gabon</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>447</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
         <v>148</v>
       </c>
@@ -5259,14 +5267,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Gambia</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>449</v>
       </c>
-      <c r="P81" t="s">
+      <c r="Q81" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="82" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
         <v>149</v>
       </c>
@@ -5280,14 +5288,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Georgia</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>450</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="83" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H83" t="s">
         <v>150</v>
       </c>
@@ -5301,14 +5309,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Ghana</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>452</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="84" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
         <v>151</v>
       </c>
@@ -5322,14 +5330,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Gibraltar</v>
       </c>
-      <c r="O84" t="s">
+      <c r="P84" t="s">
         <v>454</v>
       </c>
-      <c r="P84" t="s">
+      <c r="Q84" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="85" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
         <v>152</v>
       </c>
@@ -5343,14 +5351,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Grenada</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>456</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="86" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H86" t="s">
         <v>153</v>
       </c>
@@ -5364,14 +5372,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Greece</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>458</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="87" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H87" t="s">
         <v>154</v>
       </c>
@@ -5385,14 +5393,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Greenland</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>459</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H88" t="s">
         <v>155</v>
       </c>
@@ -5406,14 +5414,14 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guam</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>461</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H89" t="s">
         <v>156</v>
       </c>
@@ -5428,7 +5436,7 @@
         <v>Guatemala</v>
       </c>
     </row>
-    <row r="90" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H90" t="s">
         <v>157</v>
       </c>
@@ -5443,7 +5451,7 @@
         <v>Guernsey</v>
       </c>
     </row>
-    <row r="91" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H91" s="1" t="s">
         <v>158</v>
       </c>
@@ -5459,8 +5467,9 @@
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H92" t="s">
         <v>159</v>
       </c>
@@ -5475,7 +5484,7 @@
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="93" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H93" t="s">
         <v>160</v>
       </c>
@@ -5490,7 +5499,7 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="94" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H94" t="s">
         <v>161</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>Guyana</v>
       </c>
     </row>
-    <row r="95" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H95" t="s">
         <v>162</v>
       </c>
@@ -5520,7 +5529,7 @@
         <v>Haiti</v>
       </c>
     </row>
-    <row r="96" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
@@ -5535,7 +5544,7 @@
         <v>Netherlands</v>
       </c>
     </row>
-    <row r="97" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H97" t="s">
         <v>164</v>
       </c>
@@ -5550,7 +5559,7 @@
         <v>Honduras</v>
       </c>
     </row>
-    <row r="98" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H98" t="s">
         <v>165</v>
       </c>
@@ -5565,7 +5574,7 @@
         <v>Hong Kong</v>
       </c>
     </row>
-    <row r="99" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H99" t="s">
         <v>166</v>
       </c>
@@ -5580,7 +5589,7 @@
         <v>Hong Kong</v>
       </c>
     </row>
-    <row r="100" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H100" t="s">
         <v>167</v>
       </c>
@@ -5595,7 +5604,7 @@
         <v>Hungary</v>
       </c>
     </row>
-    <row r="101" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H101" t="s">
         <v>168</v>
       </c>
@@ -5610,7 +5619,7 @@
         <v>India</v>
       </c>
     </row>
-    <row r="102" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>169</v>
       </c>
@@ -5625,7 +5634,7 @@
         <v>Indonesia</v>
       </c>
     </row>
-    <row r="103" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H103" t="s">
         <v>170</v>
       </c>
@@ -5640,7 +5649,7 @@
         <v>Iran, Islamic Republic of</v>
       </c>
     </row>
-    <row r="104" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H104" t="s">
         <v>33</v>
       </c>
@@ -5655,7 +5664,7 @@
         <v>Iraq</v>
       </c>
     </row>
-    <row r="105" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>171</v>
       </c>
@@ -5670,7 +5679,7 @@
         <v>Ireland</v>
       </c>
     </row>
-    <row r="106" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H106" s="1" t="s">
         <v>172</v>
       </c>
@@ -5686,8 +5695,9 @@
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H107" t="s">
         <v>173</v>
       </c>
@@ -5702,7 +5712,7 @@
         <v>Maldives</v>
       </c>
     </row>
-    <row r="108" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H108" t="s">
         <v>174</v>
       </c>
@@ -5717,7 +5727,7 @@
         <v>Tonga</v>
       </c>
     </row>
-    <row r="109" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>175</v>
       </c>
@@ -5732,7 +5742,7 @@
         <v>Iceland</v>
       </c>
     </row>
-    <row r="110" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H110" s="1" t="s">
         <v>176</v>
       </c>
@@ -5748,8 +5758,9 @@
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H111" t="s">
         <v>177</v>
       </c>
@@ -5764,7 +5775,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="112" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H112" t="s">
         <v>178</v>
       </c>
@@ -6499,7 +6510,7 @@
         <v>Namibia</v>
       </c>
     </row>
-    <row r="161" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H161" t="s">
         <v>227</v>
       </c>
@@ -6514,7 +6525,7 @@
         <v>Nauru</v>
       </c>
     </row>
-    <row r="162" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H162" t="s">
         <v>228</v>
       </c>
@@ -6529,7 +6540,7 @@
         <v>Nepal</v>
       </c>
     </row>
-    <row r="163" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H163" t="s">
         <v>229</v>
       </c>
@@ -6544,7 +6555,7 @@
         <v>Nicaragua</v>
       </c>
     </row>
-    <row r="164" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H164" t="s">
         <v>230</v>
       </c>
@@ -6559,7 +6570,7 @@
         <v>Niger</v>
       </c>
     </row>
-    <row r="165" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H165" t="s">
         <v>231</v>
       </c>
@@ -6574,7 +6585,7 @@
         <v>Nigeria</v>
       </c>
     </row>
-    <row r="166" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H166" t="s">
         <v>232</v>
       </c>
@@ -6589,7 +6600,7 @@
         <v>Niue</v>
       </c>
     </row>
-    <row r="167" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H167" t="s">
         <v>233</v>
       </c>
@@ -6604,7 +6615,7 @@
         <v>Norway</v>
       </c>
     </row>
-    <row r="168" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H168" s="1" t="s">
         <v>234</v>
       </c>
@@ -6620,8 +6631,9 @@
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
-    </row>
-    <row r="169" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H169" t="s">
         <v>235</v>
       </c>
@@ -6636,7 +6648,7 @@
         <v>New Caledonia</v>
       </c>
     </row>
-    <row r="170" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H170" t="s">
         <v>236</v>
       </c>
@@ -6651,7 +6663,7 @@
         <v>New Zealand</v>
       </c>
     </row>
-    <row r="171" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H171" t="s">
         <v>237</v>
       </c>
@@ -6666,7 +6678,7 @@
         <v>Oman</v>
       </c>
     </row>
-    <row r="172" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H172" t="s">
         <v>238</v>
       </c>
@@ -6681,7 +6693,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H173" t="s">
         <v>239</v>
       </c>
@@ -6696,7 +6708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H174" t="s">
         <v>240</v>
       </c>
@@ -6711,7 +6723,7 @@
         <v>Pakistan</v>
       </c>
     </row>
-    <row r="175" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H175" t="s">
         <v>241</v>
       </c>
@@ -6726,7 +6738,7 @@
         <v>Palestinian Territory, Occupied</v>
       </c>
     </row>
-    <row r="176" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H176" t="s">
         <v>242</v>
       </c>
@@ -6741,7 +6753,7 @@
         <v>Panama</v>
       </c>
     </row>
-    <row r="177" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H177" t="s">
         <v>243</v>
       </c>
@@ -6756,7 +6768,7 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="178" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H178" t="s">
         <v>244</v>
       </c>
@@ -6771,7 +6783,7 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="179" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H179" t="s">
         <v>245</v>
       </c>
@@ -6786,7 +6798,7 @@
         <v>Paraguay</v>
       </c>
     </row>
-    <row r="180" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H180" t="s">
         <v>246</v>
       </c>
@@ -6801,7 +6813,7 @@
         <v>Peru</v>
       </c>
     </row>
-    <row r="181" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H181" t="s">
         <v>247</v>
       </c>
@@ -6816,7 +6828,7 @@
         <v>French Southern Territories</v>
       </c>
     </row>
-    <row r="182" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H182" t="s">
         <v>248</v>
       </c>
@@ -6831,7 +6843,7 @@
         <v>French Southern Territories</v>
       </c>
     </row>
-    <row r="183" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H183" t="s">
         <v>249</v>
       </c>
@@ -6846,7 +6858,7 @@
         <v>Poland</v>
       </c>
     </row>
-    <row r="184" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H184" t="s">
         <v>250</v>
       </c>
@@ -6861,7 +6873,7 @@
         <v>Portugal</v>
       </c>
     </row>
-    <row r="185" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H185" t="s">
         <v>251</v>
       </c>
@@ -6876,7 +6888,7 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="186" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H186" t="s">
         <v>252</v>
       </c>
@@ -6891,7 +6903,7 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="187" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H187" t="s">
         <v>253</v>
       </c>
@@ -6906,7 +6918,7 @@
         <v>Qatar</v>
       </c>
     </row>
-    <row r="188" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H188" t="s">
         <v>254</v>
       </c>
@@ -6921,7 +6933,7 @@
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="189" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H189" t="s">
         <v>255</v>
       </c>
@@ -6936,7 +6948,7 @@
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="190" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H190" s="1" t="s">
         <v>256</v>
       </c>
@@ -6952,8 +6964,9 @@
       </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
-    </row>
-    <row r="191" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="N190" s="1"/>
+    </row>
+    <row r="191" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H191" t="s">
         <v>257</v>
       </c>
@@ -6968,7 +6981,7 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="192" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H192" t="s">
         <v>258</v>
       </c>
@@ -6983,7 +6996,7 @@
         <v>Czech Republic</v>
       </c>
     </row>
-    <row r="193" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H193" t="s">
         <v>259</v>
       </c>
@@ -6998,7 +7011,7 @@
         <v>Serbia</v>
       </c>
     </row>
-    <row r="194" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H194" t="s">
         <v>260</v>
       </c>
@@ -7013,7 +7026,7 @@
         <v>Congo, the Democratic Republic of the</v>
       </c>
     </row>
-    <row r="195" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H195" t="s">
         <v>261</v>
       </c>
@@ -7028,7 +7041,7 @@
         <v>Dominican Republic</v>
       </c>
     </row>
-    <row r="196" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H196" t="s">
         <v>262</v>
       </c>
@@ -7043,7 +7056,7 @@
         <v>Slovakia</v>
       </c>
     </row>
-    <row r="197" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H197" t="s">
         <v>263</v>
       </c>
@@ -7058,7 +7071,7 @@
         <v>Romania</v>
       </c>
     </row>
-    <row r="198" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H198" t="s">
         <v>264</v>
       </c>
@@ -7073,7 +7086,7 @@
         <v>Russian Federation</v>
       </c>
     </row>
-    <row r="199" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H199" t="s">
         <v>265</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>Rwanda</v>
       </c>
     </row>
-    <row r="200" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H200" t="s">
         <v>266</v>
       </c>
@@ -7103,7 +7116,7 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="201" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H201" t="s">
         <v>267</v>
       </c>
@@ -7118,7 +7131,7 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="202" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H202" t="s">
         <v>268</v>
       </c>
@@ -7133,7 +7146,7 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="203" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H203" t="s">
         <v>269</v>
       </c>
@@ -7148,7 +7161,7 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="204" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H204" s="1" t="s">
         <v>270</v>
       </c>
@@ -7164,8 +7177,9 @@
       </c>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
-    </row>
-    <row r="205" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H205" t="s">
         <v>271</v>
       </c>
@@ -7180,7 +7194,7 @@
         <v>San Marino</v>
       </c>
     </row>
-    <row r="206" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H206" t="s">
         <v>272</v>
       </c>
@@ -7195,7 +7209,7 @@
         <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
-    <row r="207" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H207" t="s">
         <v>273</v>
       </c>
@@ -7210,7 +7224,7 @@
         <v>Saint Lucia</v>
       </c>
     </row>
-    <row r="208" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H208" t="s">
         <v>274</v>
       </c>
@@ -8037,23 +8051,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="P5:P88 K5:M262">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="Q5:Q88 K5:N262">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J9 J49 I72:J73 J90 J161 J166 J10">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F63">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0D719B-BBD8-42E3-983C-5709C9096203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B523C-6E56-45B6-AB6F-71610758EE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="905">
   <si>
     <t>Tipo Prod BD</t>
   </si>
@@ -2747,6 +2747,9 @@
   </si>
   <si>
     <t>Región</t>
+  </si>
+  <si>
+    <t>Otros países</t>
   </si>
 </sst>
 </file>
@@ -2806,6 +2809,12 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2844,12 +2853,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2893,7 +2896,7 @@
     <tableColumn id="1" xr3:uid="{18EFC429-FC32-416B-9D85-B3AA4E41A311}" name="País BD"/>
     <tableColumn id="2" xr3:uid="{35A83415-B243-4143-9EC2-916FB2E6AF24}" name="País Homologado"/>
     <tableColumn id="5" xr3:uid="{5BDDF168-E4F5-4A5C-9C28-E606CACB9557}" name="ISO 3166-1 alfa-3"/>
-    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="name_en" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="name_en" dataDxfId="1">
       <calculatedColumnFormula>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{09CD7F3D-37C4-4585-AE8D-89B65A86F322}" name="Región"/>
@@ -2922,7 +2925,7 @@
   <autoFilter ref="B17:C29" xr:uid="{A6A8F6B9-DD1A-4B64-A6A8-A1BAF98BDF6A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7B1F957-FD31-43DE-8EFC-269CDC471193}" name="Mes"/>
-    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3228,7 +3231,7 @@
   <dimension ref="B2:V262"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3242,8 +3245,9 @@
     <col min="8" max="8" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="2.77734375" customWidth="1"/>
     <col min="16" max="16" width="34.44140625" bestFit="1" customWidth="1"/>
@@ -6688,9 +6692,8 @@
       <c r="J172" t="s">
         <v>900</v>
       </c>
-      <c r="K172" t="e">
-        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
-        <v>#N/A</v>
+      <c r="K172" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="173" spans="8:14" x14ac:dyDescent="0.3">
@@ -6703,9 +6706,8 @@
       <c r="J173" t="s">
         <v>900</v>
       </c>
-      <c r="K173" t="e">
-        <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
-        <v>#N/A</v>
+      <c r="K173" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="174" spans="8:14" x14ac:dyDescent="0.3">
@@ -8052,22 +8054,22 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Q5:Q88 K5:N262">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J9 J49 I72:J73 J90 J161 J166 J10">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F63">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B523C-6E56-45B6-AB6F-71610758EE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2F49B-7541-4EA5-88A1-66629CB2AF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="918">
   <si>
     <t>Tipo Prod BD</t>
   </si>
@@ -1096,21 +1096,12 @@
     <t>AGUAS NEGRAS</t>
   </si>
   <si>
-    <t>Nunca se supo</t>
-  </si>
-  <si>
     <t>ANTOFAGASTA</t>
   </si>
   <si>
-    <t>Antofagasta</t>
-  </si>
-  <si>
     <t>ARICA</t>
   </si>
   <si>
-    <t>Arica</t>
-  </si>
-  <si>
     <t>BAKER</t>
   </si>
   <si>
@@ -1120,15 +1111,9 @@
     <t>CALBUCO</t>
   </si>
   <si>
-    <t>Calbuco</t>
-  </si>
-  <si>
     <t>CALDERA</t>
   </si>
   <si>
-    <t>Caldera</t>
-  </si>
-  <si>
     <t>CALETA COLOSO</t>
   </si>
   <si>
@@ -1141,15 +1126,9 @@
     <t>CASTRO</t>
   </si>
   <si>
-    <t>Castro</t>
-  </si>
-  <si>
     <t>CHACABUCO / PUERTO AYSEN</t>
   </si>
   <si>
-    <t>Chacabuco</t>
-  </si>
-  <si>
     <t>CHACABUCO / PUERTO AYSÉN</t>
   </si>
   <si>
@@ -1159,9 +1138,6 @@
     <t>CHANARAL / BARQUITO</t>
   </si>
   <si>
-    <t>Chañaral/Barquito</t>
-  </si>
-  <si>
     <t>Chanaral/Barquito</t>
   </si>
   <si>
@@ -1177,36 +1153,21 @@
     <t>CHUNGARA</t>
   </si>
   <si>
-    <t>Chungará</t>
-  </si>
-  <si>
     <t>COLCHANE</t>
   </si>
   <si>
-    <t>Colchane</t>
-  </si>
-  <si>
     <t>CONCORDIA (CHACALLUTA)</t>
   </si>
   <si>
     <t>COQUIMBO</t>
   </si>
   <si>
-    <t>Coquimbo</t>
-  </si>
-  <si>
     <t>CORONEL</t>
   </si>
   <si>
-    <t>Coronel</t>
-  </si>
-  <si>
     <t>CORRAL</t>
   </si>
   <si>
-    <t>Corral</t>
-  </si>
-  <si>
     <t>Coyhaique Alto</t>
   </si>
   <si>
@@ -1222,9 +1183,6 @@
     <t>GUAYACAN</t>
   </si>
   <si>
-    <t>Guayacán</t>
-  </si>
-  <si>
     <t>HUASCO / GUACOLDA</t>
   </si>
   <si>
@@ -1237,9 +1195,6 @@
     <t>IQUIQUE</t>
   </si>
   <si>
-    <t>Iquique</t>
-  </si>
-  <si>
     <t>ISLA DE PASCUA</t>
   </si>
   <si>
@@ -1258,30 +1213,18 @@
     <t>LIRQUEN</t>
   </si>
   <si>
-    <t>Lirquén</t>
-  </si>
-  <si>
     <t>LOS VILOS</t>
   </si>
   <si>
-    <t>Los Vilos</t>
-  </si>
-  <si>
     <t>Lota</t>
   </si>
   <si>
     <t>MAHUIL MALAL</t>
   </si>
   <si>
-    <t>Pino Hachado (Liucura)</t>
-  </si>
-  <si>
     <t>MEJILLONES</t>
   </si>
   <si>
-    <t>Mejillones</t>
-  </si>
-  <si>
     <t>MICHILLA</t>
   </si>
   <si>
@@ -1291,9 +1234,6 @@
     <t>NATALES</t>
   </si>
   <si>
-    <t>Natales</t>
-  </si>
-  <si>
     <t>OLLAGUE</t>
   </si>
   <si>
@@ -1312,21 +1252,12 @@
     <t>PATACHE</t>
   </si>
   <si>
-    <t>Patache</t>
-  </si>
-  <si>
     <t>PATILLOS</t>
   </si>
   <si>
-    <t>Patillos</t>
-  </si>
-  <si>
     <t>PENCO</t>
   </si>
   <si>
-    <t>Penco</t>
-  </si>
-  <si>
     <t>PINO HACHADO (LIUCURA)</t>
   </si>
   <si>
@@ -1348,78 +1279,48 @@
     <t>PUNTA ARENAS</t>
   </si>
   <si>
-    <t>Punta Arenas</t>
-  </si>
-  <si>
     <t>Punta Delgada</t>
   </si>
   <si>
     <t>QUINTERO</t>
   </si>
   <si>
-    <t>Quintero</t>
-  </si>
-  <si>
     <t>Salinas</t>
   </si>
   <si>
     <t>SAN ANTONIO</t>
   </si>
   <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
     <t>SAN FRANCISCO</t>
   </si>
   <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
     <t>San Pedro De Atacama</t>
   </si>
   <si>
     <t>SAN SEBASTIAN</t>
   </si>
   <si>
-    <t>San Sebastián</t>
-  </si>
-  <si>
     <t>SAN SEBASTIÁN</t>
   </si>
   <si>
     <t>SAN VICENTE</t>
   </si>
   <si>
-    <t>San Vicente</t>
-  </si>
-  <si>
     <t>TALCAHUANO</t>
   </si>
   <si>
-    <t>Talcahuano</t>
-  </si>
-  <si>
     <t>TOCOPILLA</t>
   </si>
   <si>
-    <t>Tocopilla</t>
-  </si>
-  <si>
     <t>VALPARAISO</t>
   </si>
   <si>
-    <t>Valparaíso</t>
-  </si>
-  <si>
     <t>VALPARAÍSO</t>
   </si>
   <si>
     <t>VENTANAS</t>
   </si>
   <si>
-    <t>Ventanas</t>
-  </si>
-  <si>
     <t>VISVIRI</t>
   </si>
   <si>
@@ -2750,6 +2651,144 @@
   </si>
   <si>
     <t>Otros países</t>
+  </si>
+  <si>
+    <t>Cabo Negro - Tierra del Fuego</t>
+  </si>
+  <si>
+    <t>Puerto de Castro</t>
+  </si>
+  <si>
+    <t>Puerto Chañaral/Barquito</t>
+  </si>
+  <si>
+    <t>Entrada Baker</t>
+  </si>
+  <si>
+    <t>Puerto Guacolda</t>
+  </si>
+  <si>
+    <t>Puerto Los Vilos</t>
+  </si>
+  <si>
+    <t>Puerto Lota</t>
+  </si>
+  <si>
+    <t>Puerto Mejillones</t>
+  </si>
+  <si>
+    <t>Lago Verde</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
+  </si>
+  <si>
+    <t>Paso Agua Negra</t>
+  </si>
+  <si>
+    <t>Paso Chacalluta</t>
+  </si>
+  <si>
+    <t>Paso Chungará</t>
+  </si>
+  <si>
+    <t>Paso Colchane</t>
+  </si>
+  <si>
+    <t>Paso de Huemules</t>
+  </si>
+  <si>
+    <t>Paso de San Francisco</t>
+  </si>
+  <si>
+    <t>Paso Dorotea</t>
+  </si>
+  <si>
+    <t>Paso Los Libertadores</t>
+  </si>
+  <si>
+    <t>Paso Monte Aymond</t>
+  </si>
+  <si>
+    <t>Paso Pino Hachado</t>
+  </si>
+  <si>
+    <t>Paso San Sebastián</t>
+  </si>
+  <si>
+    <t>Puerto Angamos</t>
+  </si>
+  <si>
+    <t>Puerto Chacabuco</t>
+  </si>
+  <si>
+    <t>Puerto Coloso Min. Escondida</t>
+  </si>
+  <si>
+    <t>Puerto de Antofagasta</t>
+  </si>
+  <si>
+    <t>Puerto de Arica</t>
+  </si>
+  <si>
+    <t>Puerto de Calbuco</t>
+  </si>
+  <si>
+    <t>Puerto de Caldera</t>
+  </si>
+  <si>
+    <t>Puerto de Coquimbo</t>
+  </si>
+  <si>
+    <t>Puerto de Coronel</t>
+  </si>
+  <si>
+    <t>Puerto de Corral</t>
+  </si>
+  <si>
+    <t>Puerto de Iquique</t>
+  </si>
+  <si>
+    <t>Puerto de Natales</t>
+  </si>
+  <si>
+    <t>Puerto de Punta Arenas</t>
+  </si>
+  <si>
+    <t>Puerto de Quintero y Ventanas</t>
+  </si>
+  <si>
+    <t>Puerto de Talcahuano</t>
+  </si>
+  <si>
+    <t>Puerto de Tocopilla</t>
+  </si>
+  <si>
+    <t>Puerto Guayacán</t>
+  </si>
+  <si>
+    <t>Puerto Lirquén</t>
+  </si>
+  <si>
+    <t>Puerto Minera Centinela</t>
+  </si>
+  <si>
+    <t>Puerto Patache (Collahuasi)</t>
+  </si>
+  <si>
+    <t>Puerto Patillos</t>
+  </si>
+  <si>
+    <t>Puerto San Antonio</t>
+  </si>
+  <si>
+    <t>Puerto Valparaiso</t>
+  </si>
+  <si>
+    <t>Salinas, Copiapó</t>
+  </si>
+  <si>
+    <t>Puerto de San Vicente</t>
   </si>
 </sst>
 </file>
@@ -3230,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAAD69-D526-4C28-B49C-ADB47BD472D4}">
   <dimension ref="B2:V262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K174" sqref="K174"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3267,15 +3306,15 @@
         <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="P2" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="V3" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -3298,34 +3337,34 @@
         <v>330</v>
       </c>
       <c r="J4" t="s">
-        <v>901</v>
+        <v>868</v>
       </c>
       <c r="K4" t="s">
-        <v>902</v>
+        <v>869</v>
       </c>
       <c r="L4" t="s">
-        <v>903</v>
+        <v>870</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
       </c>
       <c r="P4" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="Q4" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="R4" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="S4" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="T4" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="V4" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
@@ -3333,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3345,7 +3384,7 @@
         <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="K5" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -3358,10 +3397,16 @@
         <v>333</v>
       </c>
       <c r="R5" t="s">
-        <v>465</v>
+        <v>432</v>
+      </c>
+      <c r="S5">
+        <v>-70.793440200000006</v>
+      </c>
+      <c r="T5">
+        <v>-33.396605799</v>
       </c>
       <c r="V5" t="s">
-        <v>466</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.3">
@@ -3381,7 +3426,7 @@
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="K6" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -3393,8 +3438,17 @@
       <c r="Q6" t="s">
         <v>333</v>
       </c>
+      <c r="R6" t="s">
+        <v>432</v>
+      </c>
+      <c r="S6">
+        <v>-70.793440200000006</v>
+      </c>
+      <c r="T6">
+        <v>-33.396605799</v>
+      </c>
       <c r="V6" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
@@ -3414,20 +3468,29 @@
         <v>74</v>
       </c>
       <c r="J7" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="K7" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Germany</v>
       </c>
       <c r="M7" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="P7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="Q7" t="s">
-        <v>336</v>
+        <v>333</v>
+      </c>
+      <c r="R7" t="s">
+        <v>432</v>
+      </c>
+      <c r="S7">
+        <v>-70.793440200000006</v>
+      </c>
+      <c r="T7">
+        <v>-33.396605799</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
@@ -3447,17 +3510,26 @@
         <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="K8" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Andorra</v>
       </c>
       <c r="P8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q8" t="s">
-        <v>338</v>
+        <v>336</v>
+      </c>
+      <c r="R8" t="s">
+        <v>432</v>
+      </c>
+      <c r="S8">
+        <v>-70.845942500000007</v>
+      </c>
+      <c r="T8">
+        <v>-53.014718500000001</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
@@ -3477,17 +3549,26 @@
         <v>76</v>
       </c>
       <c r="J9" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="K9" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Angola</v>
       </c>
       <c r="P9" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q9" t="s">
-        <v>340</v>
+        <v>336</v>
+      </c>
+      <c r="R9" t="s">
+        <v>432</v>
+      </c>
+      <c r="S9">
+        <v>-70.845942500000007</v>
+      </c>
+      <c r="T9">
+        <v>-53.014718500000001</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
@@ -3507,17 +3588,26 @@
         <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="K10" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Anguilla</v>
       </c>
       <c r="P10" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="Q10" t="s">
-        <v>342</v>
+        <v>351</v>
+      </c>
+      <c r="R10" t="s">
+        <v>432</v>
+      </c>
+      <c r="S10">
+        <v>-73.062179</v>
+      </c>
+      <c r="T10">
+        <v>-36.777249300000001</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
@@ -3537,17 +3627,26 @@
         <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="K11" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Antigua and Barbuda</v>
       </c>
       <c r="P11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q11" t="s">
-        <v>344</v>
+        <v>340</v>
+      </c>
+      <c r="R11" t="s">
+        <v>432</v>
+      </c>
+      <c r="S11">
+        <v>-70.337548499999997</v>
+      </c>
+      <c r="T11">
+        <v>-18.348474499999998</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
@@ -3567,17 +3666,26 @@
         <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="K12" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Antigua and Barbuda</v>
       </c>
       <c r="P12" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q12" t="s">
-        <v>333</v>
+        <v>340</v>
+      </c>
+      <c r="R12" t="s">
+        <v>432</v>
+      </c>
+      <c r="S12">
+        <v>-70.337548499999997</v>
+      </c>
+      <c r="T12">
+        <v>-18.348474499999998</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
@@ -3594,20 +3702,29 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="J13" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="K13" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Netherlands Antilles</v>
       </c>
       <c r="P13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q13" t="s">
-        <v>336</v>
+        <v>342</v>
+      </c>
+      <c r="R13" t="s">
+        <v>432</v>
+      </c>
+      <c r="S13">
+        <v>-70.180474000000004</v>
+      </c>
+      <c r="T13">
+        <v>-20.5393291</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
@@ -3624,20 +3741,29 @@
         <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="J14" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="K14" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Netherlands Antilles</v>
       </c>
       <c r="P14" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="Q14" t="s">
-        <v>338</v>
+        <v>342</v>
+      </c>
+      <c r="R14" t="s">
+        <v>432</v>
+      </c>
+      <c r="S14">
+        <v>-70.180474000000004</v>
+      </c>
+      <c r="T14">
+        <v>-20.5393291</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
@@ -3651,22 +3777,31 @@
         <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="K15" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Saudi Arabia</v>
       </c>
       <c r="P15" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q15" t="s">
-        <v>340</v>
+        <v>344</v>
+      </c>
+      <c r="R15" t="s">
+        <v>432</v>
+      </c>
+      <c r="S15">
+        <v>-73.100692199999997</v>
+      </c>
+      <c r="T15">
+        <v>-41.433740700000001</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -3678,25 +3813,34 @@
         <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="K16" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Saudi Arabia</v>
       </c>
       <c r="P16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q16" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="R16" t="s">
+        <v>432</v>
+      </c>
+      <c r="S16">
+        <v>-73.100692199999997</v>
+      </c>
+      <c r="T16">
+        <v>-41.433740700000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="C17" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -3708,22 +3852,31 @@
         <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="K17" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Algeria</v>
       </c>
       <c r="P17" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="Q17" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="R17" t="s">
+        <v>432</v>
+      </c>
+      <c r="S17">
+        <v>-70.618561299999996</v>
+      </c>
+      <c r="T17">
+        <v>-23.673553600000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -3738,22 +3891,31 @@
         <v>85</v>
       </c>
       <c r="J18" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="K18" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Argentina</v>
       </c>
       <c r="P18" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="Q18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="R18" t="s">
+        <v>432</v>
+      </c>
+      <c r="S18">
+        <v>-70.618561299999996</v>
+      </c>
+      <c r="T18">
+        <v>-23.673553600000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="C19" s="2">
         <v>2</v>
@@ -3768,22 +3930,31 @@
         <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="K19" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Armenia</v>
       </c>
       <c r="P19" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+      <c r="R19" t="s">
+        <v>434</v>
+      </c>
+      <c r="S19">
+        <v>-70.201839202715803</v>
+      </c>
+      <c r="T19">
+        <v>-52.785161689134902</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -3798,22 +3969,31 @@
         <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="K20" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Aruba</v>
       </c>
       <c r="P20" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+      <c r="R20" t="s">
+        <v>433</v>
+      </c>
+      <c r="S20">
+        <v>-72.1254359371422</v>
+      </c>
+      <c r="T20">
+        <v>-40.658651181792997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
@@ -3828,22 +4008,31 @@
         <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="K21" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Australia</v>
       </c>
       <c r="P21" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+      <c r="R21" t="s">
+        <v>434</v>
+      </c>
+      <c r="S21">
+        <v>-73.759915752872999</v>
+      </c>
+      <c r="T21">
+        <v>-42.480174256115703</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -3858,22 +4047,31 @@
         <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="K22" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Austria</v>
       </c>
       <c r="P22" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+      <c r="R22" t="s">
+        <v>434</v>
+      </c>
+      <c r="S22">
+        <v>-70.646491935550003</v>
+      </c>
+      <c r="T22">
+        <v>-26.354683999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
@@ -3888,22 +4086,31 @@
         <v>90</v>
       </c>
       <c r="J23" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="K23" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Azerbaijan</v>
       </c>
       <c r="P23" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q23" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+      <c r="R23" t="s">
+        <v>434</v>
+      </c>
+      <c r="S23">
+        <v>-70.646491935550003</v>
+      </c>
+      <c r="T23">
+        <v>-26.354683999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="C24" s="2">
         <v>7</v>
@@ -3918,22 +4125,31 @@
         <v>91</v>
       </c>
       <c r="J24" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="K24" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bahamas</v>
       </c>
       <c r="P24" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="Q24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+      <c r="R24" t="s">
+        <v>434</v>
+      </c>
+      <c r="S24">
+        <v>-70.646491935550003</v>
+      </c>
+      <c r="T24">
+        <v>-26.354683999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="C25" s="2">
         <v>8</v>
@@ -3948,22 +4164,31 @@
         <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="K25" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bahrain</v>
       </c>
       <c r="P25" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="R25" t="s">
+        <v>433</v>
+      </c>
+      <c r="S25">
+        <v>-71.671872333567407</v>
+      </c>
+      <c r="T25">
+        <v>-46.558820092539598</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="C26" s="2">
         <v>9</v>
@@ -3978,22 +4203,31 @@
         <v>93</v>
       </c>
       <c r="J26" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="K26" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bangladesh</v>
       </c>
       <c r="P26" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="Q26" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="R26" t="s">
+        <v>433</v>
+      </c>
+      <c r="S26">
+        <v>-71.578128232810002</v>
+      </c>
+      <c r="T26">
+        <v>-45.553242400000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="C27" s="2">
         <v>10</v>
@@ -4008,22 +4242,31 @@
         <v>94</v>
       </c>
       <c r="J27" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="K27" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Barbados</v>
       </c>
       <c r="P27" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Q27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+      <c r="R27" t="s">
+        <v>433</v>
+      </c>
+      <c r="S27">
+        <v>-71.972330257990194</v>
+      </c>
+      <c r="T27">
+        <v>-47.180007743595603</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
@@ -4035,25 +4278,34 @@
         <v>95</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="K28" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Belarus</v>
       </c>
       <c r="P28" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+      <c r="R28" t="s">
+        <v>434</v>
+      </c>
+      <c r="S28">
+        <v>-71.253377324080006</v>
+      </c>
+      <c r="T28">
+        <v>-28.4699712</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
@@ -4068,20 +4320,29 @@
         <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="K29" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Belgium</v>
       </c>
       <c r="P29" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="Q29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+      <c r="R29" t="s">
+        <v>434</v>
+      </c>
+      <c r="S29">
+        <v>-71.253377324080006</v>
+      </c>
+      <c r="T29">
+        <v>-28.4699712</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>38</v>
       </c>
@@ -4092,20 +4353,29 @@
         <v>97</v>
       </c>
       <c r="J30" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="K30" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Belize</v>
       </c>
       <c r="P30" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="Q30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="R30" t="s">
+        <v>432</v>
+      </c>
+      <c r="S30">
+        <v>-109.350069225909</v>
+      </c>
+      <c r="T30">
+        <v>-27.106174117816199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>39</v>
       </c>
@@ -4116,20 +4386,29 @@
         <v>98</v>
       </c>
       <c r="J31" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="K31" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Benin</v>
       </c>
       <c r="P31" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="Q31" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+      <c r="R31" t="s">
+        <v>434</v>
+      </c>
+      <c r="S31">
+        <v>-71.513752804757203</v>
+      </c>
+      <c r="T31">
+        <v>-31.908589444380102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>40</v>
       </c>
@@ -4140,20 +4419,29 @@
         <v>99</v>
       </c>
       <c r="J32" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="K32" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bermuda</v>
       </c>
       <c r="P32" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="Q32" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+      <c r="R32" t="s">
+        <v>434</v>
+      </c>
+      <c r="S32">
+        <v>-73.159785759936497</v>
+      </c>
+      <c r="T32">
+        <v>-37.097444136667299</v>
+      </c>
+    </row>
+    <row r="33" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>41</v>
       </c>
@@ -4164,20 +4452,29 @@
         <v>100</v>
       </c>
       <c r="J33" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="K33" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bolivia, Plurinational State of</v>
       </c>
       <c r="P33" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="Q33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="34" spans="5:17" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+      <c r="R33" t="s">
+        <v>434</v>
+      </c>
+      <c r="S33">
+        <v>-70.413401679314504</v>
+      </c>
+      <c r="T33">
+        <v>-23.0869543081484</v>
+      </c>
+    </row>
+    <row r="34" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>42</v>
       </c>
@@ -4188,20 +4485,29 @@
         <v>102</v>
       </c>
       <c r="J34" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="K34" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bosnia and Herzegovina</v>
       </c>
       <c r="P34" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="Q34" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="5:17" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+      <c r="R34" t="s">
+        <v>433</v>
+      </c>
+      <c r="S34">
+        <v>-71.852999018235195</v>
+      </c>
+      <c r="T34">
+        <v>-44.228869374436997</v>
+      </c>
+    </row>
+    <row r="35" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>43</v>
       </c>
@@ -4212,20 +4518,29 @@
         <v>102</v>
       </c>
       <c r="J35" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="K35" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bosnia and Herzegovina</v>
       </c>
       <c r="P35" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="Q35" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="R35" t="s">
+        <v>433</v>
+      </c>
+      <c r="S35">
+        <v>-68.229877068437304</v>
+      </c>
+      <c r="T35">
+        <v>-21.213609815808798</v>
+      </c>
+    </row>
+    <row r="36" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>44</v>
       </c>
@@ -4236,20 +4551,23 @@
         <v>103</v>
       </c>
       <c r="J36" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="K36" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Botswana</v>
       </c>
       <c r="P36" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="Q36" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="R36" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="37" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>45</v>
       </c>
@@ -4260,20 +4578,23 @@
         <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="K37" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Brazil</v>
       </c>
       <c r="P37" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="Q37" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="5:17" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="R37" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="38" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>46</v>
       </c>
@@ -4284,20 +4605,29 @@
         <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="K38" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Brunei Darussalam</v>
       </c>
       <c r="P38" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="Q38" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="39" spans="5:17" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+      <c r="R38" t="s">
+        <v>433</v>
+      </c>
+      <c r="S38">
+        <v>-69.825460100000001</v>
+      </c>
+      <c r="T38">
+        <v>-30.192764498999999</v>
+      </c>
+    </row>
+    <row r="39" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>47</v>
       </c>
@@ -4308,20 +4638,29 @@
         <v>106</v>
       </c>
       <c r="J39" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="K39" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Bulgaria</v>
       </c>
       <c r="P39" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="Q39" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="40" spans="5:17" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+      <c r="R39" t="s">
+        <v>433</v>
+      </c>
+      <c r="S39">
+        <v>-70.3326533205</v>
+      </c>
+      <c r="T39">
+        <v>-18.4006193371</v>
+      </c>
+    </row>
+    <row r="40" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>48</v>
       </c>
@@ -4332,20 +4671,29 @@
         <v>108</v>
       </c>
       <c r="J40" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="K40" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Burkina Faso</v>
       </c>
       <c r="P40" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="Q40" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41" spans="5:17" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+      <c r="R40" t="s">
+        <v>433</v>
+      </c>
+      <c r="S40">
+        <v>-70.3326533205</v>
+      </c>
+      <c r="T40">
+        <v>-18.4006193371</v>
+      </c>
+    </row>
+    <row r="41" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>49</v>
       </c>
@@ -4356,20 +4704,29 @@
         <v>108</v>
       </c>
       <c r="J41" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="K41" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Burkina Faso</v>
       </c>
       <c r="P41" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="Q41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="5:17" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+      <c r="R41" t="s">
+        <v>433</v>
+      </c>
+      <c r="S41">
+        <v>-69.166423122599994</v>
+      </c>
+      <c r="T41">
+        <v>-18.300157443300002</v>
+      </c>
+    </row>
+    <row r="42" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>50</v>
       </c>
@@ -4380,20 +4737,29 @@
         <v>109</v>
       </c>
       <c r="J42" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="K42" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cape Verde</v>
       </c>
       <c r="P42" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="Q42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="5:17" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+      <c r="R42" t="s">
+        <v>433</v>
+      </c>
+      <c r="S42">
+        <v>-68.633089347199999</v>
+      </c>
+      <c r="T42">
+        <v>-19.283487170699999</v>
+      </c>
+    </row>
+    <row r="43" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>51</v>
       </c>
@@ -4404,20 +4770,29 @@
         <v>110</v>
       </c>
       <c r="J43" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="K43" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cambodia</v>
       </c>
       <c r="P43" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q43" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="5:17" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+      <c r="R43" t="s">
+        <v>433</v>
+      </c>
+      <c r="S43">
+        <v>-71.648971582000001</v>
+      </c>
+      <c r="T43">
+        <v>-45.914111708999997</v>
+      </c>
+    </row>
+    <row r="44" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>52</v>
       </c>
@@ -4428,20 +4803,29 @@
         <v>111</v>
       </c>
       <c r="J44" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="K44" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cameroon</v>
       </c>
       <c r="P44" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="Q44" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="45" spans="5:17" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+      <c r="R44" t="s">
+        <v>433</v>
+      </c>
+      <c r="S44">
+        <v>-68.299920854575703</v>
+      </c>
+      <c r="T44">
+        <v>-26.873724891487701</v>
+      </c>
+    </row>
+    <row r="45" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>53</v>
       </c>
@@ -4452,20 +4836,29 @@
         <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="K45" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Canada</v>
       </c>
       <c r="P45" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="Q45" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="5:17" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+      <c r="R45" t="s">
+        <v>433</v>
+      </c>
+      <c r="S45">
+        <v>-72.3331304847719</v>
+      </c>
+      <c r="T45">
+        <v>-51.604575796511803</v>
+      </c>
+    </row>
+    <row r="46" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>54</v>
       </c>
@@ -4476,20 +4869,29 @@
         <v>113</v>
       </c>
       <c r="J46" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="K46" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Chad</v>
       </c>
       <c r="P46" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q46" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="47" spans="5:17" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="R46" t="s">
+        <v>433</v>
+      </c>
+      <c r="S46">
+        <v>-68.912685491999994</v>
+      </c>
+      <c r="T46">
+        <v>-22.435607986000001</v>
+      </c>
+    </row>
+    <row r="47" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>55</v>
       </c>
@@ -4500,20 +4902,29 @@
         <v>114</v>
       </c>
       <c r="J47" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="K47" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>China</v>
       </c>
       <c r="P47" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q47" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="48" spans="5:17" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="R47" t="s">
+        <v>433</v>
+      </c>
+      <c r="S47">
+        <v>-68.912685491999994</v>
+      </c>
+      <c r="T47">
+        <v>-22.435607986000001</v>
+      </c>
+    </row>
+    <row r="48" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>56</v>
       </c>
@@ -4524,20 +4935,29 @@
         <v>115</v>
       </c>
       <c r="J48" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="K48" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cyprus</v>
       </c>
       <c r="P48" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="Q48" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="R48" t="s">
+        <v>433</v>
+      </c>
+      <c r="S48">
+        <v>-68.912685491999994</v>
+      </c>
+      <c r="T48">
+        <v>-22.435607986000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>57</v>
       </c>
@@ -4548,20 +4968,29 @@
         <v>287</v>
       </c>
       <c r="J49" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="K49" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>South Africa</v>
       </c>
       <c r="P49" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="Q49" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+      <c r="R49" t="s">
+        <v>433</v>
+      </c>
+      <c r="S49">
+        <v>-70.092133437000001</v>
+      </c>
+      <c r="T49">
+        <v>-32.827278501000002</v>
+      </c>
+    </row>
+    <row r="50" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>18</v>
       </c>
@@ -4572,20 +5001,29 @@
         <v>117</v>
       </c>
       <c r="J50" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="K50" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Colombia</v>
       </c>
       <c r="P50" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="Q50" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+      <c r="R50" t="s">
+        <v>433</v>
+      </c>
+      <c r="S50">
+        <v>-70.092133437000001</v>
+      </c>
+      <c r="T50">
+        <v>-32.827278501000002</v>
+      </c>
+    </row>
+    <row r="51" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -4596,20 +5034,29 @@
         <v>118</v>
       </c>
       <c r="J51" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="K51" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Comoros</v>
       </c>
       <c r="P51" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="Q51" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+      <c r="R51" t="s">
+        <v>433</v>
+      </c>
+      <c r="S51">
+        <v>-69.516268517</v>
+      </c>
+      <c r="T51">
+        <v>-52.146560901000001</v>
+      </c>
+    </row>
+    <row r="52" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>59</v>
       </c>
@@ -4620,20 +5067,29 @@
         <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="K52" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Congo</v>
       </c>
       <c r="P52" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="Q52" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+      <c r="R52" t="s">
+        <v>433</v>
+      </c>
+      <c r="S52">
+        <v>-70.897619860999995</v>
+      </c>
+      <c r="T52">
+        <v>-38.662811273000003</v>
+      </c>
+    </row>
+    <row r="53" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>60</v>
       </c>
@@ -4644,20 +5100,29 @@
         <v>121</v>
       </c>
       <c r="J53" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="K53" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Korea, Republic of</v>
       </c>
       <c r="P53" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q53" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="54" spans="5:17" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+      <c r="R53" t="s">
+        <v>433</v>
+      </c>
+      <c r="S53">
+        <v>-70.897619860999995</v>
+      </c>
+      <c r="T53">
+        <v>-38.662811273000003</v>
+      </c>
+    </row>
+    <row r="54" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>20</v>
       </c>
@@ -4668,20 +5133,29 @@
         <v>121</v>
       </c>
       <c r="J54" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="K54" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Korea, Republic of</v>
       </c>
       <c r="P54" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="Q54" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+      <c r="R54" t="s">
+        <v>433</v>
+      </c>
+      <c r="S54">
+        <v>-68.6662815607</v>
+      </c>
+      <c r="T54">
+        <v>-53.333365847000003</v>
+      </c>
+    </row>
+    <row r="55" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>61</v>
       </c>
@@ -4692,20 +5166,29 @@
         <v>123</v>
       </c>
       <c r="J55" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="K55" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Côte d'Ivoire</v>
       </c>
       <c r="P55" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="Q55" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="56" spans="5:17" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+      <c r="R55" t="s">
+        <v>433</v>
+      </c>
+      <c r="S55">
+        <v>-68.6662815607</v>
+      </c>
+      <c r="T55">
+        <v>-53.333365847000003</v>
+      </c>
+    </row>
+    <row r="56" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>62</v>
       </c>
@@ -4716,20 +5199,29 @@
         <v>123</v>
       </c>
       <c r="J56" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="K56" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Côte d'Ivoire</v>
       </c>
       <c r="P56" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q56" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="57" spans="5:17" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+      <c r="R56" t="s">
+        <v>434</v>
+      </c>
+      <c r="S56">
+        <v>-70.385314216648297</v>
+      </c>
+      <c r="T56">
+        <v>-23.0756948323349</v>
+      </c>
+    </row>
+    <row r="57" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>63</v>
       </c>
@@ -4740,20 +5232,29 @@
         <v>124</v>
       </c>
       <c r="J57" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="K57" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Costa Rica</v>
       </c>
       <c r="P57" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="Q57" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="58" spans="5:17" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+      <c r="R57" t="s">
+        <v>434</v>
+      </c>
+      <c r="S57">
+        <v>-72.829916972000007</v>
+      </c>
+      <c r="T57">
+        <v>-45.485950770700001</v>
+      </c>
+    </row>
+    <row r="58" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>64</v>
       </c>
@@ -4764,20 +5265,29 @@
         <v>125</v>
       </c>
       <c r="J58" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="K58" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Croatia</v>
       </c>
       <c r="P58" t="s">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="Q58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="5:17" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+      <c r="R58" t="s">
+        <v>434</v>
+      </c>
+      <c r="S58">
+        <v>-72.829916972000007</v>
+      </c>
+      <c r="T58">
+        <v>-45.485950770700001</v>
+      </c>
+    </row>
+    <row r="59" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>65</v>
       </c>
@@ -4788,20 +5298,29 @@
         <v>126</v>
       </c>
       <c r="J59" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="K59" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Cuba</v>
       </c>
       <c r="P59" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="Q59" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="60" spans="5:17" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+      <c r="R59" t="s">
+        <v>434</v>
+      </c>
+      <c r="S59">
+        <v>-70.466996612655095</v>
+      </c>
+      <c r="T59">
+        <v>-23.762311861550501</v>
+      </c>
+    </row>
+    <row r="60" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>66</v>
       </c>
@@ -4812,20 +5331,29 @@
         <v>127</v>
       </c>
       <c r="J60" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="K60" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Denmark</v>
       </c>
       <c r="P60" t="s">
-        <v>416</v>
+        <v>353</v>
       </c>
       <c r="Q60" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="61" spans="5:17" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+      <c r="R60" t="s">
+        <v>434</v>
+      </c>
+      <c r="S60">
+        <v>-70.396191109499995</v>
+      </c>
+      <c r="T60">
+        <v>-23.6519178064</v>
+      </c>
+    </row>
+    <row r="61" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>67</v>
       </c>
@@ -4836,20 +5364,29 @@
         <v>128</v>
       </c>
       <c r="J61" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="K61" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Djibouti</v>
       </c>
       <c r="P61" t="s">
-        <v>417</v>
+        <v>354</v>
       </c>
       <c r="Q61" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="62" spans="5:17" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+      <c r="R61" t="s">
+        <v>434</v>
+      </c>
+      <c r="S61">
+        <v>-70.305224336099997</v>
+      </c>
+      <c r="T61">
+        <v>-18.477099338799999</v>
+      </c>
+    </row>
+    <row r="62" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>68</v>
       </c>
@@ -4860,20 +5397,29 @@
         <v>129</v>
       </c>
       <c r="J62" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="K62" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Dominica</v>
       </c>
       <c r="P62" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="Q62" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="63" spans="5:17" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+      <c r="R62" t="s">
+        <v>434</v>
+      </c>
+      <c r="S62">
+        <v>-73.133294846224402</v>
+      </c>
+      <c r="T62">
+        <v>-41.7768213545923</v>
+      </c>
+    </row>
+    <row r="63" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>69</v>
       </c>
@@ -4884,20 +5430,29 @@
         <v>130</v>
       </c>
       <c r="J63" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="K63" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Ecuador</v>
       </c>
       <c r="P63" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="Q63" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="64" spans="5:17" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+      <c r="R63" t="s">
+        <v>434</v>
+      </c>
+      <c r="S63">
+        <v>-70.833292870607195</v>
+      </c>
+      <c r="T63">
+        <v>-27.0554858518461</v>
+      </c>
+    </row>
+    <row r="64" spans="5:20" x14ac:dyDescent="0.3">
       <c r="H64" t="s">
         <v>131</v>
       </c>
@@ -4905,20 +5460,29 @@
         <v>131</v>
       </c>
       <c r="J64" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="K64" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Egypt</v>
       </c>
       <c r="P64" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="Q64" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="65" spans="8:17" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+      <c r="R64" t="s">
+        <v>434</v>
+      </c>
+      <c r="S64">
+        <v>-71.336199650300003</v>
+      </c>
+      <c r="T64">
+        <v>-29.961514365100001</v>
+      </c>
+    </row>
+    <row r="65" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H65" s="1" t="s">
         <v>132</v>
       </c>
@@ -4926,7 +5490,7 @@
         <v>133</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="K65" s="1" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -4936,13 +5500,22 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="P65" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="Q65" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="66" spans="8:17" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+      <c r="R65" t="s">
+        <v>434</v>
+      </c>
+      <c r="S65">
+        <v>-73.159383028700006</v>
+      </c>
+      <c r="T65">
+        <v>-37.009415484900003</v>
+      </c>
+    </row>
+    <row r="66" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H66" t="s">
         <v>133</v>
       </c>
@@ -4950,20 +5523,29 @@
         <v>133</v>
       </c>
       <c r="J66" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="K66" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>El Salvador</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="Q66" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="67" spans="8:17" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+      <c r="R66" t="s">
+        <v>434</v>
+      </c>
+      <c r="S66">
+        <v>-73.421088399300004</v>
+      </c>
+      <c r="T66">
+        <v>-39.893342625800003</v>
+      </c>
+    </row>
+    <row r="67" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H67" t="s">
         <v>134</v>
       </c>
@@ -4971,20 +5553,29 @@
         <v>135</v>
       </c>
       <c r="J67" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="K67" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United Arab Emirates</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="Q67" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="68" spans="8:17" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+      <c r="R67" t="s">
+        <v>434</v>
+      </c>
+      <c r="S67">
+        <v>-70.142613450300004</v>
+      </c>
+      <c r="T67">
+        <v>-20.219107031899998</v>
+      </c>
+    </row>
+    <row r="68" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H68" t="s">
         <v>135</v>
       </c>
@@ -4992,20 +5583,29 @@
         <v>135</v>
       </c>
       <c r="J68" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="K68" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United Arab Emirates</v>
       </c>
       <c r="P68" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="Q68" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="69" spans="8:17" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+      <c r="R68" t="s">
+        <v>434</v>
+      </c>
+      <c r="S68">
+        <v>-72.494762068200004</v>
+      </c>
+      <c r="T68">
+        <v>-51.730830992100003</v>
+      </c>
+    </row>
+    <row r="69" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H69" t="s">
         <v>136</v>
       </c>
@@ -5013,20 +5613,29 @@
         <v>136</v>
       </c>
       <c r="J69" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="K69" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Eritrea</v>
       </c>
       <c r="P69" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="Q69" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="70" spans="8:17" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+      <c r="R69" t="s">
+        <v>434</v>
+      </c>
+      <c r="S69">
+        <v>-70.909403182199995</v>
+      </c>
+      <c r="T69">
+        <v>-53.162342225400003</v>
+      </c>
+    </row>
+    <row r="70" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H70" t="s">
         <v>137</v>
       </c>
@@ -5034,20 +5643,29 @@
         <v>137</v>
       </c>
       <c r="J70" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="K70" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Slovenia</v>
       </c>
       <c r="P70" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="Q70" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="8:17" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+      <c r="R70" t="s">
+        <v>434</v>
+      </c>
+      <c r="S70">
+        <v>-71.526225800000006</v>
+      </c>
+      <c r="T70">
+        <v>-32.776335601</v>
+      </c>
+    </row>
+    <row r="71" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H71" t="s">
         <v>138</v>
       </c>
@@ -5055,62 +5673,89 @@
         <v>138</v>
       </c>
       <c r="J71" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="K71" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Spain</v>
       </c>
       <c r="P71" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q71" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="72" spans="8:17" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+      <c r="R71" t="s">
+        <v>434</v>
+      </c>
+      <c r="S71">
+        <v>-71.526225800000006</v>
+      </c>
+      <c r="T71">
+        <v>-32.776335601</v>
+      </c>
+    </row>
+    <row r="72" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H72" t="s">
         <v>139</v>
       </c>
       <c r="I72" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="J72" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="K72" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United States</v>
       </c>
       <c r="P72" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>907</v>
+      </c>
+      <c r="R72" t="s">
         <v>434</v>
       </c>
-      <c r="Q72" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="73" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="S72">
+        <v>-73.116369958199996</v>
+      </c>
+      <c r="T72">
+        <v>-36.716773508999999</v>
+      </c>
+    </row>
+    <row r="73" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="J73" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="K73" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>United States</v>
       </c>
       <c r="P73" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="Q73" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="74" spans="8:17" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+      <c r="R73" t="s">
+        <v>434</v>
+      </c>
+      <c r="S73">
+        <v>-70.1900243778</v>
+      </c>
+      <c r="T73">
+        <v>-22.085942110800001</v>
+      </c>
+    </row>
+    <row r="74" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>141</v>
       </c>
@@ -5118,20 +5763,29 @@
         <v>141</v>
       </c>
       <c r="J74" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="K74" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Estonia</v>
       </c>
       <c r="P74" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="Q74" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="75" spans="8:17" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+      <c r="R74" t="s">
+        <v>434</v>
+      </c>
+      <c r="S74">
+        <v>-71.345794103725595</v>
+      </c>
+      <c r="T74">
+        <v>-29.9730024131185</v>
+      </c>
+    </row>
+    <row r="75" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>142</v>
       </c>
@@ -5139,20 +5793,29 @@
         <v>142</v>
       </c>
       <c r="J75" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="K75" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Ethiopia</v>
       </c>
       <c r="P75" t="s">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="Q75" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="76" spans="8:17" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="R75" t="s">
+        <v>434</v>
+      </c>
+      <c r="S75">
+        <v>-72.996721752249996</v>
+      </c>
+      <c r="T75">
+        <v>-36.7140469</v>
+      </c>
+    </row>
+    <row r="76" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
         <v>143</v>
       </c>
@@ -5160,20 +5823,29 @@
         <v>143</v>
       </c>
       <c r="J76" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="K76" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Fiji</v>
       </c>
       <c r="P76" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="Q76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="8:17" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+      <c r="R76" t="s">
+        <v>434</v>
+      </c>
+      <c r="S76">
+        <v>-72.996721752249996</v>
+      </c>
+      <c r="T76">
+        <v>-36.7140469</v>
+      </c>
+    </row>
+    <row r="77" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H77" t="s">
         <v>144</v>
       </c>
@@ -5181,20 +5853,29 @@
         <v>144</v>
       </c>
       <c r="J77" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="K77" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Philippines</v>
       </c>
       <c r="P77" t="s">
-        <v>442</v>
+        <v>396</v>
       </c>
       <c r="Q77" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="78" spans="8:17" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+      <c r="R77" t="s">
+        <v>434</v>
+      </c>
+      <c r="S77">
+        <v>-70.279781004835797</v>
+      </c>
+      <c r="T77">
+        <v>-22.731803031364599</v>
+      </c>
+    </row>
+    <row r="78" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H78" t="s">
         <v>145</v>
       </c>
@@ -5202,20 +5883,29 @@
         <v>145</v>
       </c>
       <c r="J78" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="K78" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Finland</v>
       </c>
       <c r="P78" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="Q78" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="79" spans="8:17" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="R78" t="s">
+        <v>434</v>
+      </c>
+      <c r="S78">
+        <v>-72.959645127099705</v>
+      </c>
+      <c r="T78">
+        <v>-41.484629661678198</v>
+      </c>
+    </row>
+    <row r="79" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
         <v>146</v>
       </c>
@@ -5223,20 +5913,29 @@
         <v>146</v>
       </c>
       <c r="J79" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="K79" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>France</v>
       </c>
       <c r="P79" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="Q79" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="80" spans="8:17" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+      <c r="R79" t="s">
+        <v>434</v>
+      </c>
+      <c r="S79">
+        <v>-70.187900561919605</v>
+      </c>
+      <c r="T79">
+        <v>-20.799319319220999</v>
+      </c>
+    </row>
+    <row r="80" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
         <v>147</v>
       </c>
@@ -5244,20 +5943,29 @@
         <v>147</v>
       </c>
       <c r="J80" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="K80" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Gabon</v>
       </c>
       <c r="P80" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="Q80" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="8:17" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+      <c r="R80" t="s">
+        <v>434</v>
+      </c>
+      <c r="S80">
+        <v>-70.183502357144604</v>
+      </c>
+      <c r="T80">
+        <v>-20.739215883378101</v>
+      </c>
+    </row>
+    <row r="81" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
         <v>148</v>
       </c>
@@ -5265,20 +5973,29 @@
         <v>148</v>
       </c>
       <c r="J81" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="K81" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Gambia</v>
       </c>
       <c r="P81" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="Q81" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="82" spans="8:17" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+      <c r="R81" t="s">
+        <v>434</v>
+      </c>
+      <c r="S81">
+        <v>-71.609158978300002</v>
+      </c>
+      <c r="T81">
+        <v>-33.589769635099998</v>
+      </c>
+    </row>
+    <row r="82" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
         <v>149</v>
       </c>
@@ -5286,20 +6003,29 @@
         <v>149</v>
       </c>
       <c r="J82" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="K82" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Georgia</v>
       </c>
       <c r="P82" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="Q82" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="83" spans="8:17" x14ac:dyDescent="0.3">
+        <v>915</v>
+      </c>
+      <c r="R82" t="s">
+        <v>434</v>
+      </c>
+      <c r="S82">
+        <v>-71.630981839200004</v>
+      </c>
+      <c r="T82">
+        <v>-33.026923903899998</v>
+      </c>
+    </row>
+    <row r="83" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H83" t="s">
         <v>150</v>
       </c>
@@ -5307,20 +6033,29 @@
         <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="K83" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Ghana</v>
       </c>
       <c r="P83" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="Q83" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="84" spans="8:17" x14ac:dyDescent="0.3">
+        <v>915</v>
+      </c>
+      <c r="R83" t="s">
+        <v>434</v>
+      </c>
+      <c r="S83">
+        <v>-71.630981839200004</v>
+      </c>
+      <c r="T83">
+        <v>-33.026923903899998</v>
+      </c>
+    </row>
+    <row r="84" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
         <v>151</v>
       </c>
@@ -5328,20 +6063,29 @@
         <v>151</v>
       </c>
       <c r="J84" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="K84" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Gibraltar</v>
       </c>
       <c r="P84" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="Q84" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="85" spans="8:17" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="R84" t="s">
+        <v>434</v>
+      </c>
+      <c r="S84">
+        <v>-67.598401709568606</v>
+      </c>
+      <c r="T84">
+        <v>-54.9315465326995</v>
+      </c>
+    </row>
+    <row r="85" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
         <v>152</v>
       </c>
@@ -5349,20 +6093,29 @@
         <v>152</v>
       </c>
       <c r="J85" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="K85" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Grenada</v>
       </c>
       <c r="P85" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="Q85" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="86" spans="8:17" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="R85" t="s">
+        <v>434</v>
+      </c>
+      <c r="S85">
+        <v>-69.547249111700594</v>
+      </c>
+      <c r="T85">
+        <v>-52.454895002125099</v>
+      </c>
+    </row>
+    <row r="86" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H86" t="s">
         <v>153</v>
       </c>
@@ -5370,20 +6123,29 @@
         <v>153</v>
       </c>
       <c r="J86" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="K86" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Greece</v>
       </c>
       <c r="P86" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="Q86" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="87" spans="8:17" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+      <c r="R86" t="s">
+        <v>433</v>
+      </c>
+      <c r="S86">
+        <v>-69.032204891086494</v>
+      </c>
+      <c r="T86">
+        <v>-26.753378576298999</v>
+      </c>
+    </row>
+    <row r="87" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H87" t="s">
         <v>154</v>
       </c>
@@ -5391,20 +6153,29 @@
         <v>154</v>
       </c>
       <c r="J87" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="K87" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Greenland</v>
       </c>
       <c r="P87" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="Q87" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" spans="8:17" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+      <c r="R87" t="s">
+        <v>434</v>
+      </c>
+      <c r="S87">
+        <v>-73.134882643460401</v>
+      </c>
+      <c r="T87">
+        <v>-36.725682256597501</v>
+      </c>
+    </row>
+    <row r="88" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H88" t="s">
         <v>155</v>
       </c>
@@ -5412,20 +6183,29 @@
         <v>155</v>
       </c>
       <c r="J88" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="K88" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guam</v>
       </c>
       <c r="P88" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="Q88" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="89" spans="8:17" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="R88" t="s">
+        <v>433</v>
+      </c>
+      <c r="S88">
+        <v>-69.476898355054303</v>
+      </c>
+      <c r="T88">
+        <v>-17.594789083152602</v>
+      </c>
+    </row>
+    <row r="89" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H89" t="s">
         <v>156</v>
       </c>
@@ -5433,14 +6213,14 @@
         <v>156</v>
       </c>
       <c r="J89" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="K89" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guatemala</v>
       </c>
     </row>
-    <row r="90" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H90" t="s">
         <v>157</v>
       </c>
@@ -5448,14 +6228,14 @@
         <v>157</v>
       </c>
       <c r="J90" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="K90" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guernsey</v>
       </c>
     </row>
-    <row r="91" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H91" s="1" t="s">
         <v>158</v>
       </c>
@@ -5463,7 +6243,7 @@
         <v>159</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="K91" s="1" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5473,7 +6253,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H92" t="s">
         <v>159</v>
       </c>
@@ -5481,14 +6261,14 @@
         <v>159</v>
       </c>
       <c r="J92" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="K92" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="93" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H93" t="s">
         <v>160</v>
       </c>
@@ -5496,14 +6276,14 @@
         <v>160</v>
       </c>
       <c r="J93" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="K93" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="94" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H94" t="s">
         <v>161</v>
       </c>
@@ -5511,14 +6291,14 @@
         <v>161</v>
       </c>
       <c r="J94" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="K94" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guyana</v>
       </c>
     </row>
-    <row r="95" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H95" t="s">
         <v>162</v>
       </c>
@@ -5526,14 +6306,14 @@
         <v>162</v>
       </c>
       <c r="J95" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="K95" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Haiti</v>
       </c>
     </row>
-    <row r="96" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
@@ -5541,7 +6321,7 @@
         <v>163</v>
       </c>
       <c r="J96" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="K96" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5556,7 +6336,7 @@
         <v>164</v>
       </c>
       <c r="J97" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="K97" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5568,10 +6348,10 @@
         <v>165</v>
       </c>
       <c r="I98" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="J98" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="K98" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5583,10 +6363,10 @@
         <v>166</v>
       </c>
       <c r="I99" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="J99" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="K99" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5601,7 +6381,7 @@
         <v>167</v>
       </c>
       <c r="J100" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="K100" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5616,7 +6396,7 @@
         <v>168</v>
       </c>
       <c r="J101" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="K101" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5631,7 +6411,7 @@
         <v>169</v>
       </c>
       <c r="J102" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="K102" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5646,7 +6426,7 @@
         <v>170</v>
       </c>
       <c r="J103" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="K103" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5661,7 +6441,7 @@
         <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="K104" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5676,7 +6456,7 @@
         <v>171</v>
       </c>
       <c r="J105" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="K105" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5691,7 +6471,7 @@
         <v>173</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="K106" s="1" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5709,7 +6489,7 @@
         <v>173</v>
       </c>
       <c r="J107" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="K107" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5724,7 +6504,7 @@
         <v>174</v>
       </c>
       <c r="J108" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="K108" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5739,7 +6519,7 @@
         <v>175</v>
       </c>
       <c r="J109" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="K109" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5754,7 +6534,7 @@
         <v>178</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="K110" s="1" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5772,7 +6552,7 @@
         <v>178</v>
       </c>
       <c r="J111" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="K111" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5787,7 +6567,7 @@
         <v>178</v>
       </c>
       <c r="J112" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="K112" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5802,7 +6582,7 @@
         <v>179</v>
       </c>
       <c r="J113" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="K113" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5817,7 +6597,7 @@
         <v>180</v>
       </c>
       <c r="J114" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="K114" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5832,7 +6612,7 @@
         <v>181</v>
       </c>
       <c r="J115" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="K115" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5847,7 +6627,7 @@
         <v>182</v>
       </c>
       <c r="J116" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="K116" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5862,7 +6642,7 @@
         <v>183</v>
       </c>
       <c r="J117" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="K117" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5877,7 +6657,7 @@
         <v>184</v>
       </c>
       <c r="J118" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="K118" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5892,7 +6672,7 @@
         <v>185</v>
       </c>
       <c r="J119" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="K119" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5907,7 +6687,7 @@
         <v>186</v>
       </c>
       <c r="J120" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="K120" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5922,7 +6702,7 @@
         <v>187</v>
       </c>
       <c r="J121" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="K121" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5937,7 +6717,7 @@
         <v>188</v>
       </c>
       <c r="J122" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="K122" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5952,7 +6732,7 @@
         <v>189</v>
       </c>
       <c r="J123" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="K123" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5967,7 +6747,7 @@
         <v>190</v>
       </c>
       <c r="J124" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="K124" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5982,7 +6762,7 @@
         <v>191</v>
       </c>
       <c r="J125" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="K125" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -5997,7 +6777,7 @@
         <v>192</v>
       </c>
       <c r="J126" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="K126" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6012,7 +6792,7 @@
         <v>193</v>
       </c>
       <c r="J127" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="K127" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6027,7 +6807,7 @@
         <v>194</v>
       </c>
       <c r="J128" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="K128" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6042,7 +6822,7 @@
         <v>195</v>
       </c>
       <c r="J129" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="K129" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6057,7 +6837,7 @@
         <v>196</v>
       </c>
       <c r="J130" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="K130" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6072,7 +6852,7 @@
         <v>197</v>
       </c>
       <c r="J131" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="K131" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6087,7 +6867,7 @@
         <v>198</v>
       </c>
       <c r="J132" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="K132" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6102,7 +6882,7 @@
         <v>199</v>
       </c>
       <c r="J133" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="K133" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6117,7 +6897,7 @@
         <v>200</v>
       </c>
       <c r="J134" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="K134" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6132,7 +6912,7 @@
         <v>201</v>
       </c>
       <c r="J135" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="K135" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6147,7 +6927,7 @@
         <v>202</v>
       </c>
       <c r="J136" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="K136" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6162,7 +6942,7 @@
         <v>203</v>
       </c>
       <c r="J137" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="K137" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6177,7 +6957,7 @@
         <v>204</v>
       </c>
       <c r="J138" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="K138" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6192,7 +6972,7 @@
         <v>205</v>
       </c>
       <c r="J139" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="K139" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6207,7 +6987,7 @@
         <v>206</v>
       </c>
       <c r="J140" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="K140" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6222,7 +7002,7 @@
         <v>207</v>
       </c>
       <c r="J141" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="K141" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6237,7 +7017,7 @@
         <v>208</v>
       </c>
       <c r="J142" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="K142" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6252,7 +7032,7 @@
         <v>209</v>
       </c>
       <c r="J143" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="K143" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6267,7 +7047,7 @@
         <v>210</v>
       </c>
       <c r="J144" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="K144" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6282,7 +7062,7 @@
         <v>211</v>
       </c>
       <c r="J145" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="K145" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6297,7 +7077,7 @@
         <v>212</v>
       </c>
       <c r="J146" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="K146" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6312,7 +7092,7 @@
         <v>213</v>
       </c>
       <c r="J147" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="K147" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6327,7 +7107,7 @@
         <v>214</v>
       </c>
       <c r="J148" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="K148" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6342,7 +7122,7 @@
         <v>215</v>
       </c>
       <c r="J149" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="K149" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6357,7 +7137,7 @@
         <v>216</v>
       </c>
       <c r="J150" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="K150" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6372,7 +7152,7 @@
         <v>217</v>
       </c>
       <c r="J151" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="K151" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6387,7 +7167,7 @@
         <v>218</v>
       </c>
       <c r="J152" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="K152" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6402,7 +7182,7 @@
         <v>219</v>
       </c>
       <c r="J153" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="K153" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6417,7 +7197,7 @@
         <v>220</v>
       </c>
       <c r="J154" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="K154" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6432,7 +7212,7 @@
         <v>221</v>
       </c>
       <c r="J155" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="K155" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6447,7 +7227,7 @@
         <v>222</v>
       </c>
       <c r="J156" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="K156" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6462,7 +7242,7 @@
         <v>223</v>
       </c>
       <c r="J157" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="K157" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6477,7 +7257,7 @@
         <v>224</v>
       </c>
       <c r="J158" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="K158" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6492,7 +7272,7 @@
         <v>224</v>
       </c>
       <c r="J159" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="K159" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6507,7 +7287,7 @@
         <v>226</v>
       </c>
       <c r="J160" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="K160" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6522,7 +7302,7 @@
         <v>227</v>
       </c>
       <c r="J161" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="K161" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6537,7 +7317,7 @@
         <v>228</v>
       </c>
       <c r="J162" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="K162" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6552,7 +7332,7 @@
         <v>229</v>
       </c>
       <c r="J163" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="K163" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6567,7 +7347,7 @@
         <v>230</v>
       </c>
       <c r="J164" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="K164" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6582,7 +7362,7 @@
         <v>231</v>
       </c>
       <c r="J165" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="K165" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6597,7 +7377,7 @@
         <v>232</v>
       </c>
       <c r="J166" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="K166" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6612,7 +7392,7 @@
         <v>233</v>
       </c>
       <c r="J167" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="K167" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6627,7 +7407,7 @@
         <v>235</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="K168" s="1" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6645,7 +7425,7 @@
         <v>235</v>
       </c>
       <c r="J169" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="K169" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6660,7 +7440,7 @@
         <v>236</v>
       </c>
       <c r="J170" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="K170" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6675,7 +7455,7 @@
         <v>237</v>
       </c>
       <c r="J171" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="K171" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6690,10 +7470,10 @@
         <v>239</v>
       </c>
       <c r="J172" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="K172" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
     </row>
     <row r="173" spans="8:14" x14ac:dyDescent="0.3">
@@ -6704,10 +7484,10 @@
         <v>239</v>
       </c>
       <c r="J173" t="s">
-        <v>900</v>
+        <v>867</v>
       </c>
       <c r="K173" t="s">
-        <v>904</v>
+        <v>871</v>
       </c>
     </row>
     <row r="174" spans="8:14" x14ac:dyDescent="0.3">
@@ -6718,7 +7498,7 @@
         <v>240</v>
       </c>
       <c r="J174" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="K174" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6733,7 +7513,7 @@
         <v>241</v>
       </c>
       <c r="J175" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="K175" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6748,7 +7528,7 @@
         <v>242</v>
       </c>
       <c r="J176" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="K176" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6763,7 +7543,7 @@
         <v>244</v>
       </c>
       <c r="J177" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="K177" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6778,7 +7558,7 @@
         <v>244</v>
       </c>
       <c r="J178" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="K178" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6793,7 +7573,7 @@
         <v>245</v>
       </c>
       <c r="J179" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="K179" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6808,7 +7588,7 @@
         <v>246</v>
       </c>
       <c r="J180" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="K180" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6823,7 +7603,7 @@
         <v>248</v>
       </c>
       <c r="J181" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="K181" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6838,7 +7618,7 @@
         <v>248</v>
       </c>
       <c r="J182" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="K182" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6853,7 +7633,7 @@
         <v>249</v>
       </c>
       <c r="J183" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="K183" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6868,7 +7648,7 @@
         <v>250</v>
       </c>
       <c r="J184" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="K184" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6883,7 +7663,7 @@
         <v>252</v>
       </c>
       <c r="J185" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="K185" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6898,7 +7678,7 @@
         <v>252</v>
       </c>
       <c r="J186" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="K186" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6913,7 +7693,7 @@
         <v>253</v>
       </c>
       <c r="J187" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="K187" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6928,7 +7708,7 @@
         <v>255</v>
       </c>
       <c r="J188" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="K188" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6943,7 +7723,7 @@
         <v>255</v>
       </c>
       <c r="J189" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="K189" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6958,7 +7738,7 @@
         <v>257</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="K190" s="1" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6976,7 +7756,7 @@
         <v>257</v>
       </c>
       <c r="J191" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="K191" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -6991,7 +7771,7 @@
         <v>258</v>
       </c>
       <c r="J192" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="K192" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7006,7 +7786,7 @@
         <v>259</v>
       </c>
       <c r="J193" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="K193" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7021,7 +7801,7 @@
         <v>260</v>
       </c>
       <c r="J194" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="K194" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7036,7 +7816,7 @@
         <v>261</v>
       </c>
       <c r="J195" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="K195" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7051,7 +7831,7 @@
         <v>262</v>
       </c>
       <c r="J196" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="K196" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7066,7 +7846,7 @@
         <v>263</v>
       </c>
       <c r="J197" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="K197" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7081,7 +7861,7 @@
         <v>264</v>
       </c>
       <c r="J198" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="K198" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7096,7 +7876,7 @@
         <v>265</v>
       </c>
       <c r="J199" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="K199" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7111,7 +7891,7 @@
         <v>267</v>
       </c>
       <c r="J200" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="K200" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7126,7 +7906,7 @@
         <v>267</v>
       </c>
       <c r="J201" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="K201" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7141,7 +7921,7 @@
         <v>269</v>
       </c>
       <c r="J202" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="K202" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7156,7 +7936,7 @@
         <v>269</v>
       </c>
       <c r="J203" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="K203" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7171,7 +7951,7 @@
         <v>271</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="K204" s="1" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7189,7 +7969,7 @@
         <v>271</v>
       </c>
       <c r="J205" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="K205" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7204,7 +7984,7 @@
         <v>272</v>
       </c>
       <c r="J206" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="K206" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7219,7 +7999,7 @@
         <v>274</v>
       </c>
       <c r="J207" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="K207" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7234,7 +8014,7 @@
         <v>274</v>
       </c>
       <c r="J208" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="K208" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7249,7 +8029,7 @@
         <v>275</v>
       </c>
       <c r="J209" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="K209" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7264,7 +8044,7 @@
         <v>277</v>
       </c>
       <c r="J210" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="K210" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7279,7 +8059,7 @@
         <v>277</v>
       </c>
       <c r="J211" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="K211" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7294,7 +8074,7 @@
         <v>278</v>
       </c>
       <c r="J212" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="K212" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7309,7 +8089,7 @@
         <v>279</v>
       </c>
       <c r="J213" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="K213" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7324,7 +8104,7 @@
         <v>281</v>
       </c>
       <c r="J214" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="K214" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7339,7 +8119,7 @@
         <v>281</v>
       </c>
       <c r="J215" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="K215" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7354,7 +8134,7 @@
         <v>282</v>
       </c>
       <c r="J216" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="K216" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7369,7 +8149,7 @@
         <v>283</v>
       </c>
       <c r="J217" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="K217" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7384,7 +8164,7 @@
         <v>284</v>
       </c>
       <c r="J218" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="K218" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7399,7 +8179,7 @@
         <v>286</v>
       </c>
       <c r="J219" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="K219" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7414,7 +8194,7 @@
         <v>286</v>
       </c>
       <c r="J220" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="K220" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7429,7 +8209,7 @@
         <v>287</v>
       </c>
       <c r="J221" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="K221" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7444,7 +8224,7 @@
         <v>288</v>
       </c>
       <c r="J222" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="K222" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7459,7 +8239,7 @@
         <v>289</v>
       </c>
       <c r="J223" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="K223" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7474,7 +8254,7 @@
         <v>290</v>
       </c>
       <c r="J224" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="K224" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7489,7 +8269,7 @@
         <v>291</v>
       </c>
       <c r="J225" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="K225" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7504,7 +8284,7 @@
         <v>292</v>
       </c>
       <c r="J226" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="K226" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7519,7 +8299,7 @@
         <v>293</v>
       </c>
       <c r="J227" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="K227" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7534,7 +8314,7 @@
         <v>294</v>
       </c>
       <c r="J228" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="K228" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7549,7 +8329,7 @@
         <v>295</v>
       </c>
       <c r="J229" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="K229" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7564,7 +8344,7 @@
         <v>295</v>
       </c>
       <c r="J230" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="K230" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7579,7 +8359,7 @@
         <v>297</v>
       </c>
       <c r="J231" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="K231" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7594,7 +8374,7 @@
         <v>298</v>
       </c>
       <c r="J232" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="K232" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7609,7 +8389,7 @@
         <v>299</v>
       </c>
       <c r="J233" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="K233" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7624,7 +8404,7 @@
         <v>300</v>
       </c>
       <c r="J234" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="K234" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7639,7 +8419,7 @@
         <v>301</v>
       </c>
       <c r="J235" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="K235" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7654,7 +8434,7 @@
         <v>302</v>
       </c>
       <c r="J236" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="K236" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7669,7 +8449,7 @@
         <v>303</v>
       </c>
       <c r="J237" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="K237" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7684,7 +8464,7 @@
         <v>304</v>
       </c>
       <c r="J238" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="K238" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7699,7 +8479,7 @@
         <v>305</v>
       </c>
       <c r="J239" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="K239" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7714,7 +8494,7 @@
         <v>306</v>
       </c>
       <c r="J240" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="K240" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7729,7 +8509,7 @@
         <v>307</v>
       </c>
       <c r="J241" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
       <c r="K241" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7744,7 +8524,7 @@
         <v>308</v>
       </c>
       <c r="J242" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="K242" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7759,7 +8539,7 @@
         <v>309</v>
       </c>
       <c r="J243" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="K243" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7774,7 +8554,7 @@
         <v>310</v>
       </c>
       <c r="J244" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="K244" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7789,7 +8569,7 @@
         <v>311</v>
       </c>
       <c r="J245" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="K245" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7804,7 +8584,7 @@
         <v>313</v>
       </c>
       <c r="J246" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="K246" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7819,7 +8599,7 @@
         <v>313</v>
       </c>
       <c r="J247" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="K247" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7834,7 +8614,7 @@
         <v>314</v>
       </c>
       <c r="J248" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="K248" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7849,7 +8629,7 @@
         <v>316</v>
       </c>
       <c r="J249" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="K249" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7864,7 +8644,7 @@
         <v>316</v>
       </c>
       <c r="J250" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="K250" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7879,7 +8659,7 @@
         <v>317</v>
       </c>
       <c r="J251" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="K251" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7894,7 +8674,7 @@
         <v>318</v>
       </c>
       <c r="J252" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="K252" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7909,7 +8689,7 @@
         <v>319</v>
       </c>
       <c r="J253" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="K253" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7924,7 +8704,7 @@
         <v>320</v>
       </c>
       <c r="J254" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
       <c r="K254" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7939,7 +8719,7 @@
         <v>321</v>
       </c>
       <c r="J255" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
       <c r="K255" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7954,7 +8734,7 @@
         <v>322</v>
       </c>
       <c r="J256" t="s">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="K256" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7969,7 +8749,7 @@
         <v>323</v>
       </c>
       <c r="J257" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="K257" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7984,7 +8764,7 @@
         <v>324</v>
       </c>
       <c r="J258" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
       <c r="K258" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -7999,7 +8779,7 @@
         <v>325</v>
       </c>
       <c r="J259" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
       <c r="K259" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -8014,7 +8794,7 @@
         <v>326</v>
       </c>
       <c r="J260" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="K260" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -8029,7 +8809,7 @@
         <v>327</v>
       </c>
       <c r="J261" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="K261" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -8044,7 +8824,7 @@
         <v>328</v>
       </c>
       <c r="J262" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="K262" t="str">
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
@@ -8099,21 +8879,21 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="D2" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="E2" t="s">
-        <v>902</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="E3" t="str">
         <f>+C3</f>
@@ -8122,10 +8902,10 @@
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>899</v>
+        <v>866</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E67" si="0">+C4</f>
@@ -8137,7 +8917,7 @@
         <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -8146,10 +8926,10 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>780</v>
+        <v>747</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -8158,10 +8938,10 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -8173,7 +8953,7 @@
         <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -8185,7 +8965,7 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -8194,10 +8974,10 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -8206,10 +8986,10 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>746</v>
+        <v>713</v>
       </c>
       <c r="D11" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -8218,10 +8998,10 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>748</v>
+        <v>715</v>
       </c>
       <c r="D12" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -8233,7 +9013,7 @@
         <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -8245,7 +9025,7 @@
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -8257,7 +9037,7 @@
         <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>461</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -8269,7 +9049,7 @@
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -8281,7 +9061,7 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -8290,10 +9070,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>749</v>
+        <v>716</v>
       </c>
       <c r="D18" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -8305,7 +9085,7 @@
         <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -8314,10 +9094,10 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>752</v>
+        <v>719</v>
       </c>
       <c r="D20" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -8329,7 +9109,7 @@
         <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -8341,7 +9121,7 @@
         <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -8353,7 +9133,7 @@
         <v>95</v>
       </c>
       <c r="D23" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -8362,10 +9142,10 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="D24" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -8374,10 +9154,10 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>755</v>
+        <v>722</v>
       </c>
       <c r="D25" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -8389,7 +9169,7 @@
         <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -8398,10 +9178,10 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="D27" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
@@ -8410,10 +9190,10 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="D28" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -8422,10 +9202,10 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
-        <v>757</v>
+        <v>724</v>
       </c>
       <c r="D29" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -8434,10 +9214,10 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="D30" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
@@ -8449,7 +9229,7 @@
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -8458,10 +9238,10 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="D32" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -8470,10 +9250,10 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="D33" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
@@ -8482,10 +9262,10 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>805</v>
+        <v>772</v>
       </c>
       <c r="D34" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -8494,10 +9274,10 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="D35" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -8509,7 +9289,7 @@
         <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
@@ -8521,7 +9301,7 @@
         <v>108</v>
       </c>
       <c r="D37" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -8530,10 +9310,10 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>750</v>
+        <v>717</v>
       </c>
       <c r="D38" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
@@ -8545,7 +9325,7 @@
         <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -8554,10 +9334,10 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="D40" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
@@ -8566,10 +9346,10 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="D41" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
@@ -8578,10 +9358,10 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>772</v>
+        <v>739</v>
       </c>
       <c r="D42" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
@@ -8590,10 +9370,10 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>774</v>
+        <v>741</v>
       </c>
       <c r="D43" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
@@ -8602,10 +9382,10 @@
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="D44" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
@@ -8617,7 +9397,7 @@
         <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
@@ -8626,10 +9406,10 @@
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="D46" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
@@ -8641,7 +9421,7 @@
         <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
@@ -8650,10 +9430,10 @@
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="D48" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
@@ -8662,10 +9442,10 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="D49" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
@@ -8677,7 +9457,7 @@
         <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
@@ -8686,10 +9466,10 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="D51" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
@@ -8701,7 +9481,7 @@
         <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
@@ -8710,10 +9490,10 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="D53" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
@@ -8722,10 +9502,10 @@
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
-        <v>770</v>
+        <v>737</v>
       </c>
       <c r="D54" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -8737,7 +9517,7 @@
         <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
@@ -8746,10 +9526,10 @@
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
-        <v>767</v>
+        <v>734</v>
       </c>
       <c r="D56" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
@@ -8758,10 +9538,10 @@
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
-        <v>801</v>
+        <v>768</v>
       </c>
       <c r="D57" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
@@ -8773,7 +9553,7 @@
         <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
@@ -8782,10 +9562,10 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
-        <v>775</v>
+        <v>742</v>
       </c>
       <c r="D59" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
@@ -8794,10 +9574,10 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
-        <v>776</v>
+        <v>743</v>
       </c>
       <c r="D60" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
@@ -8806,10 +9586,10 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="D61" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
@@ -8821,7 +9601,7 @@
         <v>128</v>
       </c>
       <c r="D62" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
@@ -8833,7 +9613,7 @@
         <v>129</v>
       </c>
       <c r="D63" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
@@ -8842,10 +9622,10 @@
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
-        <v>779</v>
+        <v>746</v>
       </c>
       <c r="D64" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
@@ -8857,7 +9637,7 @@
         <v>130</v>
       </c>
       <c r="D65" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -8866,10 +9646,10 @@
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
-        <v>781</v>
+        <v>748</v>
       </c>
       <c r="D66" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
@@ -8881,7 +9661,7 @@
         <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
@@ -8890,10 +9670,10 @@
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
-        <v>794</v>
+        <v>761</v>
       </c>
       <c r="D68" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ref="E68:E131" si="1">+C68</f>
@@ -8905,7 +9685,7 @@
         <v>136</v>
       </c>
       <c r="D69" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
@@ -8917,7 +9697,7 @@
         <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
@@ -8926,10 +9706,10 @@
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="D71" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
@@ -8938,10 +9718,10 @@
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
-        <v>786</v>
+        <v>753</v>
       </c>
       <c r="D72" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
@@ -8950,10 +9730,10 @@
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
-        <v>788</v>
+        <v>755</v>
       </c>
       <c r="D73" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
@@ -8965,7 +9745,7 @@
         <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
@@ -8974,10 +9754,10 @@
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
-        <v>785</v>
+        <v>752</v>
       </c>
       <c r="D75" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
@@ -8986,10 +9766,10 @@
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="D76" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
@@ -8998,10 +9778,10 @@
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
-        <v>798</v>
+        <v>765</v>
       </c>
       <c r="D77" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
@@ -9010,10 +9790,10 @@
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
-        <v>854</v>
+        <v>821</v>
       </c>
       <c r="D78" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
@@ -9022,10 +9802,10 @@
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
-        <v>747</v>
+        <v>714</v>
       </c>
       <c r="D79" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
@@ -9034,10 +9814,10 @@
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
-        <v>790</v>
+        <v>757</v>
       </c>
       <c r="D80" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
@@ -9049,7 +9829,7 @@
         <v>148</v>
       </c>
       <c r="D81" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
@@ -9061,7 +9841,7 @@
         <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
@@ -9070,10 +9850,10 @@
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
-        <v>777</v>
+        <v>744</v>
       </c>
       <c r="D83" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
@@ -9085,7 +9865,7 @@
         <v>150</v>
       </c>
       <c r="D84" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
@@ -9097,7 +9877,7 @@
         <v>151</v>
       </c>
       <c r="D85" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
@@ -9106,10 +9886,10 @@
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>795</v>
+        <v>762</v>
       </c>
       <c r="D86" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
@@ -9118,10 +9898,10 @@
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="D87" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
@@ -9130,10 +9910,10 @@
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>796</v>
+        <v>763</v>
       </c>
       <c r="D88" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
@@ -9142,10 +9922,10 @@
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
-        <v>792</v>
+        <v>759</v>
       </c>
       <c r="D89" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
@@ -9157,7 +9937,7 @@
         <v>155</v>
       </c>
       <c r="D90" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
@@ -9169,7 +9949,7 @@
         <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
@@ -9181,7 +9961,7 @@
         <v>157</v>
       </c>
       <c r="D92" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
@@ -9193,7 +9973,7 @@
         <v>158</v>
       </c>
       <c r="D93" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
@@ -9202,10 +9982,10 @@
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
-        <v>793</v>
+        <v>760</v>
       </c>
       <c r="D94" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
@@ -9217,7 +9997,7 @@
         <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
@@ -9226,10 +10006,10 @@
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>802</v>
+        <v>769</v>
       </c>
       <c r="D96" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
@@ -9238,10 +10018,10 @@
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
-        <v>800</v>
+        <v>767</v>
       </c>
       <c r="D97" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
@@ -9250,10 +10030,10 @@
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="D98" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
@@ -9265,7 +10045,7 @@
         <v>164</v>
       </c>
       <c r="D99" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
@@ -9274,10 +10054,10 @@
     </row>
     <row r="100" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
-        <v>799</v>
+        <v>766</v>
       </c>
       <c r="D100" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
@@ -9286,10 +10066,10 @@
     </row>
     <row r="101" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
-        <v>803</v>
+        <v>770</v>
       </c>
       <c r="D101" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
@@ -9298,10 +10078,10 @@
     </row>
     <row r="102" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
-        <v>808</v>
+        <v>775</v>
       </c>
       <c r="D102" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
@@ -9313,7 +10093,7 @@
         <v>168</v>
       </c>
       <c r="D103" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
@@ -9325,7 +10105,7 @@
         <v>169</v>
       </c>
       <c r="D104" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
@@ -9334,10 +10114,10 @@
     </row>
     <row r="105" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>807</v>
+        <v>774</v>
       </c>
       <c r="D105" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
@@ -9349,7 +10129,7 @@
         <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
@@ -9358,10 +10138,10 @@
     </row>
     <row r="107" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
-        <v>806</v>
+        <v>773</v>
       </c>
       <c r="D107" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
@@ -9370,10 +10150,10 @@
     </row>
     <row r="108" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="D108" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
@@ -9385,7 +10165,7 @@
         <v>185</v>
       </c>
       <c r="D109" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
@@ -9394,10 +10174,10 @@
     </row>
     <row r="110" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="D110" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
@@ -9409,7 +10189,7 @@
         <v>187</v>
       </c>
       <c r="D111" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
@@ -9418,10 +10198,10 @@
     </row>
     <row r="112" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
       <c r="D112" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
@@ -9433,7 +10213,7 @@
         <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
@@ -9442,10 +10222,10 @@
     </row>
     <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
-        <v>810</v>
+        <v>777</v>
       </c>
       <c r="D114" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
@@ -9454,10 +10234,10 @@
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
-        <v>812</v>
+        <v>779</v>
       </c>
       <c r="D115" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
@@ -9466,10 +10246,10 @@
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
-        <v>813</v>
+        <v>780</v>
       </c>
       <c r="D116" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
@@ -9481,7 +10261,7 @@
         <v>194</v>
       </c>
       <c r="D117" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
@@ -9490,10 +10270,10 @@
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="D118" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
@@ -9502,10 +10282,10 @@
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>816</v>
+        <v>783</v>
       </c>
       <c r="D119" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
@@ -9517,7 +10297,7 @@
         <v>195</v>
       </c>
       <c r="D120" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
@@ -9526,10 +10306,10 @@
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
       <c r="D121" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
@@ -9538,10 +10318,10 @@
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
-        <v>817</v>
+        <v>784</v>
       </c>
       <c r="D122" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
@@ -9550,10 +10330,10 @@
     </row>
     <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
-        <v>823</v>
+        <v>790</v>
       </c>
       <c r="D123" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
@@ -9562,10 +10342,10 @@
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
-        <v>818</v>
+        <v>785</v>
       </c>
       <c r="D124" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
@@ -9577,7 +10357,7 @@
         <v>197</v>
       </c>
       <c r="D125" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
@@ -9589,7 +10369,7 @@
         <v>200</v>
       </c>
       <c r="D126" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
@@ -9598,10 +10378,10 @@
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
-        <v>819</v>
+        <v>786</v>
       </c>
       <c r="D127" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
@@ -9613,7 +10393,7 @@
         <v>202</v>
       </c>
       <c r="D128" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="1"/>
@@ -9622,10 +10402,10 @@
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
-        <v>821</v>
+        <v>788</v>
       </c>
       <c r="D129" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="1"/>
@@ -9634,10 +10414,10 @@
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
-        <v>822</v>
+        <v>789</v>
       </c>
       <c r="D130" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="1"/>
@@ -9649,7 +10429,7 @@
         <v>205</v>
       </c>
       <c r="D131" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="1"/>
@@ -9658,10 +10438,10 @@
     </row>
     <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
-        <v>831</v>
+        <v>798</v>
       </c>
       <c r="D132" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" ref="E132:E195" si="2">+C132</f>
@@ -9673,7 +10453,7 @@
         <v>207</v>
       </c>
       <c r="D133" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
@@ -9685,7 +10465,7 @@
         <v>209</v>
       </c>
       <c r="D134" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
@@ -9694,10 +10474,10 @@
     </row>
     <row r="135" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="D135" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
@@ -9706,10 +10486,10 @@
     </row>
     <row r="136" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
-        <v>828</v>
+        <v>795</v>
       </c>
       <c r="D136" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
@@ -9721,7 +10501,7 @@
         <v>210</v>
       </c>
       <c r="D137" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
@@ -9733,7 +10513,7 @@
         <v>211</v>
       </c>
       <c r="D138" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
@@ -9742,10 +10522,10 @@
     </row>
     <row r="139" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
-        <v>830</v>
+        <v>797</v>
       </c>
       <c r="D139" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
@@ -9754,10 +10534,10 @@
     </row>
     <row r="140" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
-        <v>834</v>
+        <v>801</v>
       </c>
       <c r="D140" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
@@ -9769,7 +10549,7 @@
         <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
@@ -9778,10 +10558,10 @@
     </row>
     <row r="142" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
-        <v>835</v>
+        <v>802</v>
       </c>
       <c r="D142" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
@@ -9790,10 +10570,10 @@
     </row>
     <row r="143" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
-        <v>837</v>
+        <v>804</v>
       </c>
       <c r="D143" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
@@ -9802,10 +10582,10 @@
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="D144" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
@@ -9814,10 +10594,10 @@
     </row>
     <row r="145" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
-        <v>789</v>
+        <v>756</v>
       </c>
       <c r="D145" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
@@ -9826,10 +10606,10 @@
     </row>
     <row r="146" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
-        <v>827</v>
+        <v>794</v>
       </c>
       <c r="D146" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
@@ -9838,10 +10618,10 @@
     </row>
     <row r="147" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>826</v>
+        <v>793</v>
       </c>
       <c r="D147" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
@@ -9853,7 +10633,7 @@
         <v>220</v>
       </c>
       <c r="D148" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="2"/>
@@ -9865,7 +10645,7 @@
         <v>222</v>
       </c>
       <c r="D149" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="2"/>
@@ -9874,10 +10654,10 @@
     </row>
     <row r="150" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="D150" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
@@ -9886,10 +10666,10 @@
     </row>
     <row r="151" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>825</v>
+        <v>792</v>
       </c>
       <c r="D151" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
@@ -9901,7 +10681,7 @@
         <v>223</v>
       </c>
       <c r="D152" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="2"/>
@@ -9913,7 +10693,7 @@
         <v>224</v>
       </c>
       <c r="D153" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="2"/>
@@ -9925,7 +10705,7 @@
         <v>226</v>
       </c>
       <c r="D154" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="2"/>
@@ -9937,7 +10717,7 @@
         <v>227</v>
       </c>
       <c r="D155" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="2"/>
@@ -9949,7 +10729,7 @@
         <v>228</v>
       </c>
       <c r="D156" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="E156" t="str">
         <f t="shared" si="2"/>
@@ -9958,10 +10738,10 @@
     </row>
     <row r="157" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
-        <v>840</v>
+        <v>807</v>
       </c>
       <c r="D157" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
@@ -9970,10 +10750,10 @@
     </row>
     <row r="158" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
       <c r="D158" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="E158" t="str">
         <f t="shared" si="2"/>
@@ -9982,10 +10762,10 @@
     </row>
     <row r="159" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
-        <v>838</v>
+        <v>805</v>
       </c>
       <c r="D159" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="E159" t="str">
         <f t="shared" si="2"/>
@@ -9994,10 +10774,10 @@
     </row>
     <row r="160" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="D160" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="E160" t="str">
         <f t="shared" si="2"/>
@@ -10009,7 +10789,7 @@
         <v>229</v>
       </c>
       <c r="D161" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
@@ -10021,7 +10801,7 @@
         <v>230</v>
       </c>
       <c r="D162" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="E162" t="str">
         <f t="shared" si="2"/>
@@ -10033,7 +10813,7 @@
         <v>231</v>
       </c>
       <c r="D163" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="E163" t="str">
         <f t="shared" si="2"/>
@@ -10045,7 +10825,7 @@
         <v>232</v>
       </c>
       <c r="D164" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="E164" t="str">
         <f t="shared" si="2"/>
@@ -10054,10 +10834,10 @@
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
-        <v>839</v>
+        <v>806</v>
       </c>
       <c r="D165" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="2"/>
@@ -10066,10 +10846,10 @@
     </row>
     <row r="166" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
-        <v>832</v>
+        <v>799</v>
       </c>
       <c r="D166" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="E166" t="str">
         <f t="shared" si="2"/>
@@ -10078,10 +10858,10 @@
     </row>
     <row r="167" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
-        <v>841</v>
+        <v>808</v>
       </c>
       <c r="D167" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="E167" t="str">
         <f t="shared" si="2"/>
@@ -10090,10 +10870,10 @@
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="D168" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="2"/>
@@ -10102,10 +10882,10 @@
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
-        <v>844</v>
+        <v>811</v>
       </c>
       <c r="D169" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="2"/>
@@ -10114,10 +10894,10 @@
     </row>
     <row r="170" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="D170" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="2"/>
@@ -10126,10 +10906,10 @@
     </row>
     <row r="171" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="D171" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
@@ -10138,10 +10918,10 @@
     </row>
     <row r="172" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
-        <v>845</v>
+        <v>812</v>
       </c>
       <c r="D172" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="2"/>
@@ -10150,10 +10930,10 @@
     </row>
     <row r="173" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="D173" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="E173" t="str">
         <f t="shared" si="2"/>
@@ -10165,7 +10945,7 @@
         <v>245</v>
       </c>
       <c r="D174" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="E174" t="str">
         <f t="shared" si="2"/>
@@ -10174,10 +10954,10 @@
     </row>
     <row r="175" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="D175" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="2"/>
@@ -10186,10 +10966,10 @@
     </row>
     <row r="176" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="D176" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="E176" t="str">
         <f t="shared" si="2"/>
@@ -10198,10 +10978,10 @@
     </row>
     <row r="177" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="D177" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="E177" t="str">
         <f t="shared" si="2"/>
@@ -10210,10 +10990,10 @@
     </row>
     <row r="178" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="D178" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="E178" t="str">
         <f t="shared" si="2"/>
@@ -10225,7 +11005,7 @@
         <v>250</v>
       </c>
       <c r="D179" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
@@ -10237,7 +11017,7 @@
         <v>252</v>
       </c>
       <c r="D180" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="E180" t="str">
         <f t="shared" si="2"/>
@@ -10249,7 +11029,7 @@
         <v>253</v>
       </c>
       <c r="D181" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="E181" t="str">
         <f t="shared" si="2"/>
@@ -10258,10 +11038,10 @@
     </row>
     <row r="182" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="D182" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="2"/>
@@ -10270,10 +11050,10 @@
     </row>
     <row r="183" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="D183" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="2"/>
@@ -10282,10 +11062,10 @@
     </row>
     <row r="184" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="D184" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="2"/>
@@ -10297,7 +11077,7 @@
         <v>265</v>
       </c>
       <c r="D185" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E185" t="str">
         <f t="shared" si="2"/>
@@ -10306,10 +11086,10 @@
     </row>
     <row r="186" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
-        <v>754</v>
+        <v>721</v>
       </c>
       <c r="D186" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="2"/>
@@ -10318,10 +11098,10 @@
     </row>
     <row r="187" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
-        <v>862</v>
+        <v>829</v>
       </c>
       <c r="D187" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="2"/>
@@ -10330,10 +11110,10 @@
     </row>
     <row r="188" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
       <c r="D188" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="2"/>
@@ -10342,10 +11122,10 @@
     </row>
     <row r="189" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
-        <v>820</v>
+        <v>787</v>
       </c>
       <c r="D189" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="2"/>
@@ -10354,10 +11134,10 @@
     </row>
     <row r="190" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C190" t="s">
-        <v>824</v>
+        <v>791</v>
       </c>
       <c r="D190" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="E190" t="str">
         <f t="shared" si="2"/>
@@ -10366,10 +11146,10 @@
     </row>
     <row r="191" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C191" t="s">
-        <v>866</v>
+        <v>833</v>
       </c>
       <c r="D191" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="E191" t="str">
         <f t="shared" si="2"/>
@@ -10378,10 +11158,10 @@
     </row>
     <row r="192" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C192" t="s">
-        <v>891</v>
+        <v>858</v>
       </c>
       <c r="D192" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="E192" t="str">
         <f t="shared" si="2"/>
@@ -10393,7 +11173,7 @@
         <v>268</v>
       </c>
       <c r="D193" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
@@ -10405,7 +11185,7 @@
         <v>271</v>
       </c>
       <c r="D194" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
@@ -10414,10 +11194,10 @@
     </row>
     <row r="195" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
-        <v>868</v>
+        <v>835</v>
       </c>
       <c r="D195" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="E195" t="str">
         <f t="shared" si="2"/>
@@ -10426,10 +11206,10 @@
     </row>
     <row r="196" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
-        <v>858</v>
+        <v>825</v>
       </c>
       <c r="D196" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" ref="E196:E248" si="3">+C196</f>
@@ -10441,7 +11221,7 @@
         <v>278</v>
       </c>
       <c r="D197" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="E197" t="str">
         <f t="shared" si="3"/>
@@ -10450,10 +11230,10 @@
     </row>
     <row r="198" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
-        <v>867</v>
+        <v>834</v>
       </c>
       <c r="D198" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="E198" t="str">
         <f t="shared" si="3"/>
@@ -10465,7 +11245,7 @@
         <v>279</v>
       </c>
       <c r="D199" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="E199" t="str">
         <f t="shared" si="3"/>
@@ -10474,10 +11254,10 @@
     </row>
     <row r="200" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
-        <v>865</v>
+        <v>832</v>
       </c>
       <c r="D200" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="E200" t="str">
         <f t="shared" si="3"/>
@@ -10486,10 +11266,10 @@
     </row>
     <row r="201" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="D201" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
@@ -10498,10 +11278,10 @@
     </row>
     <row r="202" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="D202" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="E202" t="str">
         <f t="shared" si="3"/>
@@ -10510,10 +11290,10 @@
     </row>
     <row r="203" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
-        <v>871</v>
+        <v>838</v>
       </c>
       <c r="D203" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
@@ -10522,10 +11302,10 @@
     </row>
     <row r="204" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="D204" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
@@ -10537,7 +11317,7 @@
         <v>284</v>
       </c>
       <c r="D205" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="3"/>
@@ -10546,10 +11326,10 @@
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
-        <v>898</v>
+        <v>865</v>
       </c>
       <c r="D206" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="E206" t="str">
         <f t="shared" si="3"/>
@@ -10558,10 +11338,10 @@
     </row>
     <row r="207" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
-        <v>861</v>
+        <v>828</v>
       </c>
       <c r="D207" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
@@ -10570,10 +11350,10 @@
     </row>
     <row r="208" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
-        <v>783</v>
+        <v>750</v>
       </c>
       <c r="D208" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
@@ -10585,7 +11365,7 @@
         <v>286</v>
       </c>
       <c r="D209" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
@@ -10594,10 +11374,10 @@
     </row>
     <row r="210" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
-        <v>859</v>
+        <v>826</v>
       </c>
       <c r="D210" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="3"/>
@@ -10606,10 +11386,10 @@
     </row>
     <row r="211" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
-        <v>869</v>
+        <v>836</v>
       </c>
       <c r="D211" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="E211" t="str">
         <f t="shared" si="3"/>
@@ -10618,10 +11398,10 @@
     </row>
     <row r="212" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
-        <v>863</v>
+        <v>830</v>
       </c>
       <c r="D212" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="E212" t="str">
         <f t="shared" si="3"/>
@@ -10630,10 +11410,10 @@
     </row>
     <row r="213" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
-        <v>873</v>
+        <v>840</v>
       </c>
       <c r="D213" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="E213" t="str">
         <f t="shared" si="3"/>
@@ -10642,10 +11422,10 @@
     </row>
     <row r="214" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
-        <v>872</v>
+        <v>839</v>
       </c>
       <c r="D214" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="3"/>
@@ -10654,10 +11434,10 @@
     </row>
     <row r="215" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
-        <v>765</v>
+        <v>732</v>
       </c>
       <c r="D215" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="E215" t="str">
         <f t="shared" si="3"/>
@@ -10666,10 +11446,10 @@
     </row>
     <row r="216" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
-        <v>874</v>
+        <v>841</v>
       </c>
       <c r="D216" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="E216" t="str">
         <f t="shared" si="3"/>
@@ -10678,10 +11458,10 @@
     </row>
     <row r="217" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
-        <v>884</v>
+        <v>851</v>
       </c>
       <c r="D217" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="E217" t="str">
         <f t="shared" si="3"/>
@@ -10690,10 +11470,10 @@
     </row>
     <row r="218" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C218" t="s">
-        <v>877</v>
+        <v>844</v>
       </c>
       <c r="D218" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
@@ -10702,10 +11482,10 @@
     </row>
     <row r="219" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="D219" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="E219" t="str">
         <f t="shared" si="3"/>
@@ -10714,10 +11494,10 @@
     </row>
     <row r="220" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
-        <v>876</v>
+        <v>843</v>
       </c>
       <c r="D220" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="E220" t="str">
         <f t="shared" si="3"/>
@@ -10726,10 +11506,10 @@
     </row>
     <row r="221" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
-        <v>879</v>
+        <v>846</v>
       </c>
       <c r="D221" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="3"/>
@@ -10741,7 +11521,7 @@
         <v>311</v>
       </c>
       <c r="D222" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="E222" t="str">
         <f t="shared" si="3"/>
@@ -10750,10 +11530,10 @@
     </row>
     <row r="223" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
-        <v>878</v>
+        <v>845</v>
       </c>
       <c r="D223" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="3"/>
@@ -10762,10 +11542,10 @@
     </row>
     <row r="224" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
-        <v>880</v>
+        <v>847</v>
       </c>
       <c r="D224" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="3"/>
@@ -10774,10 +11554,10 @@
     </row>
     <row r="225" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
-        <v>881</v>
+        <v>848</v>
       </c>
       <c r="D225" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="3"/>
@@ -10786,10 +11566,10 @@
     </row>
     <row r="226" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
-        <v>882</v>
+        <v>849</v>
       </c>
       <c r="D226" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="3"/>
@@ -10798,10 +11578,10 @@
     </row>
     <row r="227" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
-        <v>883</v>
+        <v>850</v>
       </c>
       <c r="D227" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="3"/>
@@ -10813,7 +11593,7 @@
         <v>317</v>
       </c>
       <c r="D228" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="3"/>
@@ -10822,10 +11602,10 @@
     </row>
     <row r="229" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
-        <v>875</v>
+        <v>842</v>
       </c>
       <c r="D229" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="E229" t="str">
         <f t="shared" si="3"/>
@@ -10837,7 +11617,7 @@
         <v>319</v>
       </c>
       <c r="D230" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="E230" t="str">
         <f t="shared" si="3"/>
@@ -10849,7 +11629,7 @@
         <v>321</v>
       </c>
       <c r="D231" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
       <c r="E231" t="str">
         <f t="shared" si="3"/>
@@ -10858,10 +11638,10 @@
     </row>
     <row r="232" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
-        <v>886</v>
+        <v>853</v>
       </c>
       <c r="D232" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
       <c r="E232" t="str">
         <f t="shared" si="3"/>
@@ -10870,10 +11650,10 @@
     </row>
     <row r="233" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C233" t="s">
-        <v>744</v>
+        <v>711</v>
       </c>
       <c r="D233" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="E233" t="str">
         <f t="shared" si="3"/>
@@ -10882,10 +11662,10 @@
     </row>
     <row r="234" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C234" t="s">
-        <v>791</v>
+        <v>758</v>
       </c>
       <c r="D234" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="3"/>
@@ -10894,10 +11674,10 @@
     </row>
     <row r="235" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
-        <v>888</v>
+        <v>855</v>
       </c>
       <c r="D235" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="E235" t="str">
         <f t="shared" si="3"/>
@@ -10906,10 +11686,10 @@
     </row>
     <row r="236" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
-        <v>887</v>
+        <v>854</v>
       </c>
       <c r="D236" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
       <c r="E236" t="str">
         <f t="shared" si="3"/>
@@ -10921,7 +11701,7 @@
         <v>322</v>
       </c>
       <c r="D237" t="s">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="E237" t="str">
         <f t="shared" si="3"/>
@@ -10930,10 +11710,10 @@
     </row>
     <row r="238" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
       <c r="D238" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="3"/>
@@ -10945,7 +11725,7 @@
         <v>324</v>
       </c>
       <c r="D239" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="3"/>
@@ -10954,10 +11734,10 @@
     </row>
     <row r="240" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="D240" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="3"/>
@@ -10966,10 +11746,10 @@
     </row>
     <row r="241" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
-        <v>895</v>
+        <v>862</v>
       </c>
       <c r="D241" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="E241" t="str">
         <f t="shared" si="3"/>
@@ -10978,10 +11758,10 @@
     </row>
     <row r="242" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
-        <v>893</v>
+        <v>860</v>
       </c>
       <c r="D242" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="3"/>
@@ -10990,10 +11770,10 @@
     </row>
     <row r="243" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="D243" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="E243" t="str">
         <f t="shared" si="3"/>
@@ -11002,10 +11782,10 @@
     </row>
     <row r="244" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
-        <v>896</v>
+        <v>863</v>
       </c>
       <c r="D244" t="s">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="E244" t="str">
         <f t="shared" si="3"/>
@@ -11014,10 +11794,10 @@
     </row>
     <row r="245" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C245" t="s">
-        <v>782</v>
+        <v>749</v>
       </c>
       <c r="D245" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="E245" t="str">
         <f t="shared" si="3"/>
@@ -11026,10 +11806,10 @@
     </row>
     <row r="246" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
-        <v>897</v>
+        <v>864</v>
       </c>
       <c r="D246" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="E246" t="str">
         <f t="shared" si="3"/>
@@ -11041,7 +11821,7 @@
         <v>327</v>
       </c>
       <c r="D247" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="E247" t="str">
         <f t="shared" si="3"/>
@@ -11053,7 +11833,7 @@
         <v>328</v>
       </c>
       <c r="D248" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="E248" t="str">
         <f t="shared" si="3"/>

--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2F49B-7541-4EA5-88A1-66629CB2AF57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DE336-8D42-48D8-8F87-08B9692C848E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
+    <workbookView xWindow="5088" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3269,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAAD69-D526-4C28-B49C-ADB47BD472D4}">
   <dimension ref="B2:V262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M16" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PESO/Tablas Homologación.xlsx
+++ b/PESO/Tablas Homologación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843DE336-8D42-48D8-8F87-08B9692C848E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AA5AEB-2675-4ACB-B099-18377EB9D92D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23E81429-20E0-4A51-B160-6842F28812B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="922">
   <si>
     <t>Tipo Prod BD</t>
   </si>
@@ -2789,12 +2789,28 @@
   </si>
   <si>
     <t>Puerto de San Vicente</t>
+  </si>
+  <si>
+    <t>CONSTITUCION</t>
+  </si>
+  <si>
+    <t>GREGORIO</t>
+  </si>
+  <si>
+    <t>Gregorio</t>
+  </si>
+  <si>
+    <t>Puerto de Magullines, Constitución</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2836,17 +2852,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2935,7 +2973,7 @@
     <tableColumn id="1" xr3:uid="{18EFC429-FC32-416B-9D85-B3AA4E41A311}" name="País BD"/>
     <tableColumn id="2" xr3:uid="{35A83415-B243-4143-9EC2-916FB2E6AF24}" name="País Homologado"/>
     <tableColumn id="5" xr3:uid="{5BDDF168-E4F5-4A5C-9C28-E606CACB9557}" name="ISO 3166-1 alfa-3"/>
-    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="name_en" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{C608D06E-567C-45E1-AD99-1A39011736D4}" name="name_en" dataDxfId="3">
       <calculatedColumnFormula>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{09CD7F3D-37C4-4585-AE8D-89B65A86F322}" name="Región"/>
@@ -2946,8 +2984,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02AB34A1-CEA4-4968-9D6F-FC2A8A234508}" name="Tabla4" displayName="Tabla4" ref="P4:T88" totalsRowShown="0">
-  <autoFilter ref="P4:T88" xr:uid="{6D883F0D-205C-4E2A-8E90-917B11B6486C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{02AB34A1-CEA4-4968-9D6F-FC2A8A234508}" name="Tabla4" displayName="Tabla4" ref="P4:T90" totalsRowShown="0">
+  <autoFilter ref="P4:T90" xr:uid="{6D883F0D-205C-4E2A-8E90-917B11B6486C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D08BA0D1-81A3-4E80-B5F7-9C7264498A7F}" name="Lugar Salida/Ingreso BD"/>
     <tableColumn id="2" xr3:uid="{D936E8D8-7069-4EA7-8251-9D50743DEA4F}" name="Lugar Salida/Ingreso Homologado"/>
@@ -2964,7 +3002,7 @@
   <autoFilter ref="B17:C29" xr:uid="{A6A8F6B9-DD1A-4B64-A6A8-A1BAF98BDF6A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F7B1F957-FD31-43DE-8EFC-269CDC471193}" name="Mes"/>
-    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C37A4C20-999E-427D-B681-AB1BA3C88950}" name="Nº Mes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3269,36 +3307,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFAAD69-D526-4C28-B49C-ADB47BD472D4}">
   <dimension ref="B2:V262"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M16" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I60" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
-    <col min="5" max="5" width="42.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="2.77734375" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.44140625" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5546875" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="4.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>70</v>
       </c>
@@ -3312,12 +3350,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="V3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3405,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -3409,7 +3447,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3451,7 +3489,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -3493,7 +3531,7 @@
         <v>-33.396605799</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -3532,7 +3570,7 @@
         <v>-53.014718500000001</v>
       </c>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -3571,7 +3609,7 @@
         <v>-53.014718500000001</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -3610,7 +3648,7 @@
         <v>-36.777249300000001</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -3649,7 +3687,7 @@
         <v>-18.348474499999998</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -3688,7 +3726,7 @@
         <v>-18.348474499999998</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -3727,7 +3765,7 @@
         <v>-20.5393291</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -3766,7 +3804,7 @@
         <v>-20.5393291</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>24</v>
       </c>
@@ -3799,7 +3837,7 @@
         <v>-41.433740700000001</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>457</v>
       </c>
@@ -3835,7 +3873,7 @@
         <v>-41.433740700000001</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>443</v>
       </c>
@@ -3874,7 +3912,7 @@
         <v>-23.673553600000002</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>445</v>
       </c>
@@ -3913,7 +3951,7 @@
         <v>-23.673553600000002</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>446</v>
       </c>
@@ -3952,7 +3990,7 @@
         <v>-52.785161689134902</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>447</v>
       </c>
@@ -3991,7 +4029,7 @@
         <v>-40.658651181792997</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>448</v>
       </c>
@@ -4030,7 +4068,7 @@
         <v>-42.480174256115703</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>449</v>
       </c>
@@ -4069,7 +4107,7 @@
         <v>-26.354683999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>450</v>
       </c>
@@ -4108,7 +4146,7 @@
         <v>-26.354683999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>451</v>
       </c>
@@ -4147,7 +4185,7 @@
         <v>-26.354683999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>452</v>
       </c>
@@ -4186,7 +4224,7 @@
         <v>-46.558820092539598</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>453</v>
       </c>
@@ -4225,7 +4263,7 @@
         <v>-45.553242400000002</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>454</v>
       </c>
@@ -4264,7 +4302,7 @@
         <v>-47.180007743595603</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>455</v>
       </c>
@@ -4303,7 +4341,7 @@
         <v>-28.4699712</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>456</v>
       </c>
@@ -4342,7 +4380,7 @@
         <v>-28.4699712</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>38</v>
       </c>
@@ -4375,7 +4413,7 @@
         <v>-27.106174117816199</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>39</v>
       </c>
@@ -4408,7 +4446,7 @@
         <v>-31.908589444380102</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>40</v>
       </c>
@@ -4441,7 +4479,7 @@
         <v>-37.097444136667299</v>
       </c>
     </row>
-    <row r="33" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>41</v>
       </c>
@@ -4474,7 +4512,7 @@
         <v>-23.0869543081484</v>
       </c>
     </row>
-    <row r="34" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>42</v>
       </c>
@@ -4507,7 +4545,7 @@
         <v>-44.228869374436997</v>
       </c>
     </row>
-    <row r="35" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>43</v>
       </c>
@@ -4540,7 +4578,7 @@
         <v>-21.213609815808798</v>
       </c>
     </row>
-    <row r="36" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>44</v>
       </c>
@@ -4567,7 +4605,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="37" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>45</v>
       </c>
@@ -4594,7 +4632,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="38" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>46</v>
       </c>
@@ -4627,7 +4665,7 @@
         <v>-30.192764498999999</v>
       </c>
     </row>
-    <row r="39" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>47</v>
       </c>
@@ -4660,7 +4698,7 @@
         <v>-18.4006193371</v>
       </c>
     </row>
-    <row r="40" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>48</v>
       </c>
@@ -4693,7 +4731,7 @@
         <v>-18.4006193371</v>
       </c>
     </row>
-    <row r="41" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>49</v>
       </c>
@@ -4726,7 +4764,7 @@
         <v>-18.300157443300002</v>
       </c>
     </row>
-    <row r="42" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>50</v>
       </c>
@@ -4759,7 +4797,7 @@
         <v>-19.283487170699999</v>
       </c>
     </row>
-    <row r="43" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>51</v>
       </c>
@@ -4792,7 +4830,7 @@
         <v>-45.914111708999997</v>
       </c>
     </row>
-    <row r="44" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>52</v>
       </c>
@@ -4825,7 +4863,7 @@
         <v>-26.873724891487701</v>
       </c>
     </row>
-    <row r="45" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>53</v>
       </c>
@@ -4858,7 +4896,7 @@
         <v>-51.604575796511803</v>
       </c>
     </row>
-    <row r="46" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>54</v>
       </c>
@@ -4891,7 +4929,7 @@
         <v>-22.435607986000001</v>
       </c>
     </row>
-    <row r="47" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>55</v>
       </c>
@@ -4924,7 +4962,7 @@
         <v>-22.435607986000001</v>
       </c>
     </row>
-    <row r="48" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>56</v>
       </c>
@@ -4957,7 +4995,7 @@
         <v>-22.435607986000001</v>
       </c>
     </row>
-    <row r="49" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>57</v>
       </c>
@@ -4990,7 +5028,7 @@
         <v>-32.827278501000002</v>
       </c>
     </row>
-    <row r="50" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>18</v>
       </c>
@@ -5023,7 +5061,7 @@
         <v>-32.827278501000002</v>
       </c>
     </row>
-    <row r="51" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>58</v>
       </c>
@@ -5056,7 +5094,7 @@
         <v>-52.146560901000001</v>
       </c>
     </row>
-    <row r="52" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>59</v>
       </c>
@@ -5089,7 +5127,7 @@
         <v>-38.662811273000003</v>
       </c>
     </row>
-    <row r="53" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>60</v>
       </c>
@@ -5122,7 +5160,7 @@
         <v>-38.662811273000003</v>
       </c>
     </row>
-    <row r="54" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>20</v>
       </c>
@@ -5155,7 +5193,7 @@
         <v>-53.333365847000003</v>
       </c>
     </row>
-    <row r="55" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>61</v>
       </c>
@@ -5188,7 +5226,7 @@
         <v>-53.333365847000003</v>
       </c>
     </row>
-    <row r="56" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>62</v>
       </c>
@@ -5221,7 +5259,7 @@
         <v>-23.0756948323349</v>
       </c>
     </row>
-    <row r="57" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>63</v>
       </c>
@@ -5254,7 +5292,7 @@
         <v>-45.485950770700001</v>
       </c>
     </row>
-    <row r="58" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>64</v>
       </c>
@@ -5287,7 +5325,7 @@
         <v>-45.485950770700001</v>
       </c>
     </row>
-    <row r="59" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>65</v>
       </c>
@@ -5320,7 +5358,7 @@
         <v>-23.762311861550501</v>
       </c>
     </row>
-    <row r="60" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>66</v>
       </c>
@@ -5353,7 +5391,7 @@
         <v>-23.6519178064</v>
       </c>
     </row>
-    <row r="61" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>67</v>
       </c>
@@ -5386,7 +5424,7 @@
         <v>-18.477099338799999</v>
       </c>
     </row>
-    <row r="62" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>68</v>
       </c>
@@ -5419,7 +5457,7 @@
         <v>-41.7768213545923</v>
       </c>
     </row>
-    <row r="63" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:20" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>69</v>
       </c>
@@ -5452,7 +5490,7 @@
         <v>-27.0554858518461</v>
       </c>
     </row>
-    <row r="64" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:20" x14ac:dyDescent="0.25">
       <c r="H64" t="s">
         <v>131</v>
       </c>
@@ -5482,7 +5520,7 @@
         <v>-29.961514365100001</v>
       </c>
     </row>
-    <row r="65" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H65" s="1" t="s">
         <v>132</v>
       </c>
@@ -5515,7 +5553,7 @@
         <v>-37.009415484900003</v>
       </c>
     </row>
-    <row r="66" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H66" t="s">
         <v>133</v>
       </c>
@@ -5545,7 +5583,7 @@
         <v>-39.893342625800003</v>
       </c>
     </row>
-    <row r="67" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H67" t="s">
         <v>134</v>
       </c>
@@ -5575,7 +5613,7 @@
         <v>-20.219107031899998</v>
       </c>
     </row>
-    <row r="68" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H68" t="s">
         <v>135</v>
       </c>
@@ -5605,7 +5643,7 @@
         <v>-51.730830992100003</v>
       </c>
     </row>
-    <row r="69" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H69" t="s">
         <v>136</v>
       </c>
@@ -5635,7 +5673,7 @@
         <v>-53.162342225400003</v>
       </c>
     </row>
-    <row r="70" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H70" t="s">
         <v>137</v>
       </c>
@@ -5665,7 +5703,7 @@
         <v>-32.776335601</v>
       </c>
     </row>
-    <row r="71" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H71" t="s">
         <v>138</v>
       </c>
@@ -5695,7 +5733,7 @@
         <v>-32.776335601</v>
       </c>
     </row>
-    <row r="72" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H72" t="s">
         <v>139</v>
       </c>
@@ -5725,7 +5763,7 @@
         <v>-36.716773508999999</v>
       </c>
     </row>
-    <row r="73" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H73" t="s">
         <v>140</v>
       </c>
@@ -5755,7 +5793,7 @@
         <v>-22.085942110800001</v>
       </c>
     </row>
-    <row r="74" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H74" t="s">
         <v>141</v>
       </c>
@@ -5785,7 +5823,7 @@
         <v>-29.9730024131185</v>
       </c>
     </row>
-    <row r="75" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H75" t="s">
         <v>142</v>
       </c>
@@ -5815,7 +5853,7 @@
         <v>-36.7140469</v>
       </c>
     </row>
-    <row r="76" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H76" t="s">
         <v>143</v>
       </c>
@@ -5845,7 +5883,7 @@
         <v>-36.7140469</v>
       </c>
     </row>
-    <row r="77" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H77" t="s">
         <v>144</v>
       </c>
@@ -5875,7 +5913,7 @@
         <v>-22.731803031364599</v>
       </c>
     </row>
-    <row r="78" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H78" t="s">
         <v>145</v>
       </c>
@@ -5905,7 +5943,7 @@
         <v>-41.484629661678198</v>
       </c>
     </row>
-    <row r="79" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H79" t="s">
         <v>146</v>
       </c>
@@ -5935,7 +5973,7 @@
         <v>-20.799319319220999</v>
       </c>
     </row>
-    <row r="80" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H80" t="s">
         <v>147</v>
       </c>
@@ -5965,7 +6003,7 @@
         <v>-20.739215883378101</v>
       </c>
     </row>
-    <row r="81" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H81" t="s">
         <v>148</v>
       </c>
@@ -5995,7 +6033,7 @@
         <v>-33.589769635099998</v>
       </c>
     </row>
-    <row r="82" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H82" t="s">
         <v>149</v>
       </c>
@@ -6025,7 +6063,7 @@
         <v>-33.026923903899998</v>
       </c>
     </row>
-    <row r="83" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H83" t="s">
         <v>150</v>
       </c>
@@ -6055,7 +6093,7 @@
         <v>-33.026923903899998</v>
       </c>
     </row>
-    <row r="84" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H84" t="s">
         <v>151</v>
       </c>
@@ -6085,7 +6123,7 @@
         <v>-54.9315465326995</v>
       </c>
     </row>
-    <row r="85" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H85" t="s">
         <v>152</v>
       </c>
@@ -6115,7 +6153,7 @@
         <v>-52.454895002125099</v>
       </c>
     </row>
-    <row r="86" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H86" t="s">
         <v>153</v>
       </c>
@@ -6145,7 +6183,7 @@
         <v>-26.753378576298999</v>
       </c>
     </row>
-    <row r="87" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H87" t="s">
         <v>154</v>
       </c>
@@ -6175,7 +6213,7 @@
         <v>-36.725682256597501</v>
       </c>
     </row>
-    <row r="88" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H88" t="s">
         <v>155</v>
       </c>
@@ -6205,7 +6243,7 @@
         <v>-17.594789083152602</v>
       </c>
     </row>
-    <row r="89" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H89" t="s">
         <v>156</v>
       </c>
@@ -6219,8 +6257,23 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guatemala</v>
       </c>
-    </row>
-    <row r="90" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="P89" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>921</v>
+      </c>
+      <c r="R89" t="s">
+        <v>434</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-72.456138543691395</v>
+      </c>
+      <c r="T89" s="4">
+        <v>-35.35933885</v>
+      </c>
+    </row>
+    <row r="90" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H90" t="s">
         <v>157</v>
       </c>
@@ -6234,8 +6287,23 @@
         <f>+VLOOKUP(Países[[#This Row],[ISO 3166-1 alfa-3]],Hoja2!$D$3:$E$248,2,0)</f>
         <v>Guernsey</v>
       </c>
-    </row>
-    <row r="91" spans="8:20" x14ac:dyDescent="0.3">
+      <c r="P90" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>920</v>
+      </c>
+      <c r="R90" t="s">
+        <v>434</v>
+      </c>
+      <c r="S90">
+        <v>-69.547249111700594</v>
+      </c>
+      <c r="T90">
+        <v>-52.454895002125099</v>
+      </c>
+    </row>
+    <row r="91" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H91" s="1" t="s">
         <v>158</v>
       </c>
@@ -6253,7 +6321,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H92" t="s">
         <v>159</v>
       </c>
@@ -6268,7 +6336,7 @@
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="93" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H93" t="s">
         <v>160</v>
       </c>
@@ -6283,7 +6351,7 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="94" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H94" t="s">
         <v>161</v>
       </c>
@@ -6298,7 +6366,7 @@
         <v>Guyana</v>
       </c>
     </row>
-    <row r="95" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
         <v>162</v>
       </c>
@@ -6313,7 +6381,7 @@
         <v>Haiti</v>
       </c>
     </row>
-    <row r="96" spans="8:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H96" t="s">
         <v>163</v>
       </c>
@@ -6328,7 +6396,7 @@
         <v>Netherlands</v>
       </c>
     </row>
-    <row r="97" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H97" t="s">
         <v>164</v>
       </c>
@@ -6343,7 +6411,7 @@
         <v>Honduras</v>
       </c>
     </row>
-    <row r="98" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H98" t="s">
         <v>165</v>
       </c>
@@ -6358,7 +6426,7 @@
         <v>Hong Kong</v>
       </c>
     </row>
-    <row r="99" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H99" t="s">
         <v>166</v>
       </c>
@@ -6373,7 +6441,7 @@
         <v>Hong Kong</v>
       </c>
     </row>
-    <row r="100" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H100" t="s">
         <v>167</v>
       </c>
@@ -6388,7 +6456,7 @@
         <v>Hungary</v>
       </c>
     </row>
-    <row r="101" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H101" t="s">
         <v>168</v>
       </c>
@@ -6403,7 +6471,7 @@
         <v>India</v>
       </c>
     </row>
-    <row r="102" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H102" t="s">
         <v>169</v>
       </c>
@@ -6418,7 +6486,7 @@
         <v>Indonesia</v>
       </c>
     </row>
-    <row r="103" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H103" t="s">
         <v>170</v>
       </c>
@@ -6433,7 +6501,7 @@
         <v>Iran, Islamic Republic of</v>
       </c>
     </row>
-    <row r="104" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
         <v>33</v>
       </c>
@@ -6448,7 +6516,7 @@
         <v>Iraq</v>
       </c>
     </row>
-    <row r="105" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H105" t="s">
         <v>171</v>
       </c>
@@ -6463,7 +6531,7 @@
         <v>Ireland</v>
       </c>
     </row>
-    <row r="106" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H106" s="1" t="s">
         <v>172</v>
       </c>
@@ -6481,7 +6549,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H107" t="s">
         <v>173</v>
       </c>
@@ -6496,7 +6564,7 @@
         <v>Maldives</v>
       </c>
     </row>
-    <row r="108" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H108" t="s">
         <v>174</v>
       </c>
@@ -6511,7 +6579,7 @@
         <v>Tonga</v>
       </c>
     </row>
-    <row r="109" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H109" t="s">
         <v>175</v>
       </c>
@@ -6526,7 +6594,7 @@
         <v>Iceland</v>
       </c>
     </row>
-    <row r="110" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H110" s="1" t="s">
         <v>176</v>
       </c>
@@ -6544,7 +6612,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H111" t="s">
         <v>177</v>
       </c>
@@ -6559,7 +6627,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="112" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H112" t="s">
         <v>178</v>
       </c>
@@ -6574,7 +6642,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="113" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H113" t="s">
         <v>179</v>
       </c>
@@ -6589,7 +6657,7 @@
         <v>Cocos (Keeling) Islands</v>
       </c>
     </row>
-    <row r="114" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H114" t="s">
         <v>180</v>
       </c>
@@ -6604,7 +6672,7 @@
         <v>Northern Mariana Islands</v>
       </c>
     </row>
-    <row r="115" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H115" t="s">
         <v>181</v>
       </c>
@@ -6619,7 +6687,7 @@
         <v>Marshall Islands</v>
       </c>
     </row>
-    <row r="116" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H116" t="s">
         <v>182</v>
       </c>
@@ -6634,7 +6702,7 @@
         <v>Solomon Islands</v>
       </c>
     </row>
-    <row r="117" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H117" t="s">
         <v>183</v>
       </c>
@@ -6649,7 +6717,7 @@
         <v>Virgin Islands, U.S.</v>
       </c>
     </row>
-    <row r="118" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H118" t="s">
         <v>184</v>
       </c>
@@ -6664,7 +6732,7 @@
         <v>Virgin Islands, British</v>
       </c>
     </row>
-    <row r="119" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H119" t="s">
         <v>185</v>
       </c>
@@ -6679,7 +6747,7 @@
         <v>Israel</v>
       </c>
     </row>
-    <row r="120" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H120" t="s">
         <v>186</v>
       </c>
@@ -6694,7 +6762,7 @@
         <v>Italy</v>
       </c>
     </row>
-    <row r="121" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H121" t="s">
         <v>187</v>
       </c>
@@ -6709,7 +6777,7 @@
         <v>Jamaica</v>
       </c>
     </row>
-    <row r="122" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H122" t="s">
         <v>188</v>
       </c>
@@ -6724,7 +6792,7 @@
         <v>Japan</v>
       </c>
     </row>
-    <row r="123" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H123" t="s">
         <v>189</v>
       </c>
@@ -6739,7 +6807,7 @@
         <v>Jersey</v>
       </c>
     </row>
-    <row r="124" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H124" t="s">
         <v>190</v>
       </c>
@@ -6754,7 +6822,7 @@
         <v>Jordan</v>
       </c>
     </row>
-    <row r="125" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H125" t="s">
         <v>191</v>
       </c>
@@ -6769,7 +6837,7 @@
         <v>Kazakhstan</v>
       </c>
     </row>
-    <row r="126" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H126" t="s">
         <v>192</v>
       </c>
@@ -6784,7 +6852,7 @@
         <v>Kenya</v>
       </c>
     </row>
-    <row r="127" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H127" t="s">
         <v>193</v>
       </c>
@@ -6799,7 +6867,7 @@
         <v>Kyrgyzstan</v>
       </c>
     </row>
-    <row r="128" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H128" t="s">
         <v>194</v>
       </c>
@@ -6814,7 +6882,7 @@
         <v>Kiribati</v>
       </c>
     </row>
-    <row r="129" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H129" t="s">
         <v>195</v>
       </c>
@@ -6829,7 +6897,7 @@
         <v>Kuwait</v>
       </c>
     </row>
-    <row r="130" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H130" t="s">
         <v>196</v>
       </c>
@@ -6844,7 +6912,7 @@
         <v>Lao People's Democratic Republic</v>
       </c>
     </row>
-    <row r="131" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H131" t="s">
         <v>197</v>
       </c>
@@ -6859,7 +6927,7 @@
         <v>Lesotho</v>
       </c>
     </row>
-    <row r="132" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H132" t="s">
         <v>198</v>
       </c>
@@ -6874,7 +6942,7 @@
         <v>Latvia</v>
       </c>
     </row>
-    <row r="133" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H133" t="s">
         <v>199</v>
       </c>
@@ -6889,7 +6957,7 @@
         <v>Lebanon</v>
       </c>
     </row>
-    <row r="134" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H134" t="s">
         <v>200</v>
       </c>
@@ -6904,7 +6972,7 @@
         <v>Liberia</v>
       </c>
     </row>
-    <row r="135" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H135" t="s">
         <v>201</v>
       </c>
@@ -6919,7 +6987,7 @@
         <v>Libyan Arab Jamahiriya</v>
       </c>
     </row>
-    <row r="136" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H136" t="s">
         <v>202</v>
       </c>
@@ -6934,7 +7002,7 @@
         <v>Liechtenstein</v>
       </c>
     </row>
-    <row r="137" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H137" t="s">
         <v>203</v>
       </c>
@@ -6949,7 +7017,7 @@
         <v>Lithuania</v>
       </c>
     </row>
-    <row r="138" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H138" t="s">
         <v>204</v>
       </c>
@@ -6964,7 +7032,7 @@
         <v>Luxembourg</v>
       </c>
     </row>
-    <row r="139" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H139" t="s">
         <v>205</v>
       </c>
@@ -6979,7 +7047,7 @@
         <v>Macao</v>
       </c>
     </row>
-    <row r="140" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H140" t="s">
         <v>206</v>
       </c>
@@ -6994,7 +7062,7 @@
         <v>Macedonia, the former Yugoslav Republic of</v>
       </c>
     </row>
-    <row r="141" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H141" t="s">
         <v>207</v>
       </c>
@@ -7009,7 +7077,7 @@
         <v>Madagascar</v>
       </c>
     </row>
-    <row r="142" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H142" t="s">
         <v>208</v>
       </c>
@@ -7024,7 +7092,7 @@
         <v>Malaysia</v>
       </c>
     </row>
-    <row r="143" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H143" t="s">
         <v>209</v>
       </c>
@@ -7039,7 +7107,7 @@
         <v>Malawi</v>
       </c>
     </row>
-    <row r="144" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H144" t="s">
         <v>210</v>
       </c>
@@ -7054,7 +7122,7 @@
         <v>Mali</v>
       </c>
     </row>
-    <row r="145" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H145" t="s">
         <v>211</v>
       </c>
@@ -7069,7 +7137,7 @@
         <v>Malta</v>
       </c>
     </row>
-    <row r="146" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H146" t="s">
         <v>212</v>
       </c>
@@ -7084,7 +7152,7 @@
         <v>Morocco</v>
       </c>
     </row>
-    <row r="147" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H147" t="s">
         <v>213</v>
       </c>
@@ -7099,7 +7167,7 @@
         <v>Martinique</v>
       </c>
     </row>
-    <row r="148" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H148" t="s">
         <v>214</v>
       </c>
@@ -7114,7 +7182,7 @@
         <v>Mauritius</v>
       </c>
     </row>
-    <row r="149" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H149" t="s">
         <v>215</v>
       </c>
@@ -7129,7 +7197,7 @@
         <v>Mauritania</v>
       </c>
     </row>
-    <row r="150" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H150" t="s">
         <v>216</v>
       </c>
@@ -7144,7 +7212,7 @@
         <v>Mexico</v>
       </c>
     </row>
-    <row r="151" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H151" t="s">
         <v>217</v>
       </c>
@@ -7159,7 +7227,7 @@
         <v>Micronesia, Federated States of</v>
       </c>
     </row>
-    <row r="152" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H152" t="s">
         <v>218</v>
       </c>
@@ -7174,7 +7242,7 @@
         <v>Moldova, Republic of</v>
       </c>
     </row>
-    <row r="153" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H153" t="s">
         <v>219</v>
       </c>
@@ -7189,7 +7257,7 @@
         <v>Monaco</v>
       </c>
     </row>
-    <row r="154" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H154" t="s">
         <v>220</v>
       </c>
@@ -7204,7 +7272,7 @@
         <v>Mongolia</v>
       </c>
     </row>
-    <row r="155" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H155" t="s">
         <v>221</v>
       </c>
@@ -7219,7 +7287,7 @@
         <v>Montserrat</v>
       </c>
     </row>
-    <row r="156" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H156" t="s">
         <v>222</v>
       </c>
@@ -7234,7 +7302,7 @@
         <v>Montenegro</v>
       </c>
     </row>
-    <row r="157" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H157" t="s">
         <v>223</v>
       </c>
@@ -7249,7 +7317,7 @@
         <v>Mozambique</v>
       </c>
     </row>
-    <row r="158" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H158" t="s">
         <v>224</v>
       </c>
@@ -7264,7 +7332,7 @@
         <v>Myanmar</v>
       </c>
     </row>
-    <row r="159" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H159" t="s">
         <v>225</v>
       </c>
@@ -7279,7 +7347,7 @@
         <v>Myanmar</v>
       </c>
     </row>
-    <row r="160" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H160" t="s">
         <v>226</v>
       </c>
@@ -7294,7 +7362,7 @@
         <v>Namibia</v>
       </c>
     </row>
-    <row r="161" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H161" t="s">
         <v>227</v>
       </c>
@@ -7309,7 +7377,7 @@
         <v>Nauru</v>
       </c>
     </row>
-    <row r="162" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H162" t="s">
         <v>228</v>
       </c>
@@ -7324,7 +7392,7 @@
         <v>Nepal</v>
       </c>
     </row>
-    <row r="163" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H163" t="s">
         <v>229</v>
       </c>
@@ -7339,7 +7407,7 @@
         <v>Nicaragua</v>
       </c>
     </row>
-    <row r="164" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H164" t="s">
         <v>230</v>
       </c>
@@ -7354,7 +7422,7 @@
         <v>Niger</v>
       </c>
     </row>
-    <row r="165" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H165" t="s">
         <v>231</v>
       </c>
@@ -7369,7 +7437,7 @@
         <v>Nigeria</v>
       </c>
     </row>
-    <row r="166" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H166" t="s">
         <v>232</v>
       </c>
@@ -7384,7 +7452,7 @@
         <v>Niue</v>
       </c>
     </row>
-    <row r="167" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H167" t="s">
         <v>233</v>
       </c>
@@ -7399,7 +7467,7 @@
         <v>Norway</v>
       </c>
     </row>
-    <row r="168" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H168" s="1" t="s">
         <v>234</v>
       </c>
@@ -7417,7 +7485,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H169" t="s">
         <v>235</v>
       </c>
@@ -7432,7 +7500,7 @@
         <v>New Caledonia</v>
       </c>
     </row>
-    <row r="170" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H170" t="s">
         <v>236</v>
       </c>
@@ -7447,7 +7515,7 @@
         <v>New Zealand</v>
       </c>
     </row>
-    <row r="171" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H171" t="s">
         <v>237</v>
       </c>
@@ -7462,7 +7530,7 @@
         <v>Oman</v>
       </c>
     </row>
-    <row r="172" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H172" t="s">
         <v>238</v>
       </c>
@@ -7476,7 +7544,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="173" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H173" t="s">
         <v>239</v>
       </c>
@@ -7490,7 +7558,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="174" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H174" t="s">
         <v>240</v>
       </c>
@@ -7505,7 +7573,7 @@
         <v>Pakistan</v>
       </c>
     </row>
-    <row r="175" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H175" t="s">
         <v>241</v>
       </c>
@@ -7520,7 +7588,7 @@
         <v>Palestinian Territory, Occupied</v>
       </c>
     </row>
-    <row r="176" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H176" t="s">
         <v>242</v>
       </c>
@@ -7535,7 +7603,7 @@
         <v>Panama</v>
       </c>
     </row>
-    <row r="177" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H177" t="s">
         <v>243</v>
       </c>
@@ -7550,7 +7618,7 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="178" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H178" t="s">
         <v>244</v>
       </c>
@@ -7565,7 +7633,7 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="179" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H179" t="s">
         <v>245</v>
       </c>
@@ -7580,7 +7648,7 @@
         <v>Paraguay</v>
       </c>
     </row>
-    <row r="180" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H180" t="s">
         <v>246</v>
       </c>
@@ -7595,7 +7663,7 @@
         <v>Peru</v>
       </c>
     </row>
-    <row r="181" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H181" t="s">
         <v>247</v>
       </c>
@@ -7610,7 +7678,7 @@
         <v>French Southern Territories</v>
       </c>
     </row>
-    <row r="182" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H182" t="s">
         <v>248</v>
       </c>
@@ -7625,7 +7693,7 @@
         <v>French Southern Territories</v>
       </c>
     </row>
-    <row r="183" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H183" t="s">
         <v>249</v>
       </c>
@@ -7640,7 +7708,7 @@
         <v>Poland</v>
       </c>
     </row>
-    <row r="184" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H184" t="s">
         <v>250</v>
       </c>
@@ -7655,7 +7723,7 @@
         <v>Portugal</v>
       </c>
     </row>
-    <row r="185" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H185" t="s">
         <v>251</v>
       </c>
@@ -7670,7 +7738,7 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="186" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H186" t="s">
         <v>252</v>
       </c>
@@ -7685,7 +7753,7 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="187" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H187" t="s">
         <v>253</v>
       </c>
@@ -7700,7 +7768,7 @@
         <v>Qatar</v>
       </c>
     </row>
-    <row r="188" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H188" t="s">
         <v>254</v>
       </c>
@@ -7715,7 +7783,7 @@
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="189" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H189" t="s">
         <v>255</v>
       </c>
@@ -7730,7 +7798,7 @@
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="190" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H190" s="1" t="s">
         <v>256</v>
       </c>
@@ -7748,7 +7816,7 @@
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
     </row>
-    <row r="191" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H191" t="s">
         <v>257</v>
       </c>
@@ -7763,7 +7831,7 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="192" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H192" t="s">
         <v>258</v>
       </c>
@@ -7778,7 +7846,7 @@
         <v>Czech Republic</v>
       </c>
     </row>
-    <row r="193" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H193" t="s">
         <v>259</v>
       </c>
@@ -7793,7 +7861,7 @@
         <v>Serbia</v>
       </c>
     </row>
-    <row r="194" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H194" t="s">
         <v>260</v>
       </c>
@@ -7808,7 +7876,7 @@
         <v>Congo, the Democratic Republic of the</v>
       </c>
     </row>
-    <row r="195" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H195" t="s">
         <v>261</v>
       </c>
@@ -7823,7 +7891,7 @@
         <v>Dominican Republic</v>
       </c>
     </row>
-    <row r="196" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H196" t="s">
         <v>262</v>
       </c>
@@ -7838,7 +7906,7 @@
         <v>Slovakia</v>
       </c>
     </row>
-    <row r="197" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H197" t="s">
         <v>263</v>
       </c>
@@ -7853,7 +7921,7 @@
         <v>Romania</v>
       </c>
     </row>
-    <row r="198" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H198" t="s">
         <v>264</v>
       </c>
@@ -7868,7 +7936,7 @@
         <v>Russian Federation</v>
       </c>
     </row>
-    <row r="199" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H199" t="s">
         <v>265</v>
       </c>
@@ -7883,7 +7951,7 @@
         <v>Rwanda</v>
       </c>
     </row>
-    <row r="200" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H200" t="s">
         <v>266</v>
       </c>
@@ -7898,7 +7966,7 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="201" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H201" t="s">
         <v>267</v>
       </c>
@@ -7913,7 +7981,7 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="202" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H202" t="s">
         <v>268</v>
       </c>
@@ -7928,7 +7996,7 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="203" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H203" t="s">
         <v>269</v>
       </c>
@@ -7943,7 +8011,7 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="204" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H204" s="1" t="s">
         <v>270</v>
       </c>
@@ -7961,7 +8029,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H205" t="s">
         <v>271</v>
       </c>
@@ -7976,7 +8044,7 @@
         <v>San Marino</v>
       </c>
     </row>
-    <row r="206" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H206" t="s">
         <v>272</v>
       </c>
@@ -7991,7 +8059,7 @@
         <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
-    <row r="207" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H207" t="s">
         <v>273</v>
       </c>
@@ -8006,7 +8074,7 @@
         <v>Saint Lucia</v>
       </c>
     </row>
-    <row r="208" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H208" t="s">
         <v>274</v>
       </c>
@@ -8021,7 +8089,7 @@
         <v>Saint Lucia</v>
       </c>
     </row>
-    <row r="209" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H209" t="s">
         <v>275</v>
       </c>
@@ -8036,7 +8104,7 @@
         <v>Holy See (Vatican City State)</v>
       </c>
     </row>
-    <row r="210" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H210" t="s">
         <v>276</v>
       </c>
@@ -8051,7 +8119,7 @@
         <v>Sao Tome and Principe</v>
       </c>
     </row>
-    <row r="211" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H211" t="s">
         <v>277</v>
       </c>
@@ -8066,7 +8134,7 @@
         <v>Sao Tome and Principe</v>
       </c>
     </row>
-    <row r="212" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H212" t="s">
         <v>278</v>
       </c>
@@ -8081,7 +8149,7 @@
         <v>Senegal</v>
       </c>
     </row>
-    <row r="213" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H213" t="s">
         <v>279</v>
       </c>
@@ -8096,7 +8164,7 @@
         <v>Seychelles</v>
       </c>
     </row>
-    <row r="214" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H214" t="s">
         <v>280</v>
       </c>
@@ -8111,7 +8179,7 @@
         <v>Sierra Leone</v>
       </c>
     </row>
-    <row r="215" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H215" t="s">
         <v>281</v>
       </c>
@@ -8126,7 +8194,7 @@
         <v>Sierra Leone</v>
       </c>
     </row>
-    <row r="216" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H216" t="s">
         <v>282</v>
       </c>
@@ -8141,7 +8209,7 @@
         <v>Singapore</v>
       </c>
     </row>
-    <row r="217" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H217" t="s">
         <v>283</v>
       </c>
@@ -8156,7 +8224,7 @@
         <v>Syrian Arab Republic</v>
       </c>
     </row>
-    <row r="218" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H218" t="s">
         <v>284</v>
       </c>
@@ -8171,7 +8239,7 @@
         <v>Somalia</v>
       </c>
     </row>
-    <row r="219" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H219" t="s">
         <v>285</v>
       </c>
@@ -8186,7 +8254,7 @@
         <v>Sri Lanka</v>
       </c>
     </row>
-    <row r="220" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H220" t="s">
         <v>286</v>
       </c>
@@ -8201,7 +8269,7 @@
         <v>Sri Lanka</v>
       </c>
     </row>
-    <row r="221" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H221" t="s">
         <v>287</v>
       </c>
@@ -8216,7 +8284,7 @@
         <v>South Africa</v>
       </c>
     </row>
-    <row r="222" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H222" t="s">
         <v>288</v>
       </c>
@@ -8231,7 +8299,7 @@
         <v>Sudan</v>
       </c>
     </row>
-    <row r="223" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H223" t="s">
         <v>289</v>
       </c>
@@ -8246,7 +8314,7 @@
         <v>Sweden</v>
       </c>
     </row>
-    <row r="224" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H224" t="s">
         <v>290</v>
       </c>
@@ -8261,7 +8329,7 @@
         <v>Switzerland</v>
       </c>
     </row>
-    <row r="225" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H225" t="s">
         <v>291</v>
       </c>
@@ -8276,7 +8344,7 @@
         <v>Suriname</v>
       </c>
     </row>
-    <row r="226" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H226" t="s">
         <v>292</v>
       </c>
@@ -8291,7 +8359,7 @@
         <v>Swaziland</v>
       </c>
     </row>
-    <row r="227" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H227" t="s">
         <v>293</v>
       </c>
@@ -8306,7 +8374,7 @@
         <v>Tajikistan</v>
       </c>
     </row>
-    <row r="228" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H228" t="s">
         <v>294</v>
       </c>
@@ -8321,7 +8389,7 @@
         <v>Thailand</v>
       </c>
     </row>
-    <row r="229" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H229" t="s">
         <v>295</v>
       </c>
@@ -8336,7 +8404,7 @@
         <v>Taiwan, Province of China</v>
       </c>
     </row>
-    <row r="230" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H230" t="s">
         <v>296</v>
       </c>
@@ -8351,7 +8419,7 @@
         <v>Taiwan, Province of China</v>
       </c>
     </row>
-    <row r="231" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H231" t="s">
         <v>297</v>
       </c>
@@ -8366,7 +8434,7 @@
         <v>Tanzania, United Republic of</v>
       </c>
     </row>
-    <row r="232" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H232" t="s">
         <v>298</v>
       </c>
@@ -8381,7 +8449,7 @@
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
-    <row r="233" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H233" t="s">
         <v>299</v>
       </c>
@@ -8396,7 +8464,7 @@
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="234" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H234" t="s">
         <v>300</v>
       </c>
@@ -8411,7 +8479,7 @@
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="235" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H235" t="s">
         <v>301</v>
       </c>
@@ -8426,7 +8494,7 @@
         <v>Faroe Islands</v>
       </c>
     </row>
-    <row r="236" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H236" t="s">
         <v>302</v>
       </c>
@@ -8441,7 +8509,7 @@
         <v>France</v>
       </c>
     </row>
-    <row r="237" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H237" t="s">
         <v>303</v>
       </c>
@@ -8456,7 +8524,7 @@
         <v>France</v>
       </c>
     </row>
-    <row r="238" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H238" t="s">
         <v>304</v>
       </c>
@@ -8471,7 +8539,7 @@
         <v>France</v>
       </c>
     </row>
-    <row r="239" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H239" t="s">
         <v>305</v>
       </c>
@@ -8486,7 +8554,7 @@
         <v>Netherlands Antilles</v>
       </c>
     </row>
-    <row r="240" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H240" t="s">
         <v>306</v>
       </c>
@@ -8501,7 +8569,7 @@
         <v>Netherlands Antilles</v>
       </c>
     </row>
-    <row r="241" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H241" t="s">
         <v>307</v>
       </c>
@@ -8516,7 +8584,7 @@
         <v>United States Minor Outlying Islands</v>
       </c>
     </row>
-    <row r="242" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H242" t="s">
         <v>308</v>
       </c>
@@ -8531,7 +8599,7 @@
         <v>Portugal</v>
       </c>
     </row>
-    <row r="243" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H243" t="s">
         <v>309</v>
       </c>
@@ -8546,7 +8614,7 @@
         <v>Thailand</v>
       </c>
     </row>
-    <row r="244" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H244" t="s">
         <v>310</v>
       </c>
@@ -8561,7 +8629,7 @@
         <v>Timor-Leste</v>
       </c>
     </row>
-    <row r="245" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H245" t="s">
         <v>311</v>
       </c>
@@ -8576,7 +8644,7 @@
         <v>Togo</v>
       </c>
     </row>
-    <row r="246" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H246" t="s">
         <v>312</v>
       </c>
@@ -8591,7 +8659,7 @@
         <v>Trinidad and Tobago</v>
       </c>
     </row>
-    <row r="247" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H247" t="s">
         <v>313</v>
       </c>
@@ -8606,7 +8674,7 @@
         <v>Trinidad and Tobago</v>
       </c>
     </row>
-    <row r="248" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H248" t="s">
         <v>314</v>
       </c>
@@ -8621,7 +8689,7 @@
         <v>Tunisia</v>
       </c>
     </row>
-    <row r="249" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H249" t="s">
         <v>315</v>
       </c>
@@ -8636,7 +8704,7 @@
         <v>Turks and Caicos Islands</v>
       </c>
     </row>
-    <row r="250" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H250" t="s">
         <v>316</v>
       </c>
@@ -8651,7 +8719,7 @@
         <v>Turks and Caicos Islands</v>
       </c>
     </row>
-    <row r="251" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H251" t="s">
         <v>317</v>
       </c>
@@ -8666,7 +8734,7 @@
         <v>Turkmenistan</v>
       </c>
     </row>
-    <row r="252" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H252" t="s">
         <v>318</v>
       </c>
@@ -8681,7 +8749,7 @@
         <v>Turkey</v>
       </c>
     </row>
-    <row r="253" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H253" t="s">
         <v>319</v>
       </c>
@@ -8696,7 +8764,7 @@
         <v>Tuvalu</v>
       </c>
     </row>
-    <row r="254" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H254" t="s">
         <v>320</v>
       </c>
@@ -8711,7 +8779,7 @@
         <v>Ukraine</v>
       </c>
     </row>
-    <row r="255" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H255" t="s">
         <v>321</v>
       </c>
@@ -8726,7 +8794,7 @@
         <v>Uganda</v>
       </c>
     </row>
-    <row r="256" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H256" t="s">
         <v>322</v>
       </c>
@@ -8741,7 +8809,7 @@
         <v>Uruguay</v>
       </c>
     </row>
-    <row r="257" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H257" t="s">
         <v>323</v>
       </c>
@@ -8756,7 +8824,7 @@
         <v>Uzbekistan</v>
       </c>
     </row>
-    <row r="258" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H258" t="s">
         <v>324</v>
       </c>
@@ -8771,7 +8839,7 @@
         <v>Vanuatu</v>
       </c>
     </row>
-    <row r="259" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H259" t="s">
         <v>325</v>
       </c>
@@ -8786,7 +8854,7 @@
         <v>Venezuela, Bolivarian Republic of</v>
       </c>
     </row>
-    <row r="260" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H260" t="s">
         <v>326</v>
       </c>
@@ -8801,7 +8869,7 @@
         <v>Viet Nam</v>
       </c>
     </row>
-    <row r="261" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H261" t="s">
         <v>327</v>
       </c>
@@ -8816,7 +8884,7 @@
         <v>Zambia</v>
       </c>
     </row>
-    <row r="262" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H262" t="s">
         <v>328</v>
       </c>
@@ -8833,23 +8901,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q5:Q88 K5:N262">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+  <conditionalFormatting sqref="Q5:Q90 K5:N262">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J9 J49 I72:J73 J90 J161 J166 J10">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F63">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Nunca se supo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8869,15 +8937,15 @@
   <dimension ref="C2:E248"/>
   <sheetViews>
     <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E225" sqref="E225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>706</v>
       </c>
@@ -8888,7 +8956,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>708</v>
       </c>
@@ -8900,7 +8968,7 @@
         <v>Afghanistan</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>866</v>
       </c>
@@ -8912,7 +8980,7 @@
         <v>Aland Islands</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>73</v>
       </c>
@@ -8924,7 +8992,7 @@
         <v>Albania</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>747</v>
       </c>
@@ -8936,7 +9004,7 @@
         <v>Algeria</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>712</v>
       </c>
@@ -8948,7 +9016,7 @@
         <v>American Samoa</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>75</v>
       </c>
@@ -8960,7 +9028,7 @@
         <v>Andorra</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>76</v>
       </c>
@@ -8972,7 +9040,7 @@
         <v>Angola</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>709</v>
       </c>
@@ -8984,7 +9052,7 @@
         <v>Anguilla</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>713</v>
       </c>
@@ -8996,7 +9064,7 @@
         <v>Antarctica</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>715</v>
       </c>
@@ -9008,7 +9076,7 @@
         <v>Antigua and Barbuda</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>85</v>
       </c>
@@ -9020,7 +9088,7 @@
         <v>Argentina</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>86</v>
       </c>
@@ -9032,7 +9100,7 @@
         <v>Armenia</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>87</v>
       </c>
@@ -9044,7 +9112,7 @@
         <v>Aruba</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>88</v>
       </c>
@@ -9056,7 +9124,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>89</v>
       </c>
@@ -9068,7 +9136,7 @@
         <v>Austria</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>716</v>
       </c>
@@ -9080,7 +9148,7 @@
         <v>Azerbaijan</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>91</v>
       </c>
@@ -9092,7 +9160,7 @@
         <v>Bahamas</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>719</v>
       </c>
@@ -9104,7 +9172,7 @@
         <v>Bahrain</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>93</v>
       </c>
@@ -9116,7 +9184,7 @@
         <v>Bangladesh</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>94</v>
       </c>
@@ -9128,7 +9196,7 @@
         <v>Barbados</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>95</v>
       </c>
@@ -9140,7 +9208,7 @@
         <v>Belarus</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>718</v>
       </c>
@@ -9152,7 +9220,7 @@
         <v>Belgium</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>722</v>
       </c>
@@ -9164,7 +9232,7 @@
         <v>Belize</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>98</v>
       </c>
@@ -9176,7 +9244,7 @@
         <v>Benin</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>723</v>
       </c>
@@ -9188,7 +9256,7 @@
         <v>Bermuda</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>727</v>
       </c>
@@ -9200,7 +9268,7 @@
         <v>Bhutan</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>724</v>
       </c>
@@ -9212,7 +9280,7 @@
         <v>Bolivia, Plurinational State of</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>720</v>
       </c>
@@ -9224,7 +9292,7 @@
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>103</v>
       </c>
@@ -9236,7 +9304,7 @@
         <v>Botswana</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>728</v>
       </c>
@@ -9248,7 +9316,7 @@
         <v>Bouvet Island</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>725</v>
       </c>
@@ -9260,7 +9328,7 @@
         <v>Brazil</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>772</v>
       </c>
@@ -9272,7 +9340,7 @@
         <v>British Indian Ocean Territory</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>726</v>
       </c>
@@ -9284,7 +9352,7 @@
         <v>Brunei Darussalam</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>106</v>
       </c>
@@ -9296,7 +9364,7 @@
         <v>Bulgaria</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>108</v>
       </c>
@@ -9308,7 +9376,7 @@
         <v>Burkina Faso</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>717</v>
       </c>
@@ -9320,7 +9388,7 @@
         <v>Burundi</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>110</v>
       </c>
@@ -9332,7 +9400,7 @@
         <v>Cambodia</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>735</v>
       </c>
@@ -9344,7 +9412,7 @@
         <v>Cameroon</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>730</v>
       </c>
@@ -9356,7 +9424,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>739</v>
       </c>
@@ -9368,7 +9436,7 @@
         <v>Cape Verde</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>741</v>
       </c>
@@ -9380,7 +9448,7 @@
         <v>Cayman Islands</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>729</v>
       </c>
@@ -9392,7 +9460,7 @@
         <v>Central African Republic</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>113</v>
       </c>
@@ -9404,7 +9472,7 @@
         <v>Chad</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>733</v>
       </c>
@@ -9416,7 +9484,7 @@
         <v>Chile</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>114</v>
       </c>
@@ -9428,7 +9496,7 @@
         <v>China</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>740</v>
       </c>
@@ -9440,7 +9508,7 @@
         <v>Christmas Island</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>731</v>
       </c>
@@ -9452,7 +9520,7 @@
         <v>Cocos (Keeling) Islands</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>117</v>
       </c>
@@ -9464,7 +9532,7 @@
         <v>Colombia</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>738</v>
       </c>
@@ -9476,7 +9544,7 @@
         <v>Comoros</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>119</v>
       </c>
@@ -9488,7 +9556,7 @@
         <v>Congo</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>736</v>
       </c>
@@ -9500,7 +9568,7 @@
         <v>Congo, the Democratic Republic of the</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>737</v>
       </c>
@@ -9512,7 +9580,7 @@
         <v>Cook Islands</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>124</v>
       </c>
@@ -9524,7 +9592,7 @@
         <v>Costa Rica</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>734</v>
       </c>
@@ -9536,7 +9604,7 @@
         <v>Côte d'Ivoire</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>768</v>
       </c>
@@ -9548,7 +9616,7 @@
         <v>Croatia</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>126</v>
       </c>
@@ -9560,7 +9628,7 @@
         <v>Cuba</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>742</v>
       </c>
@@ -9572,7 +9640,7 @@
         <v>Cyprus</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>743</v>
       </c>
@@ -9584,7 +9652,7 @@
         <v>Czech Republic</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>745</v>
       </c>
@@ -9596,7 +9664,7 @@
         <v>Denmark</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>128</v>
       </c>
@@ -9608,7 +9676,7 @@
         <v>Djibouti</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>129</v>
       </c>
@@ -9620,7 +9688,7 @@
         <v>Dominica</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>746</v>
       </c>
@@ -9632,7 +9700,7 @@
         <v>Dominican Republic</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>130</v>
       </c>
@@ -9644,7 +9712,7 @@
         <v>Ecuador</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>748</v>
       </c>
@@ -9656,7 +9724,7 @@
         <v>Egypt</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>133</v>
       </c>
@@ -9668,7 +9736,7 @@
         <v>El Salvador</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>761</v>
       </c>
@@ -9680,7 +9748,7 @@
         <v>Equatorial Guinea</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>136</v>
       </c>
@@ -9692,7 +9760,7 @@
         <v>Eritrea</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -9704,7 +9772,7 @@
         <v>Estonia</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>751</v>
       </c>
@@ -9716,7 +9784,7 @@
         <v>Ethiopia</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>753</v>
       </c>
@@ -9728,7 +9796,7 @@
         <v>Falkland Islands (Malvinas)</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>755</v>
       </c>
@@ -9740,7 +9808,7 @@
         <v>Faroe Islands</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>143</v>
       </c>
@@ -9752,7 +9820,7 @@
         <v>Fiji</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>752</v>
       </c>
@@ -9764,7 +9832,7 @@
         <v>Finland</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>754</v>
       </c>
@@ -9776,7 +9844,7 @@
         <v>France</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>765</v>
       </c>
@@ -9788,7 +9856,7 @@
         <v>French Guiana</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>821</v>
       </c>
@@ -9800,7 +9868,7 @@
         <v>French Polynesia</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>714</v>
       </c>
@@ -9812,7 +9880,7 @@
         <v>French Southern Territories</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>757</v>
       </c>
@@ -9824,7 +9892,7 @@
         <v>Gabon</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>148</v>
       </c>
@@ -9836,7 +9904,7 @@
         <v>Gambia</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>149</v>
       </c>
@@ -9848,7 +9916,7 @@
         <v>Georgia</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>744</v>
       </c>
@@ -9860,7 +9928,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>150</v>
       </c>
@@ -9872,7 +9940,7 @@
         <v>Ghana</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>151</v>
       </c>
@@ -9884,7 +9952,7 @@
         <v>Gibraltar</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>762</v>
       </c>
@@ -9896,7 +9964,7 @@
         <v>Greece</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>764</v>
       </c>
@@ -9908,7 +9976,7 @@
         <v>Greenland</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>763</v>
       </c>
@@ -9920,7 +9988,7 @@
         <v>Grenada</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>759</v>
       </c>
@@ -9932,7 +10000,7 @@
         <v>Guadeloupe</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>155</v>
       </c>
@@ -9944,7 +10012,7 @@
         <v>Guam</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>156</v>
       </c>
@@ -9956,7 +10024,7 @@
         <v>Guatemala</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>157</v>
       </c>
@@ -9968,7 +10036,7 @@
         <v>Guernsey</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>158</v>
       </c>
@@ -9980,7 +10048,7 @@
         <v>Guinea</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>760</v>
       </c>
@@ -9992,7 +10060,7 @@
         <v>Guinea-Bissau</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>161</v>
       </c>
@@ -10004,7 +10072,7 @@
         <v>Guyana</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>769</v>
       </c>
@@ -10016,7 +10084,7 @@
         <v>Haiti</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>767</v>
       </c>
@@ -10028,7 +10096,7 @@
         <v>Heard Island and McDonald Islands</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>857</v>
       </c>
@@ -10040,7 +10108,7 @@
         <v>Holy See (Vatican City State)</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>164</v>
       </c>
@@ -10052,7 +10120,7 @@
         <v>Honduras</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>766</v>
       </c>
@@ -10064,7 +10132,7 @@
         <v>Hong Kong</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>770</v>
       </c>
@@ -10076,7 +10144,7 @@
         <v>Hungary</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>775</v>
       </c>
@@ -10088,7 +10156,7 @@
         <v>Iceland</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>168</v>
       </c>
@@ -10100,7 +10168,7 @@
         <v>India</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>169</v>
       </c>
@@ -10112,7 +10180,7 @@
         <v>Indonesia</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>774</v>
       </c>
@@ -10124,7 +10192,7 @@
         <v>Iran, Islamic Republic of</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>33</v>
       </c>
@@ -10136,7 +10204,7 @@
         <v>Iraq</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>773</v>
       </c>
@@ -10148,7 +10216,7 @@
         <v>Ireland</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>771</v>
       </c>
@@ -10160,7 +10228,7 @@
         <v>Isle of Man</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>185</v>
       </c>
@@ -10172,7 +10240,7 @@
         <v>Israel</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>776</v>
       </c>
@@ -10184,7 +10252,7 @@
         <v>Italy</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>187</v>
       </c>
@@ -10196,7 +10264,7 @@
         <v>Jamaica</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>778</v>
       </c>
@@ -10208,7 +10276,7 @@
         <v>Japan</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>189</v>
       </c>
@@ -10220,7 +10288,7 @@
         <v>Jersey</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>777</v>
       </c>
@@ -10232,7 +10300,7 @@
         <v>Jordan</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>779</v>
       </c>
@@ -10244,7 +10312,7 @@
         <v>Kazakhstan</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>780</v>
       </c>
@@ -10256,7 +10324,7 @@
         <v>Kenya</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>194</v>
       </c>
@@ -10268,7 +10336,7 @@
         <v>Kiribati</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>819</v>
       </c>
@@ -10280,7 +10348,7 @@
         <v>Korea, Democratic People's Republic of</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>783</v>
       </c>
@@ -10292,7 +10360,7 @@
         <v>Korea, Republic of</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>195</v>
       </c>
@@ -10304,7 +10372,7 @@
         <v>Kuwait</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>781</v>
       </c>
@@ -10316,7 +10384,7 @@
         <v>Kyrgyzstan</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>784</v>
       </c>
@@ -10328,7 +10396,7 @@
         <v>Lao People's Democratic Republic</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>790</v>
       </c>
@@ -10340,7 +10408,7 @@
         <v>Latvia</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>785</v>
       </c>
@@ -10352,7 +10420,7 @@
         <v>Lebanon</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>197</v>
       </c>
@@ -10364,7 +10432,7 @@
         <v>Lesotho</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>200</v>
       </c>
@@ -10376,7 +10444,7 @@
         <v>Liberia</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>786</v>
       </c>
@@ -10388,7 +10456,7 @@
         <v>Libyan Arab Jamahiriya</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>202</v>
       </c>
@@ -10400,7 +10468,7 @@
         <v>Liechtenstein</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>788</v>
       </c>
@@ -10412,7 +10480,7 @@
         <v>Lithuania</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>789</v>
       </c>
@@ -10424,7 +10492,7 @@
         <v>Luxembourg</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>205</v>
       </c>
@@ -10436,7 +10504,7 @@
         <v>Macao</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>798</v>
       </c>
@@ -10448,7 +10516,7 @@
         <v>Macedonia, the former Yugoslav Republic of</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>207</v>
       </c>
@@ -10460,7 +10528,7 @@
         <v>Madagascar</v>
       </c>
     </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
         <v>209</v>
       </c>
@@ -10472,7 +10540,7 @@
         <v>Malawi</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" t="s">
         <v>803</v>
       </c>
@@ -10484,7 +10552,7 @@
         <v>Malaysia</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" t="s">
         <v>795</v>
       </c>
@@ -10496,7 +10564,7 @@
         <v>Maldives</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" t="s">
         <v>210</v>
       </c>
@@ -10508,7 +10576,7 @@
         <v>Mali</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" t="s">
         <v>211</v>
       </c>
@@ -10520,7 +10588,7 @@
         <v>Malta</v>
       </c>
     </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" t="s">
         <v>797</v>
       </c>
@@ -10532,7 +10600,7 @@
         <v>Marshall Islands</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" t="s">
         <v>801</v>
       </c>
@@ -10544,7 +10612,7 @@
         <v>Martinique</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" t="s">
         <v>215</v>
       </c>
@@ -10556,7 +10624,7 @@
         <v>Mauritania</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" t="s">
         <v>802</v>
       </c>
@@ -10568,7 +10636,7 @@
         <v>Mauritius</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" t="s">
         <v>804</v>
       </c>
@@ -10580,7 +10648,7 @@
         <v>Mayotte</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
         <v>796</v>
       </c>
@@ -10592,7 +10660,7 @@
         <v>Mexico</v>
       </c>
     </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>756</v>
       </c>
@@ -10604,7 +10672,7 @@
         <v>Micronesia, Federated States of</v>
       </c>
     </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>794</v>
       </c>
@@ -10616,7 +10684,7 @@
         <v>Moldova, Republic of</v>
       </c>
     </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>793</v>
       </c>
@@ -10628,7 +10696,7 @@
         <v>Monaco</v>
       </c>
     </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>220</v>
       </c>
@@ -10640,7 +10708,7 @@
         <v>Mongolia</v>
       </c>
     </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>222</v>
       </c>
@@ -10652,7 +10720,7 @@
         <v>Montenegro</v>
       </c>
     </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>800</v>
       </c>
@@ -10664,7 +10732,7 @@
         <v>Montserrat</v>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" t="s">
         <v>792</v>
       </c>
@@ -10676,7 +10744,7 @@
         <v>Morocco</v>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>223</v>
       </c>
@@ -10688,7 +10756,7 @@
         <v>Mozambique</v>
       </c>
     </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>224</v>
       </c>
@@ -10700,7 +10768,7 @@
         <v>Myanmar</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>226</v>
       </c>
@@ -10712,7 +10780,7 @@
         <v>Namibia</v>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>227</v>
       </c>
@@ -10724,7 +10792,7 @@
         <v>Nauru</v>
       </c>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>228</v>
       </c>
@@ -10736,7 +10804,7 @@
         <v>Nepal</v>
       </c>
     </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" t="s">
         <v>807</v>
       </c>
@@ -10748,7 +10816,7 @@
         <v>Netherlands</v>
       </c>
     </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>710</v>
       </c>
@@ -10760,7 +10828,7 @@
         <v>Netherlands Antilles</v>
       </c>
     </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>805</v>
       </c>
@@ -10772,7 +10840,7 @@
         <v>New Caledonia</v>
       </c>
     </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" t="s">
         <v>809</v>
       </c>
@@ -10784,7 +10852,7 @@
         <v>New Zealand</v>
       </c>
     </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C161" t="s">
         <v>229</v>
       </c>
@@ -10796,7 +10864,7 @@
         <v>Nicaragua</v>
       </c>
     </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C162" t="s">
         <v>230</v>
       </c>
@@ -10808,7 +10876,7 @@
         <v>Niger</v>
       </c>
     </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C163" t="s">
         <v>231</v>
       </c>
@@ -10820,7 +10888,7 @@
         <v>Nigeria</v>
       </c>
     </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C164" t="s">
         <v>232</v>
       </c>
@@ -10832,7 +10900,7 @@
         <v>Niue</v>
       </c>
     </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C165" t="s">
         <v>806</v>
       </c>
@@ -10844,7 +10912,7 @@
         <v>Norfolk Island</v>
       </c>
     </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C166" t="s">
         <v>799</v>
       </c>
@@ -10856,7 +10924,7 @@
         <v>Northern Mariana Islands</v>
       </c>
     </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C167" t="s">
         <v>808</v>
       </c>
@@ -10868,7 +10936,7 @@
         <v>Norway</v>
       </c>
     </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
         <v>810</v>
       </c>
@@ -10880,7 +10948,7 @@
         <v>Oman</v>
       </c>
     </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C169" t="s">
         <v>811</v>
       </c>
@@ -10892,7 +10960,7 @@
         <v>Pakistan</v>
       </c>
     </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C170" t="s">
         <v>816</v>
       </c>
@@ -10904,7 +10972,7 @@
         <v>Palau</v>
       </c>
     </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C171" t="s">
         <v>820</v>
       </c>
@@ -10916,7 +10984,7 @@
         <v>Palestinian Territory, Occupied</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C172" t="s">
         <v>812</v>
       </c>
@@ -10928,7 +10996,7 @@
         <v>Panama</v>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C173" t="s">
         <v>817</v>
       </c>
@@ -10940,7 +11008,7 @@
         <v>Papua New Guinea</v>
       </c>
     </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C174" t="s">
         <v>245</v>
       </c>
@@ -10952,7 +11020,7 @@
         <v>Paraguay</v>
       </c>
     </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>814</v>
       </c>
@@ -10964,7 +11032,7 @@
         <v>Peru</v>
       </c>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C176" t="s">
         <v>815</v>
       </c>
@@ -10976,7 +11044,7 @@
         <v>Philippines</v>
       </c>
     </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C177" t="s">
         <v>813</v>
       </c>
@@ -10988,7 +11056,7 @@
         <v>Pitcairn</v>
       </c>
     </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C178" t="s">
         <v>818</v>
       </c>
@@ -11000,7 +11068,7 @@
         <v>Poland</v>
       </c>
     </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C179" t="s">
         <v>250</v>
       </c>
@@ -11012,7 +11080,7 @@
         <v>Portugal</v>
       </c>
     </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C180" t="s">
         <v>252</v>
       </c>
@@ -11024,7 +11092,7 @@
         <v>Puerto Rico</v>
       </c>
     </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
         <v>253</v>
       </c>
@@ -11036,7 +11104,7 @@
         <v>Qatar</v>
       </c>
     </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>822</v>
       </c>
@@ -11048,7 +11116,7 @@
         <v>Réunion</v>
       </c>
     </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C183" t="s">
         <v>823</v>
       </c>
@@ -11060,7 +11128,7 @@
         <v>Romania</v>
       </c>
     </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C184" t="s">
         <v>824</v>
       </c>
@@ -11072,7 +11140,7 @@
         <v>Russian Federation</v>
       </c>
     </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C185" t="s">
         <v>265</v>
       </c>
@@ -11084,7 +11152,7 @@
         <v>Rwanda</v>
       </c>
     </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C186" t="s">
         <v>721</v>
       </c>
@@ -11096,7 +11164,7 @@
         <v>Saint Barthélemy</v>
       </c>
     </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
         <v>829</v>
       </c>
@@ -11108,7 +11176,7 @@
         <v>Saint Helena, Ascension and Tristan da Cunha</v>
       </c>
     </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>782</v>
       </c>
@@ -11120,7 +11188,7 @@
         <v>Saint Kitts and Nevis</v>
       </c>
     </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>787</v>
       </c>
@@ -11132,7 +11200,7 @@
         <v>Saint Lucia</v>
       </c>
     </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
         <v>791</v>
       </c>
@@ -11144,7 +11212,7 @@
         <v>Saint Martin (French part)</v>
       </c>
     </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
         <v>833</v>
       </c>
@@ -11156,7 +11224,7 @@
         <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C192" t="s">
         <v>858</v>
       </c>
@@ -11168,7 +11236,7 @@
         <v>Saint Vincent and the Grenadines</v>
       </c>
     </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C193" t="s">
         <v>268</v>
       </c>
@@ -11180,7 +11248,7 @@
         <v>Samoa</v>
       </c>
     </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C194" t="s">
         <v>271</v>
       </c>
@@ -11192,7 +11260,7 @@
         <v>San Marino</v>
       </c>
     </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C195" t="s">
         <v>835</v>
       </c>
@@ -11204,7 +11272,7 @@
         <v>Sao Tome and Principe</v>
       </c>
     </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C196" t="s">
         <v>825</v>
       </c>
@@ -11216,7 +11284,7 @@
         <v>Saudi Arabia</v>
       </c>
     </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C197" t="s">
         <v>278</v>
       </c>
@@ -11228,7 +11296,7 @@
         <v>Senegal</v>
       </c>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C198" t="s">
         <v>834</v>
       </c>
@@ -11240,7 +11308,7 @@
         <v>Serbia</v>
       </c>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C199" t="s">
         <v>279</v>
       </c>
@@ -11252,7 +11320,7 @@
         <v>Seychelles</v>
       </c>
     </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C200" t="s">
         <v>832</v>
       </c>
@@ -11264,7 +11332,7 @@
         <v>Sierra Leone</v>
       </c>
     </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C201" t="s">
         <v>827</v>
       </c>
@@ -11276,7 +11344,7 @@
         <v>Singapore</v>
       </c>
     </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C202" t="s">
         <v>837</v>
       </c>
@@ -11288,7 +11356,7 @@
         <v>Slovakia</v>
       </c>
     </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C203" t="s">
         <v>838</v>
       </c>
@@ -11300,7 +11368,7 @@
         <v>Slovenia</v>
       </c>
     </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C204" t="s">
         <v>831</v>
       </c>
@@ -11312,7 +11380,7 @@
         <v>Solomon Islands</v>
       </c>
     </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C205" t="s">
         <v>284</v>
       </c>
@@ -11324,7 +11392,7 @@
         <v>Somalia</v>
       </c>
     </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
         <v>865</v>
       </c>
@@ -11336,7 +11404,7 @@
         <v>South Africa</v>
       </c>
     </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C207" t="s">
         <v>828</v>
       </c>
@@ -11348,7 +11416,7 @@
         <v>South Georgia and the South Sandwich Islands</v>
       </c>
     </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>750</v>
       </c>
@@ -11360,7 +11428,7 @@
         <v>Spain</v>
       </c>
     </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>286</v>
       </c>
@@ -11372,7 +11440,7 @@
         <v>Sri Lanka</v>
       </c>
     </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C210" t="s">
         <v>826</v>
       </c>
@@ -11384,7 +11452,7 @@
         <v>Sudan</v>
       </c>
     </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C211" t="s">
         <v>836</v>
       </c>
@@ -11396,7 +11464,7 @@
         <v>Suriname</v>
       </c>
     </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C212" t="s">
         <v>830</v>
       </c>
@@ -11408,7 +11476,7 @@
         <v>Svalbard and Jan Mayen</v>
       </c>
     </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C213" t="s">
         <v>840</v>
       </c>
@@ -11420,7 +11488,7 @@
         <v>Swaziland</v>
       </c>
     </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C214" t="s">
         <v>839</v>
       </c>
@@ -11432,7 +11500,7 @@
         <v>Sweden</v>
       </c>
     </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C215" t="s">
         <v>732</v>
       </c>
@@ -11444,7 +11512,7 @@
         <v>Switzerland</v>
       </c>
     </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C216" t="s">
         <v>841</v>
       </c>
@@ -11456,7 +11524,7 @@
         <v>Syrian Arab Republic</v>
       </c>
     </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C217" t="s">
         <v>851</v>
       </c>
@@ -11468,7 +11536,7 @@
         <v>Taiwan, Province of China</v>
       </c>
     </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>844</v>
       </c>
@@ -11480,7 +11548,7 @@
         <v>Tajikistan</v>
       </c>
     </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>852</v>
       </c>
@@ -11492,7 +11560,7 @@
         <v>Tanzania, United Republic of</v>
       </c>
     </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C220" t="s">
         <v>843</v>
       </c>
@@ -11504,7 +11572,7 @@
         <v>Thailand</v>
       </c>
     </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C221" t="s">
         <v>846</v>
       </c>
@@ -11516,7 +11584,7 @@
         <v>Timor-Leste</v>
       </c>
     </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C222" t="s">
         <v>311</v>
       </c>
@@ -11528,7 +11596,7 @@
         <v>Togo</v>
       </c>
     </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C223" t="s">
         <v>845</v>
       </c>
@@ -11540,7 +11608,7 @@
         <v>Tokelau</v>
       </c>
     </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C224" t="s">
         <v>847</v>
       </c>
@@ -11552,7 +11620,7 @@
         <v>Tonga</v>
       </c>
     </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C225" t="s">
         <v>848</v>
       </c>
@@ -11564,7 +11632,7 @@
         <v>Trinidad and Tobago</v>
       </c>
     </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C226" t="s">
         <v>849</v>
       </c>
@@ -11576,7 +11644,7 @@
         <v>Tunisia</v>
       </c>
     </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C227" t="s">
         <v>850</v>
       </c>
@@ -11588,7 +11656,7 @@
         <v>Turkey</v>
       </c>
     </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C228" t="s">
         <v>317</v>
       </c>
@@ -11600,7 +11668,7 @@
         <v>Turkmenistan</v>
       </c>
     </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C229" t="s">
         <v>842</v>
       </c>
@@ -11612,7 +11680,7 @@
         <v>Turks and Caicos Islands</v>
       </c>
     </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C230" t="s">
         <v>319</v>
       </c>
@@ -11624,7 +11692,7 @@
         <v>Tuvalu</v>
       </c>
     </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C231" t="s">
         <v>321</v>
       </c>
@@ -11636,7 +11704,7 @@
         <v>Uganda</v>
       </c>
     </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C232" t="s">
         <v>853</v>
       </c>
@@ -11648,7 +11716,7 @@
         <v>Ukraine</v>
       </c>
     </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C233" t="s">
         <v>711</v>
       </c>
@@ -11660,7 +11728,7 @@
         <v>United Arab Emirates</v>
       </c>
     </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C234" t="s">
         <v>758</v>
       </c>
@@ -11672,7 +11740,7 @@
         <v>United Kingdom</v>
       </c>
     </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C235" t="s">
         <v>855</v>
       </c>
@@ -11684,7 +11752,7 @@
         <v>United States</v>
       </c>
     </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C236" t="s">
         <v>854</v>
       </c>
@@ -11696,7 +11764,7 @@
         <v>United States Minor Outlying Islands</v>
       </c>
     </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C237" t="s">
         <v>322</v>
       </c>
@@ -11708,7 +11776,7 @@
         <v>Uruguay</v>
       </c>
     </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C238" t="s">
         <v>856</v>
       </c>
@@ -11720,7 +11788,7 @@
         <v>Uzbekistan</v>
       </c>
     </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C239" t="s">
         <v>324</v>
       </c>
@@ -11732,7 +11800,7 @@
         <v>Vanuatu</v>
       </c>
     </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C240" t="s">
         <v>859</v>
       </c>
@@ -11744,7 +11812,7 @@
         <v>Venezuela, Bolivarian Republic of</v>
       </c>
     </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C241" t="s">
         <v>862</v>
       </c>
@@ -11756,7 +11824,7 @@
         <v>Viet Nam</v>
       </c>
     </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C242" t="s">
         <v>860</v>
       </c>
@@ -11768,7 +11836,7 @@
         <v>Virgin Islands, British</v>
       </c>
     </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C243" t="s">
         <v>861</v>
       </c>
@@ -11780,7 +11848,7 @@
         <v>Virgin Islands, U.S.</v>
       </c>
     </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C244" t="s">
         <v>863</v>
       </c>
@@ -11792,7 +11860,7 @@
         <v>Wallis and Futuna</v>
       </c>
     </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C245" t="s">
         <v>749</v>
       </c>
@@ -11804,7 +11872,7 @@
         <v>Western Sahara</v>
       </c>
     </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C246" t="s">
         <v>864</v>
       </c>
@@ -11816,7 +11884,7 @@
         <v>Yemen</v>
       </c>
     </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C247" t="s">
         <v>327</v>
       </c>
@@ -11828,7 +11896,7 @@
         <v>Zambia</v>
       </c>
     </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>328</v>
       </c>
